--- a/BackTest/2019-11-12 BackTest FZZ.xlsx
+++ b/BackTest/2019-11-12 BackTest FZZ.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.8500000000000023</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-34.3283582089552</v>
+      </c>
       <c r="L12" t="n">
         <v>6.443000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.050000000000002</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-3.448275862068987</v>
+      </c>
       <c r="L13" t="n">
         <v>6.44</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.110000000000002</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-9.67741935483868</v>
+      </c>
       <c r="L14" t="n">
         <v>6.431000000000002</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.280000000000002</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>7.27272727272727</v>
+      </c>
       <c r="L15" t="n">
         <v>6.439000000000003</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.450000000000002</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>19.68503937007872</v>
+      </c>
       <c r="L16" t="n">
         <v>6.464000000000003</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.560000000000001</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>26.08695652173908</v>
+      </c>
       <c r="L17" t="n">
         <v>6.500000000000003</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.580000000000001</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>24.28571428571427</v>
+      </c>
       <c r="L18" t="n">
         <v>6.534000000000003</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.590000000000001</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>47.45762711864412</v>
+      </c>
       <c r="L19" t="n">
         <v>6.567000000000003</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.650000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>27.45098039215681</v>
+      </c>
       <c r="L20" t="n">
         <v>6.617000000000003</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.770000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>67.39130434782616</v>
+      </c>
       <c r="L21" t="n">
         <v>6.657000000000002</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>64.28571428571436</v>
+      </c>
       <c r="L22" t="n">
         <v>6.731000000000002</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.050000000000002</v>
       </c>
       <c r="K23" t="n">
-        <v>35.82887700534757</v>
+        <v>80.85106382978725</v>
       </c>
       <c r="L23" t="n">
         <v>6.801000000000002</v>
@@ -1466,7 +1488,7 @@
         <v>2.290000000000002</v>
       </c>
       <c r="K24" t="n">
-        <v>43.12796208530804</v>
+        <v>82.17821782178221</v>
       </c>
       <c r="L24" t="n">
         <v>6.901000000000002</v>
@@ -1515,7 +1537,7 @@
         <v>2.430000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>46.66666666666664</v>
+        <v>81.63265306122452</v>
       </c>
       <c r="L25" t="n">
         <v>6.998000000000002</v>
@@ -1564,7 +1586,7 @@
         <v>2.670000000000002</v>
       </c>
       <c r="K26" t="n">
-        <v>32.53012048192768</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="L26" t="n">
         <v>7.054000000000002</v>
@@ -1613,7 +1635,7 @@
         <v>2.780000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>26.92307692307692</v>
+        <v>30.00000000000002</v>
       </c>
       <c r="L27" t="n">
         <v>7.088000000000003</v>
@@ -1662,7 +1684,7 @@
         <v>2.960000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>31.6546762589928</v>
+        <v>40.14598540145984</v>
       </c>
       <c r="L28" t="n">
         <v>7.142000000000003</v>
@@ -1711,7 +1733,7 @@
         <v>3.11</v>
       </c>
       <c r="K29" t="n">
-        <v>35.15358361774742</v>
+        <v>52.05479452054796</v>
       </c>
       <c r="L29" t="n">
         <v>7.212000000000003</v>
@@ -1760,7 +1782,7 @@
         <v>3.12</v>
       </c>
       <c r="K30" t="n">
-        <v>46.12546125461256</v>
+        <v>46.6666666666667</v>
       </c>
       <c r="L30" t="n">
         <v>7.287000000000003</v>
@@ -1809,7 +1831,7 @@
         <v>3.17</v>
       </c>
       <c r="K31" t="n">
-        <v>42.51968503937007</v>
+        <v>43.75000000000002</v>
       </c>
       <c r="L31" t="n">
         <v>7.355000000000004</v>
@@ -1860,7 +1882,7 @@
         <v>3.279999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>48.97119341563793</v>
+        <v>23.57723577235777</v>
       </c>
       <c r="L32" t="n">
         <v>7.400000000000004</v>
@@ -1911,7 +1933,7 @@
         <v>3.289999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>43.75000000000009</v>
+        <v>4.000000000000014</v>
       </c>
       <c r="L33" t="n">
         <v>7.428000000000004</v>
@@ -1962,7 +1984,7 @@
         <v>3.289999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>47.70642201834869</v>
+        <v>-11.62790697674418</v>
       </c>
       <c r="L34" t="n">
         <v>7.432000000000004</v>
@@ -2013,7 +2035,7 @@
         <v>3.409999999999998</v>
       </c>
       <c r="K35" t="n">
-        <v>46.47887323943667</v>
+        <v>35.13513513513526</v>
       </c>
       <c r="L35" t="n">
         <v>7.434000000000003</v>
@@ -2064,7 +2086,7 @@
         <v>3.549999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>45.71428571428578</v>
+        <v>66.2337662337664</v>
       </c>
       <c r="L36" t="n">
         <v>7.474000000000004</v>
@@ -2115,7 +2137,7 @@
         <v>3.839999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>50.00000000000008</v>
+        <v>70.45454545454561</v>
       </c>
       <c r="L37" t="n">
         <v>7.554000000000004</v>
@@ -2166,7 +2188,7 @@
         <v>3.869999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>49.3449781659389</v>
+        <v>57.8947368421054</v>
       </c>
       <c r="L38" t="n">
         <v>7.613000000000002</v>
@@ -2217,7 +2239,7 @@
         <v>4.029999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>40.16393442622952</v>
+        <v>31.8681318681319</v>
       </c>
       <c r="L39" t="n">
         <v>7.641000000000003</v>
@@ -2268,7 +2290,7 @@
         <v>4.209999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>33.59375000000004</v>
+        <v>5.769230769230822</v>
       </c>
       <c r="L40" t="n">
         <v>7.652000000000003</v>
@@ -2319,7 +2341,7 @@
         <v>4.249999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>31.45161290322584</v>
+        <v>21.64948453608248</v>
       </c>
       <c r="L41" t="n">
         <v>7.662000000000002</v>
@@ -2370,7 +2392,7 @@
         <v>4.259999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>28.27004219409285</v>
+        <v>23.71134020618553</v>
       </c>
       <c r="L42" t="n">
         <v>7.684000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>4.339999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>25.76419213973801</v>
+        <v>29.52380952380949</v>
       </c>
       <c r="L43" t="n">
         <v>7.715000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>4.339999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>17.07317073170733</v>
+        <v>20.43010752688175</v>
       </c>
       <c r="L44" t="n">
         <v>7.746000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>4.389999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>13.26530612244899</v>
+        <v>11.90476190476186</v>
       </c>
       <c r="L45" t="n">
         <v>7.770000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>4.459999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>31.84357541899448</v>
+        <v>-19.35483870967743</v>
       </c>
       <c r="L46" t="n">
         <v>7.787000000000002</v>
@@ -2625,7 +2647,7 @@
         <v>4.539999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>43.18181818181822</v>
+        <v>-1.492537313432804</v>
       </c>
       <c r="L47" t="n">
         <v>7.783000000000003</v>
@@ -2676,7 +2698,7 @@
         <v>4.64</v>
       </c>
       <c r="K48" t="n">
-        <v>28.57142857142857</v>
+        <v>8.196721311475375</v>
       </c>
       <c r="L48" t="n">
         <v>7.772000000000003</v>
@@ -2727,7 +2749,7 @@
         <v>4.68</v>
       </c>
       <c r="K49" t="n">
-        <v>18.47133757961785</v>
+        <v>40.42553191489346</v>
       </c>
       <c r="L49" t="n">
         <v>7.773000000000003</v>
@@ -2778,7 +2800,7 @@
         <v>4.69</v>
       </c>
       <c r="K50" t="n">
-        <v>19.74522292993634</v>
+        <v>36.3636363636363</v>
       </c>
       <c r="L50" t="n">
         <v>7.793000000000004</v>
@@ -2829,7 +2851,7 @@
         <v>4.720000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>14.83870967741938</v>
+        <v>26.08695652173906</v>
       </c>
       <c r="L51" t="n">
         <v>7.806000000000004</v>
@@ -2880,7 +2902,7 @@
         <v>4.870000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>11.94968553459115</v>
+        <v>-20.75471698113206</v>
       </c>
       <c r="L52" t="n">
         <v>7.803000000000004</v>
@@ -2931,7 +2953,7 @@
         <v>4.870000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>12.65822784810121</v>
+        <v>-20.75471698113206</v>
       </c>
       <c r="L53" t="n">
         <v>7.792000000000004</v>
@@ -2982,7 +3004,7 @@
         <v>5.06</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5649717514124168</v>
+        <v>-52.23880597014907</v>
       </c>
       <c r="L54" t="n">
         <v>7.762000000000005</v>
@@ -3033,7 +3055,7 @@
         <v>5.11</v>
       </c>
       <c r="K55" t="n">
-        <v>-9.411764705882298</v>
+        <v>-72.30769230769212</v>
       </c>
       <c r="L55" t="n">
         <v>7.722000000000006</v>
@@ -3084,7 +3106,7 @@
         <v>5.11</v>
       </c>
       <c r="K56" t="n">
-        <v>-19.2307692307692</v>
+        <v>-96.49122807017521</v>
       </c>
       <c r="L56" t="n">
         <v>7.675000000000006</v>
@@ -3135,7 +3157,7 @@
         <v>5.35</v>
       </c>
       <c r="K57" t="n">
-        <v>-23.17880794701989</v>
+        <v>-29.57746478873239</v>
       </c>
       <c r="L57" t="n">
         <v>7.644000000000005</v>
@@ -3186,7 +3208,7 @@
         <v>5.69</v>
       </c>
       <c r="K58" t="n">
-        <v>-36.26373626373627</v>
+        <v>-50.49504950495049</v>
       </c>
       <c r="L58" t="n">
         <v>7.589000000000006</v>
@@ -3237,7 +3259,7 @@
         <v>5.73</v>
       </c>
       <c r="K59" t="n">
-        <v>-31.76470588235294</v>
+        <v>-53.84615384615395</v>
       </c>
       <c r="L59" t="n">
         <v>7.534000000000006</v>
@@ -3288,7 +3310,7 @@
         <v>5.76</v>
       </c>
       <c r="K60" t="n">
-        <v>-21.29032258064516</v>
+        <v>-48.07692307692312</v>
       </c>
       <c r="L60" t="n">
         <v>7.481000000000006</v>
@@ -3339,7 +3361,7 @@
         <v>5.96</v>
       </c>
       <c r="K61" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50.45871559633031</v>
       </c>
       <c r="L61" t="n">
         <v>7.411000000000006</v>
@@ -3390,7 +3412,7 @@
         <v>6.11</v>
       </c>
       <c r="K62" t="n">
-        <v>-23.24324324324321</v>
+        <v>-32.25806451612901</v>
       </c>
       <c r="L62" t="n">
         <v>7.371000000000005</v>
@@ -3441,7 +3463,7 @@
         <v>6.45</v>
       </c>
       <c r="K63" t="n">
-        <v>-8.056872037914683</v>
+        <v>9.352517985611506</v>
       </c>
       <c r="L63" t="n">
         <v>7.365000000000005</v>
@@ -3492,7 +3514,7 @@
         <v>6.71</v>
       </c>
       <c r="K64" t="n">
-        <v>-18.1434599156118</v>
+        <v>-5.000000000000006</v>
       </c>
       <c r="L64" t="n">
         <v>7.352000000000006</v>
@@ -3543,7 +3565,7 @@
         <v>6.79</v>
       </c>
       <c r="K65" t="n">
-        <v>-23.33333333333331</v>
+        <v>-9.523809523809534</v>
       </c>
       <c r="L65" t="n">
         <v>7.336000000000004</v>
@@ -3594,7 +3616,7 @@
         <v>6.88</v>
       </c>
       <c r="K66" t="n">
-        <v>-22.31404958677685</v>
+        <v>-20.2614379084967</v>
       </c>
       <c r="L66" t="n">
         <v>7.329000000000003</v>
@@ -3645,7 +3667,7 @@
         <v>6.89</v>
       </c>
       <c r="K67" t="n">
-        <v>-25.95744680851065</v>
+        <v>3.333333333333336</v>
       </c>
       <c r="L67" t="n">
         <v>7.299000000000004</v>
@@ -3696,7 +3718,7 @@
         <v>6.96</v>
       </c>
       <c r="K68" t="n">
-        <v>-25</v>
+        <v>0.8130081300812833</v>
       </c>
       <c r="L68" t="n">
         <v>7.296000000000004</v>
@@ -3747,7 +3769,7 @@
         <v>7.03</v>
       </c>
       <c r="K69" t="n">
-        <v>-19.99999999999999</v>
+        <v>3.937007874015733</v>
       </c>
       <c r="L69" t="n">
         <v>7.304000000000004</v>
@@ -3798,7 +3820,7 @@
         <v>7.05</v>
       </c>
       <c r="K70" t="n">
-        <v>-21.18644067796611</v>
+        <v>21.1009174311927</v>
       </c>
       <c r="L70" t="n">
         <v>7.307000000000004</v>
@@ -3849,7 +3871,7 @@
         <v>7.079999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>-18.6440677966102</v>
+        <v>11.34020618556696</v>
       </c>
       <c r="L71" t="n">
         <v>7.333000000000003</v>
@@ -3900,7 +3922,7 @@
         <v>7.239999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.485232067510548</v>
+        <v>-8.860759493670932</v>
       </c>
       <c r="L72" t="n">
         <v>7.360000000000004</v>
@@ -3951,7 +3973,7 @@
         <v>7.239999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>-5.485232067510548</v>
+        <v>35.84905660377353</v>
       </c>
       <c r="L73" t="n">
         <v>7.353000000000004</v>
@@ -4002,7 +4024,7 @@
         <v>7.429999999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>-5.485232067510548</v>
+        <v>12.50000000000004</v>
       </c>
       <c r="L74" t="n">
         <v>7.353000000000006</v>
@@ -4053,7 +4075,7 @@
         <v>7.459999999999998</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.127659574468117</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="L75" t="n">
         <v>7.364000000000006</v>
@@ -4104,7 +4126,7 @@
         <v>7.499999999999998</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.4184100418410328</v>
+        <v>8.1967213114754</v>
       </c>
       <c r="L76" t="n">
         <v>7.370000000000006</v>
@@ -4155,7 +4177,7 @@
         <v>7.499999999999998</v>
       </c>
       <c r="K77" t="n">
-        <v>-11.62790697674419</v>
+        <v>22.22222222222231</v>
       </c>
       <c r="L77" t="n">
         <v>7.375000000000005</v>
@@ -4206,7 +4228,7 @@
         <v>7.519999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>6.010928961748654</v>
+        <v>14.28571428571439</v>
       </c>
       <c r="L78" t="n">
         <v>7.389000000000006</v>
@@ -4257,7 +4279,7 @@
         <v>7.629999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>2.105263157894739</v>
+        <v>-3.44827586206905</v>
       </c>
       <c r="L79" t="n">
         <v>7.385000000000005</v>
@@ -4308,7 +4330,7 @@
         <v>7.709999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>-3.589743589743605</v>
+        <v>-20.63492063492062</v>
       </c>
       <c r="L80" t="n">
         <v>7.375000000000005</v>
@@ -4359,7 +4381,7 @@
         <v>7.829999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>0.5347593582887589</v>
+        <v>-69.49152542372885</v>
       </c>
       <c r="L81" t="n">
         <v>7.350000000000006</v>
@@ -4410,7 +4432,7 @@
         <v>7.919999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>-12.70718232044202</v>
+        <v>-73.52941176470591</v>
       </c>
       <c r="L82" t="n">
         <v>7.300000000000006</v>
@@ -4461,7 +4483,7 @@
         <v>7.959999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>-35.09933774834441</v>
+        <v>-50.94339622641516</v>
       </c>
       <c r="L83" t="n">
         <v>7.254000000000005</v>
@@ -4512,7 +4534,7 @@
         <v>8.07</v>
       </c>
       <c r="K84" t="n">
-        <v>-11.76470588235295</v>
+        <v>-31.14754098360637</v>
       </c>
       <c r="L84" t="n">
         <v>7.238000000000005</v>
@@ -4563,7 +4585,7 @@
         <v>8.100000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>-8.396946564885512</v>
+        <v>-43.33333333333307</v>
       </c>
       <c r="L85" t="n">
         <v>7.216000000000006</v>
@@ -4614,7 +4636,7 @@
         <v>8.23</v>
       </c>
       <c r="K86" t="n">
-        <v>-24.44444444444444</v>
+        <v>-53.42465753424636</v>
       </c>
       <c r="L86" t="n">
         <v>7.177000000000005</v>
@@ -4665,7 +4687,7 @@
         <v>8.32</v>
       </c>
       <c r="K87" t="n">
-        <v>-17.48251748251748</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L87" t="n">
         <v>7.147000000000006</v>
@@ -4716,7 +4738,7 @@
         <v>8.42</v>
       </c>
       <c r="K88" t="n">
-        <v>-19.17808219178078</v>
+        <v>-39.24050632911383</v>
       </c>
       <c r="L88" t="n">
         <v>7.105000000000006</v>
@@ -4767,7 +4789,7 @@
         <v>8.48</v>
       </c>
       <c r="K89" t="n">
-        <v>-20</v>
+        <v>-22.07792207792203</v>
       </c>
       <c r="L89" t="n">
         <v>7.080000000000005</v>
@@ -4818,7 +4840,7 @@
         <v>8.52</v>
       </c>
       <c r="K90" t="n">
-        <v>-21.0884353741497</v>
+        <v>-13.04347826086954</v>
       </c>
       <c r="L90" t="n">
         <v>7.059000000000006</v>
@@ -4869,7 +4891,7 @@
         <v>8.66</v>
       </c>
       <c r="K91" t="n">
-        <v>-12.65822784810121</v>
+        <v>18.91891891891897</v>
       </c>
       <c r="L91" t="n">
         <v>7.064000000000007</v>
@@ -4920,7 +4942,7 @@
         <v>8.74</v>
       </c>
       <c r="K92" t="n">
-        <v>-29.33333333333328</v>
+        <v>2.564102564102619</v>
       </c>
       <c r="L92" t="n">
         <v>7.070000000000006</v>
@@ -4971,7 +4993,7 @@
         <v>8.77</v>
       </c>
       <c r="K93" t="n">
-        <v>-30.71895424836599</v>
+        <v>-17.14285714285718</v>
       </c>
       <c r="L93" t="n">
         <v>7.069000000000007</v>
@@ -5022,7 +5044,7 @@
         <v>8.77</v>
       </c>
       <c r="K94" t="n">
-        <v>-20.89552238805971</v>
+        <v>-13.43283582089554</v>
       </c>
       <c r="L94" t="n">
         <v>7.057000000000007</v>
@@ -5073,7 +5095,7 @@
         <v>8.809999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>-25.92592592592589</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>7.044000000000008</v>
@@ -5124,7 +5146,7 @@
         <v>8.829999999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>-30.82706766917288</v>
+        <v>-21.56862745098037</v>
       </c>
       <c r="L96" t="n">
         <v>7.042000000000009</v>
@@ -5175,7 +5197,7 @@
         <v>8.879999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>-33.33333333333331</v>
+        <v>-13.0434782608697</v>
       </c>
       <c r="L97" t="n">
         <v>7.026000000000008</v>
@@ -5226,7 +5248,7 @@
         <v>8.93</v>
       </c>
       <c r="K98" t="n">
-        <v>-30.49645390070917</v>
+        <v>-15.55555555555545</v>
       </c>
       <c r="L98" t="n">
         <v>7.025000000000008</v>
@@ -5277,7 +5299,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>-15.71428571428569</v>
+        <v>13.72549019607849</v>
       </c>
       <c r="L99" t="n">
         <v>7.028000000000008</v>
@@ -5328,7 +5350,7 @@
         <v>9.049999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>-8.955223880597025</v>
+        <v>-12.82051282051304</v>
       </c>
       <c r="L100" t="n">
         <v>7.037000000000008</v>
@@ -5379,7 +5401,7 @@
         <v>9.049999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>9.677419354838543</v>
       </c>
       <c r="L101" t="n">
         <v>7.032000000000006</v>
@@ -5430,7 +5452,7 @@
         <v>9.069999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>6.086956521739157</v>
+        <v>13.33333333333339</v>
       </c>
       <c r="L102" t="n">
         <v>7.033000000000007</v>
@@ -5481,7 +5503,7 @@
         <v>9.069999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>2.702702702702727</v>
+        <v>13.33333333333339</v>
       </c>
       <c r="L103" t="n">
         <v>7.037000000000006</v>
@@ -5532,7 +5554,7 @@
         <v>9.079999999999998</v>
       </c>
       <c r="K104" t="n">
-        <v>-8.910891089108915</v>
+        <v>25.92592592592607</v>
       </c>
       <c r="L104" t="n">
         <v>7.040000000000004</v>
@@ -5583,7 +5605,7 @@
         <v>9.079999999999998</v>
       </c>
       <c r="K105" t="n">
-        <v>-6.122448979591817</v>
+        <v>35.99999999999994</v>
       </c>
       <c r="L105" t="n">
         <v>7.047000000000006</v>
@@ -5634,7 +5656,7 @@
         <v>9.239999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>-8.910891089108915</v>
+        <v>-5.555555555555445</v>
       </c>
       <c r="L106" t="n">
         <v>7.040000000000004</v>
@@ -5685,7 +5707,7 @@
         <v>9.319999999999999</v>
       </c>
       <c r="K107" t="n">
-        <v>-9.999999999999982</v>
+        <v>2.564102564102518</v>
       </c>
       <c r="L107" t="n">
         <v>7.046000000000004</v>
@@ -5736,7 +5758,7 @@
         <v>9.389999999999999</v>
       </c>
       <c r="K108" t="n">
-        <v>-7.216494845360863</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L108" t="n">
         <v>7.040000000000004</v>
@@ -5787,7 +5809,7 @@
         <v>9.43</v>
       </c>
       <c r="K109" t="n">
-        <v>-17.89473684210527</v>
+        <v>-57.89473684210508</v>
       </c>
       <c r="L109" t="n">
         <v>7.020000000000003</v>
@@ -5838,7 +5860,7 @@
         <v>9.469999999999999</v>
       </c>
       <c r="K110" t="n">
-        <v>-9.473684210526308</v>
+        <v>-42.8571428571428</v>
       </c>
       <c r="L110" t="n">
         <v>7.002000000000004</v>
@@ -5889,7 +5911,7 @@
         <v>9.549999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>-16.85393258426973</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L111" t="n">
         <v>6.992000000000004</v>
@@ -5940,7 +5962,7 @@
         <v>9.559999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>-9.756097560975636</v>
+        <v>-18.36734693877547</v>
       </c>
       <c r="L112" t="n">
         <v>6.983000000000004</v>
@@ -5991,7 +6013,7 @@
         <v>9.569999999999999</v>
       </c>
       <c r="K113" t="n">
-        <v>-7.499999999999961</v>
+        <v>-18.36734693877547</v>
       </c>
       <c r="L113" t="n">
         <v>6.973000000000004</v>
@@ -6042,7 +6064,7 @@
         <v>9.59</v>
       </c>
       <c r="K114" t="n">
-        <v>-9.756097560975615</v>
+        <v>-21.56862745098039</v>
       </c>
       <c r="L114" t="n">
         <v>6.962000000000003</v>
@@ -6093,7 +6115,7 @@
         <v>9.74</v>
       </c>
       <c r="K115" t="n">
-        <v>-20.43010752688173</v>
+        <v>-20.00000000000004</v>
       </c>
       <c r="L115" t="n">
         <v>6.936000000000004</v>
@@ -6144,7 +6166,7 @@
         <v>9.84</v>
       </c>
       <c r="K116" t="n">
-        <v>-6.930693069306948</v>
+        <v>-15.38461538461536</v>
       </c>
       <c r="L116" t="n">
         <v>6.936000000000004</v>
@@ -6195,7 +6217,7 @@
         <v>9.84</v>
       </c>
       <c r="K117" t="n">
-        <v>-2.083333333333287</v>
+        <v>-2.222222222222169</v>
       </c>
       <c r="L117" t="n">
         <v>6.928000000000004</v>
@@ -6246,7 +6268,7 @@
         <v>9.969999999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>-19.23076923076926</v>
+        <v>-18.51851851851848</v>
       </c>
       <c r="L118" t="n">
         <v>6.914000000000004</v>
@@ -6297,7 +6319,7 @@
         <v>10.05</v>
       </c>
       <c r="K119" t="n">
-        <v>-37.25490196078432</v>
+        <v>-37.93103448275858</v>
       </c>
       <c r="L119" t="n">
         <v>6.896000000000005</v>
@@ -6348,7 +6370,7 @@
         <v>10.15</v>
       </c>
       <c r="K120" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333338</v>
       </c>
       <c r="L120" t="n">
         <v>6.884000000000005</v>
@@ -6399,7 +6421,7 @@
         <v>10.16</v>
       </c>
       <c r="K121" t="n">
-        <v>-27.92792792792791</v>
+        <v>-33.33333333333338</v>
       </c>
       <c r="L121" t="n">
         <v>6.863000000000005</v>
@@ -6450,7 +6472,7 @@
         <v>10.16</v>
       </c>
       <c r="K122" t="n">
-        <v>-26.60550458715597</v>
+        <v>-32.20338983050855</v>
       </c>
       <c r="L122" t="n">
         <v>6.843000000000006</v>
@@ -6501,7 +6523,7 @@
         <v>10.2</v>
       </c>
       <c r="K123" t="n">
-        <v>-29.20353982300884</v>
+        <v>-34.42622950819675</v>
       </c>
       <c r="L123" t="n">
         <v>6.820000000000006</v>
@@ -6552,7 +6574,7 @@
         <v>10.24</v>
       </c>
       <c r="K124" t="n">
-        <v>-24.13793103448278</v>
+        <v>-3.999999999999929</v>
       </c>
       <c r="L124" t="n">
         <v>6.803000000000007</v>
@@ -6603,7 +6625,7 @@
         <v>10.25</v>
       </c>
       <c r="K125" t="n">
-        <v>-24.78632478632479</v>
+        <v>-31.70731707317083</v>
       </c>
       <c r="L125" t="n">
         <v>6.800000000000007</v>
@@ -6654,7 +6676,7 @@
         <v>10.32</v>
       </c>
       <c r="K126" t="n">
-        <v>-18.51851851851853</v>
+        <v>-41.66666666666682</v>
       </c>
       <c r="L126" t="n">
         <v>6.780000000000006</v>
@@ -6705,7 +6727,7 @@
         <v>10.39</v>
       </c>
       <c r="K127" t="n">
-        <v>-19.62616822429906</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>6.767000000000007</v>
@@ -6756,7 +6778,7 @@
         <v>10.39</v>
       </c>
       <c r="K128" t="n">
-        <v>-13.99999999999997</v>
+        <v>23.52941176470591</v>
       </c>
       <c r="L128" t="n">
         <v>6.767000000000007</v>
@@ -6807,7 +6829,7 @@
         <v>10.39</v>
       </c>
       <c r="K129" t="n">
-        <v>-10.41666666666664</v>
+        <v>-8.333333333333147</v>
       </c>
       <c r="L129" t="n">
         <v>6.775000000000007</v>
@@ -6858,7 +6880,7 @@
         <v>10.47</v>
       </c>
       <c r="K130" t="n">
-        <v>-21.99999999999998</v>
+        <v>-29.03225806451604</v>
       </c>
       <c r="L130" t="n">
         <v>6.765000000000008</v>
@@ -6909,7 +6931,7 @@
         <v>10.55</v>
       </c>
       <c r="K131" t="n">
-        <v>-21.99999999999998</v>
+        <v>-2.564102564102506</v>
       </c>
       <c r="L131" t="n">
         <v>6.764000000000007</v>
@@ -6960,7 +6982,7 @@
         <v>10.55</v>
       </c>
       <c r="K132" t="n">
-        <v>-21.2121212121212</v>
+        <v>8.571428571428651</v>
       </c>
       <c r="L132" t="n">
         <v>6.763000000000007</v>
@@ -7011,7 +7033,7 @@
         <v>10.65</v>
       </c>
       <c r="K133" t="n">
-        <v>-27.77777777777784</v>
+        <v>-26.829268292683</v>
       </c>
       <c r="L133" t="n">
         <v>6.756000000000006</v>
@@ -7062,7 +7084,7 @@
         <v>10.73</v>
       </c>
       <c r="K134" t="n">
-        <v>-17.54385964912284</v>
+        <v>-4.166666666666759</v>
       </c>
       <c r="L134" t="n">
         <v>6.753000000000005</v>
@@ -7113,7 +7135,7 @@
         <v>10.83</v>
       </c>
       <c r="K135" t="n">
-        <v>-13.76146788990823</v>
+        <v>-9.80392156862742</v>
       </c>
       <c r="L135" t="n">
         <v>6.741000000000005</v>
@@ -7164,7 +7186,7 @@
         <v>10.84</v>
       </c>
       <c r="K136" t="n">
-        <v>-26.00000000000002</v>
+        <v>-28.88888888888891</v>
       </c>
       <c r="L136" t="n">
         <v>6.735000000000007</v>
@@ -7215,7 +7237,7 @@
         <v>10.84</v>
       </c>
       <c r="K137" t="n">
-        <v>-26.00000000000002</v>
+        <v>-28.88888888888891</v>
       </c>
       <c r="L137" t="n">
         <v>6.722000000000007</v>
@@ -7266,7 +7288,7 @@
         <v>10.89</v>
       </c>
       <c r="K138" t="n">
-        <v>-8.695652173913068</v>
+        <v>-16.00000000000007</v>
       </c>
       <c r="L138" t="n">
         <v>6.714000000000008</v>
@@ -7368,7 +7390,7 @@
         <v>10.93</v>
       </c>
       <c r="K140" t="n">
-        <v>-7.692307692307667</v>
+        <v>-10.52631578947377</v>
       </c>
       <c r="L140" t="n">
         <v>6.710000000000006</v>
@@ -7419,7 +7441,7 @@
         <v>10.93</v>
       </c>
       <c r="K141" t="n">
-        <v>-6.493506493506489</v>
+        <v>-10.52631578947377</v>
       </c>
       <c r="L141" t="n">
         <v>6.706000000000006</v>
@@ -7470,7 +7492,7 @@
         <v>10.93</v>
       </c>
       <c r="K142" t="n">
-        <v>-6.493506493506489</v>
+        <v>21.42857142857179</v>
       </c>
       <c r="L142" t="n">
         <v>6.702000000000005</v>
@@ -7521,7 +7543,7 @@
         <v>10.96</v>
       </c>
       <c r="K143" t="n">
-        <v>2.631578947368378</v>
+        <v>4.347826086956489</v>
       </c>
       <c r="L143" t="n">
         <v>6.711000000000004</v>
@@ -7572,7 +7594,7 @@
         <v>11.06</v>
       </c>
       <c r="K144" t="n">
-        <v>9.756097560975658</v>
+        <v>91.30434782608819</v>
       </c>
       <c r="L144" t="n">
         <v>6.722000000000004</v>
@@ -7623,7 +7645,7 @@
         <v>11.07999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>8.433734939758999</v>
+        <v>83.3333333333342</v>
       </c>
       <c r="L145" t="n">
         <v>6.741000000000004</v>
@@ -7674,7 +7696,7 @@
         <v>11.13</v>
       </c>
       <c r="K146" t="n">
-        <v>11.11111111111114</v>
+        <v>51.72413793103476</v>
       </c>
       <c r="L146" t="n">
         <v>6.756000000000003</v>
@@ -7725,7 +7747,7 @@
         <v>11.14</v>
       </c>
       <c r="K147" t="n">
-        <v>1.333333333333311</v>
+        <v>36.0000000000002</v>
       </c>
       <c r="L147" t="n">
         <v>6.770000000000003</v>
@@ -7776,7 +7798,7 @@
         <v>11.27999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>-14.60674157303377</v>
+        <v>-12.82051282051287</v>
       </c>
       <c r="L148" t="n">
         <v>6.765000000000003</v>
@@ -7827,7 +7849,7 @@
         <v>11.46999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>5.555555555555546</v>
+        <v>18.51851851851854</v>
       </c>
       <c r="L149" t="n">
         <v>6.779000000000003</v>
@@ -7878,7 +7900,7 @@
         <v>11.53999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>6.54205607476633</v>
+        <v>4.91803278688516</v>
       </c>
       <c r="L150" t="n">
         <v>6.782000000000004</v>
@@ -7929,7 +7951,7 @@
         <v>11.56</v>
       </c>
       <c r="K151" t="n">
-        <v>0.9900990099009728</v>
+        <v>7.936507936507921</v>
       </c>
       <c r="L151" t="n">
         <v>6.787000000000004</v>
@@ -7980,7 +8002,7 @@
         <v>11.56999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>1.960784313725456</v>
+        <v>4.918032786885291</v>
       </c>
       <c r="L152" t="n">
         <v>6.793000000000005</v>
@@ -8031,7 +8053,7 @@
         <v>11.65</v>
       </c>
       <c r="K153" t="n">
-        <v>4.000000000000018</v>
+        <v>-25.42372881355939</v>
       </c>
       <c r="L153" t="n">
         <v>6.788000000000006</v>
@@ -8082,7 +8104,7 @@
         <v>11.77</v>
       </c>
       <c r="K154" t="n">
-        <v>7.692307692307719</v>
+        <v>-1.449275362318807</v>
       </c>
       <c r="L154" t="n">
         <v>6.785000000000005</v>
@@ -8133,7 +8155,7 @@
         <v>11.78</v>
       </c>
       <c r="K155" t="n">
-        <v>17.8947368421053</v>
+        <v>4.615384615384651</v>
       </c>
       <c r="L155" t="n">
         <v>6.783000000000006</v>
@@ -8184,7 +8206,7 @@
         <v>11.89</v>
       </c>
       <c r="K156" t="n">
-        <v>6.666666666666615</v>
+        <v>-9.33333333333335</v>
       </c>
       <c r="L156" t="n">
         <v>6.775000000000006</v>
@@ -8235,7 +8257,7 @@
         <v>11.97</v>
       </c>
       <c r="K157" t="n">
-        <v>13.27433628318581</v>
+        <v>21.73913043478244</v>
       </c>
       <c r="L157" t="n">
         <v>6.776000000000005</v>
@@ -8286,7 +8308,7 @@
         <v>12.06</v>
       </c>
       <c r="K158" t="n">
-        <v>0.8547008547008366</v>
+        <v>-22.0338983050846</v>
       </c>
       <c r="L158" t="n">
         <v>6.782000000000004</v>
@@ -8337,7 +8359,7 @@
         <v>12.14</v>
       </c>
       <c r="K159" t="n">
-        <v>7.199999999999989</v>
+        <v>3.333333333333392</v>
       </c>
       <c r="L159" t="n">
         <v>6.777000000000004</v>
@@ -8388,7 +8410,7 @@
         <v>12.16</v>
       </c>
       <c r="K160" t="n">
-        <v>2.43902439024385</v>
+        <v>-3.333333333333403</v>
       </c>
       <c r="L160" t="n">
         <v>6.777000000000004</v>
@@ -8439,7 +8461,7 @@
         <v>12.29</v>
       </c>
       <c r="K161" t="n">
-        <v>-7.352941176470631</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L161" t="n">
         <v>6.762000000000003</v>
@@ -8490,7 +8512,7 @@
         <v>12.43</v>
       </c>
       <c r="K162" t="n">
-        <v>2.666666666666669</v>
+        <v>7.692307692307746</v>
       </c>
       <c r="L162" t="n">
         <v>6.760000000000003</v>
@@ -8541,7 +8563,7 @@
         <v>12.44</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>-10.44776119402987</v>
       </c>
       <c r="L163" t="n">
         <v>6.765000000000003</v>
@@ -8592,7 +8614,7 @@
         <v>12.58</v>
       </c>
       <c r="K164" t="n">
-        <v>2.631578947368418</v>
+        <v>9.999999999999979</v>
       </c>
       <c r="L164" t="n">
         <v>6.772000000000003</v>
@@ -8643,7 +8665,7 @@
         <v>12.75</v>
       </c>
       <c r="K165" t="n">
-        <v>-6.586826347305341</v>
+        <v>2.325581395348888</v>
       </c>
       <c r="L165" t="n">
         <v>6.763000000000003</v>
@@ -8694,7 +8716,7 @@
         <v>12.8</v>
       </c>
       <c r="K166" t="n">
-        <v>-6.586826347305348</v>
+        <v>-13.2530120481927</v>
       </c>
       <c r="L166" t="n">
         <v>6.760000000000002</v>
@@ -8745,7 +8767,7 @@
         <v>12.98</v>
       </c>
       <c r="K167" t="n">
-        <v>4.347826086956522</v>
+        <v>17.3913043478261</v>
       </c>
       <c r="L167" t="n">
         <v>6.767000000000003</v>
@@ -8796,7 +8818,7 @@
         <v>12.99</v>
       </c>
       <c r="K168" t="n">
-        <v>12.28070175438594</v>
+        <v>8.235294117647097</v>
       </c>
       <c r="L168" t="n">
         <v>6.782000000000004</v>
@@ -8847,7 +8869,7 @@
         <v>12.99</v>
       </c>
       <c r="K169" t="n">
-        <v>1.315789473684238</v>
+        <v>10.84337349397599</v>
       </c>
       <c r="L169" t="n">
         <v>6.789000000000003</v>
@@ -8898,7 +8920,7 @@
         <v>13.01</v>
       </c>
       <c r="K170" t="n">
-        <v>4.761904761904768</v>
+        <v>27.77777777777771</v>
       </c>
       <c r="L170" t="n">
         <v>6.796000000000004</v>
@@ -8949,7 +8971,7 @@
         <v>13.14</v>
       </c>
       <c r="K171" t="n">
-        <v>-5.063291139240505</v>
+        <v>-9.859154929577493</v>
       </c>
       <c r="L171" t="n">
         <v>6.803000000000003</v>
@@ -9000,7 +9022,7 @@
         <v>13.21</v>
       </c>
       <c r="K172" t="n">
-        <v>-1.219512195121923</v>
+        <v>1.298701298701387</v>
       </c>
       <c r="L172" t="n">
         <v>6.803000000000003</v>
@@ -9051,7 +9073,7 @@
         <v>13.22</v>
       </c>
       <c r="K173" t="n">
-        <v>3.184713375796159</v>
+        <v>-21.87500000000007</v>
       </c>
       <c r="L173" t="n">
         <v>6.803000000000003</v>
@@ -9102,7 +9124,7 @@
         <v>13.24</v>
       </c>
       <c r="K174" t="n">
-        <v>-3.40136054421767</v>
+        <v>10.20408163265302</v>
       </c>
       <c r="L174" t="n">
         <v>6.791000000000004</v>
@@ -9153,7 +9175,7 @@
         <v>13.25</v>
       </c>
       <c r="K175" t="n">
-        <v>-3.40136054421767</v>
+        <v>19.99999999999992</v>
       </c>
       <c r="L175" t="n">
         <v>6.795000000000004</v>
@@ -9204,7 +9226,7 @@
         <v>13.28</v>
       </c>
       <c r="K176" t="n">
-        <v>2.158273381294981</v>
+        <v>-39.99999999999994</v>
       </c>
       <c r="L176" t="n">
         <v>6.801000000000005</v>
@@ -9255,7 +9277,7 @@
         <v>13.28</v>
       </c>
       <c r="K177" t="n">
-        <v>-3.816793893129756</v>
+        <v>-37.93103448275861</v>
       </c>
       <c r="L177" t="n">
         <v>6.789000000000004</v>
@@ -9306,7 +9328,7 @@
         <v>13.31</v>
       </c>
       <c r="K178" t="n">
-        <v>5.600000000000015</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L178" t="n">
         <v>6.781000000000004</v>
@@ -9357,7 +9379,7 @@
         <v>13.31</v>
       </c>
       <c r="K179" t="n">
-        <v>-0.8547008547008352</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L179" t="n">
         <v>6.773000000000005</v>
@@ -9408,7 +9430,7 @@
         <v>13.32</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>33.33333333333251</v>
       </c>
       <c r="L180" t="n">
         <v>6.766000000000004</v>
@@ -9459,7 +9481,7 @@
         <v>13.36</v>
       </c>
       <c r="K181" t="n">
-        <v>8.411214953271068</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L181" t="n">
         <v>6.768000000000005</v>
@@ -9510,7 +9532,7 @@
         <v>13.4</v>
       </c>
       <c r="K182" t="n">
-        <v>-1.030927835051613</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>6.767000000000005</v>
@@ -9561,7 +9583,7 @@
         <v>13.42</v>
       </c>
       <c r="K183" t="n">
-        <v>-2.040816326530568</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L183" t="n">
         <v>6.765000000000005</v>
@@ -9612,7 +9634,7 @@
         <v>13.44</v>
       </c>
       <c r="K184" t="n">
-        <v>-20.93023255813952</v>
+        <v>-26.31578947368419</v>
       </c>
       <c r="L184" t="n">
         <v>6.759000000000005</v>
@@ -9663,7 +9685,7 @@
         <v>13.65</v>
       </c>
       <c r="K185" t="n">
-        <v>-24.4444444444445</v>
+        <v>-62.16216216216212</v>
       </c>
       <c r="L185" t="n">
         <v>6.733000000000004</v>
@@ -9714,7 +9736,7 @@
         <v>13.76</v>
       </c>
       <c r="K186" t="n">
-        <v>-6.250000000000046</v>
+        <v>-25</v>
       </c>
       <c r="L186" t="n">
         <v>6.721000000000004</v>
@@ -9765,7 +9787,7 @@
         <v>13.77</v>
       </c>
       <c r="K187" t="n">
-        <v>-29.11392405063293</v>
+        <v>-30.43478260869584</v>
       </c>
       <c r="L187" t="n">
         <v>6.710000000000004</v>
@@ -9816,7 +9838,7 @@
         <v>13.82</v>
       </c>
       <c r="K188" t="n">
-        <v>-32.53012048192777</v>
+        <v>-37.25490196078454</v>
       </c>
       <c r="L188" t="n">
         <v>6.691000000000004</v>
@@ -9867,7 +9889,7 @@
         <v>13.83</v>
       </c>
       <c r="K189" t="n">
-        <v>-30.95238095238104</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L189" t="n">
         <v>6.673000000000004</v>
@@ -9918,7 +9940,7 @@
         <v>13.94</v>
       </c>
       <c r="K190" t="n">
-        <v>-37.63440860215058</v>
+        <v>-41.37931034482787</v>
       </c>
       <c r="L190" t="n">
         <v>6.645000000000003</v>
@@ -9969,7 +9991,7 @@
         <v>14.00999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>-17.24137931034492</v>
+        <v>-34.42622950819695</v>
       </c>
       <c r="L191" t="n">
         <v>6.628000000000003</v>
@@ -10020,7 +10042,7 @@
         <v>14.04</v>
       </c>
       <c r="K192" t="n">
-        <v>-22.89156626506033</v>
+        <v>-25.80645161290335</v>
       </c>
       <c r="L192" t="n">
         <v>6.610000000000004</v>
@@ -10071,7 +10093,7 @@
         <v>14.04</v>
       </c>
       <c r="K193" t="n">
-        <v>-21.95121951219517</v>
+        <v>-23.33333333333351</v>
       </c>
       <c r="L193" t="n">
         <v>6.594000000000004</v>
@@ -10122,7 +10144,7 @@
         <v>14.13</v>
       </c>
       <c r="K194" t="n">
-        <v>-32.58426966292146</v>
+        <v>-4.166666666666605</v>
       </c>
       <c r="L194" t="n">
         <v>6.571000000000003</v>
@@ -10173,7 +10195,7 @@
         <v>14.21</v>
       </c>
       <c r="K195" t="n">
-        <v>-20.83333333333341</v>
+        <v>-11.11111111111113</v>
       </c>
       <c r="L195" t="n">
         <v>6.577000000000004</v>
@@ -10224,7 +10246,7 @@
         <v>14.37</v>
       </c>
       <c r="K196" t="n">
-        <v>-30.27522935779822</v>
+        <v>-36.66666666666675</v>
       </c>
       <c r="L196" t="n">
         <v>6.556000000000004</v>
@@ -10275,7 +10297,7 @@
         <v>14.41</v>
       </c>
       <c r="K197" t="n">
-        <v>-25.66371681415932</v>
+        <v>-22.03389830508473</v>
       </c>
       <c r="L197" t="n">
         <v>6.538000000000004</v>
@@ -10326,7 +10348,7 @@
         <v>14.48</v>
       </c>
       <c r="K198" t="n">
-        <v>-33.33333333333344</v>
+        <v>-32.30769230769229</v>
       </c>
       <c r="L198" t="n">
         <v>6.518000000000003</v>
@@ -10377,7 +10399,7 @@
         <v>14.48</v>
       </c>
       <c r="K199" t="n">
-        <v>-33.33333333333344</v>
+        <v>-18.51851851851859</v>
       </c>
       <c r="L199" t="n">
         <v>6.497000000000004</v>
@@ -10428,7 +10450,7 @@
         <v>14.5</v>
       </c>
       <c r="K200" t="n">
-        <v>-30.50847457627124</v>
+        <v>-30.61224489795895</v>
       </c>
       <c r="L200" t="n">
         <v>6.489000000000004</v>
@@ -10479,7 +10501,7 @@
         <v>14.51</v>
       </c>
       <c r="K201" t="n">
-        <v>-26.95652173913055</v>
+        <v>-36.17021276595738</v>
       </c>
       <c r="L201" t="n">
         <v>6.475000000000004</v>
@@ -10530,7 +10552,7 @@
         <v>14.58</v>
       </c>
       <c r="K202" t="n">
-        <v>-23.72881355932202</v>
+        <v>-18.51851851851842</v>
       </c>
       <c r="L202" t="n">
         <v>6.465000000000003</v>
@@ -10581,7 +10603,7 @@
         <v>14.69</v>
       </c>
       <c r="K203" t="n">
-        <v>-11.81102362204729</v>
+        <v>17.85714285714278</v>
       </c>
       <c r="L203" t="n">
         <v>6.466000000000003</v>
@@ -10632,7 +10654,7 @@
         <v>14.79</v>
       </c>
       <c r="K204" t="n">
-        <v>-2.222222222222244</v>
+        <v>20.68965517241381</v>
       </c>
       <c r="L204" t="n">
         <v>6.486000000000002</v>
@@ -10683,7 +10705,7 @@
         <v>14.86</v>
       </c>
       <c r="K205" t="n">
-        <v>9.090909090909136</v>
+        <v>42.85714285714283</v>
       </c>
       <c r="L205" t="n">
         <v>6.491000000000002</v>
@@ -10734,7 +10756,7 @@
         <v>14.86</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>37.77777777777782</v>
       </c>
       <c r="L206" t="n">
         <v>6.512000000000002</v>
@@ -10785,7 +10807,7 @@
         <v>14.92</v>
       </c>
       <c r="K207" t="n">
-        <v>4.347826086956589</v>
+        <v>68.18181818181841</v>
       </c>
       <c r="L207" t="n">
         <v>6.535000000000002</v>
@@ -10836,7 +10858,7 @@
         <v>14.93</v>
       </c>
       <c r="K208" t="n">
-        <v>9.909909909909944</v>
+        <v>68.88888888888911</v>
       </c>
       <c r="L208" t="n">
         <v>6.566000000000003</v>
@@ -10887,7 +10909,7 @@
         <v>14.95</v>
       </c>
       <c r="K209" t="n">
-        <v>7.142857142857154</v>
+        <v>60</v>
       </c>
       <c r="L209" t="n">
         <v>6.595000000000003</v>
@@ -10938,7 +10960,7 @@
         <v>14.95</v>
       </c>
       <c r="K210" t="n">
-        <v>18.81188118811877</v>
+        <v>59.09090909090911</v>
       </c>
       <c r="L210" t="n">
         <v>6.622000000000003</v>
@@ -10989,7 +11011,7 @@
         <v>14.98</v>
       </c>
       <c r="K211" t="n">
-        <v>9.278350515463989</v>
+        <v>40.00000000000018</v>
       </c>
       <c r="L211" t="n">
         <v>6.645000000000003</v>
@@ -11040,7 +11062,7 @@
         <v>15.04</v>
       </c>
       <c r="K212" t="n">
-        <v>12.00000000000001</v>
+        <v>31.42857142857155</v>
       </c>
       <c r="L212" t="n">
         <v>6.667000000000003</v>
@@ -11091,7 +11113,7 @@
         <v>15.12</v>
       </c>
       <c r="K213" t="n">
-        <v>3.703703703703707</v>
+        <v>-21.21212121212129</v>
       </c>
       <c r="L213" t="n">
         <v>6.670000000000003</v>
@@ -11142,7 +11164,7 @@
         <v>15.23</v>
       </c>
       <c r="K214" t="n">
-        <v>21.81818181818181</v>
+        <v>29.72972972972974</v>
       </c>
       <c r="L214" t="n">
         <v>6.674000000000002</v>
@@ -11193,7 +11215,7 @@
         <v>15.24</v>
       </c>
       <c r="K215" t="n">
-        <v>14.56310679611652</v>
+        <v>26.3157894736843</v>
       </c>
       <c r="L215" t="n">
         <v>6.684000000000003</v>
@@ -11244,7 +11266,7 @@
         <v>15.3</v>
       </c>
       <c r="K216" t="n">
-        <v>26.88172043010749</v>
+        <v>-5.263157894736953</v>
       </c>
       <c r="L216" t="n">
         <v>6.688000000000004</v>
@@ -11295,7 +11317,7 @@
         <v>15.48</v>
       </c>
       <c r="K217" t="n">
-        <v>36.44859813084108</v>
+        <v>27.27272727272714</v>
       </c>
       <c r="L217" t="n">
         <v>6.704000000000003</v>
@@ -11346,7 +11368,7 @@
         <v>15.51</v>
       </c>
       <c r="K218" t="n">
-        <v>41.74757281553407</v>
+        <v>25.00000000000008</v>
       </c>
       <c r="L218" t="n">
         <v>6.716000000000004</v>
@@ -11397,7 +11419,7 @@
         <v>15.54</v>
       </c>
       <c r="K219" t="n">
-        <v>43.39622641509439</v>
+        <v>28.81355932203389</v>
       </c>
       <c r="L219" t="n">
         <v>6.733000000000004</v>
@@ -11448,7 +11470,7 @@
         <v>15.57999999999999</v>
       </c>
       <c r="K220" t="n">
-        <v>37.03703703703705</v>
+        <v>26.66666666666656</v>
       </c>
       <c r="L220" t="n">
         <v>6.746000000000004</v>
@@ -11499,7 +11521,7 @@
         <v>15.63</v>
       </c>
       <c r="K221" t="n">
-        <v>39.28571428571435</v>
+        <v>25.42372881355939</v>
       </c>
       <c r="L221" t="n">
         <v>6.767000000000003</v>
@@ -11550,7 +11572,7 @@
         <v>15.97</v>
       </c>
       <c r="K222" t="n">
-        <v>51.07913669064752</v>
+        <v>67.05882352941182</v>
       </c>
       <c r="L222" t="n">
         <v>6.816000000000004</v>
@@ -11601,7 +11623,7 @@
         <v>16.16</v>
       </c>
       <c r="K223" t="n">
-        <v>27.89115646258503</v>
+        <v>29.03225806451609</v>
       </c>
       <c r="L223" t="n">
         <v>6.854000000000005</v>
@@ -11652,7 +11674,7 @@
         <v>16.2</v>
       </c>
       <c r="K224" t="n">
-        <v>24.82269503546096</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="L224" t="n">
         <v>6.885000000000005</v>
@@ -11703,7 +11725,7 @@
         <v>16.31</v>
       </c>
       <c r="K225" t="n">
-        <v>36.55172413793107</v>
+        <v>48.51485148514863</v>
       </c>
       <c r="L225" t="n">
         <v>6.928000000000004</v>
@@ -11754,7 +11776,7 @@
         <v>16.31</v>
       </c>
       <c r="K226" t="n">
-        <v>36.55172413793107</v>
+        <v>37.34939759036158</v>
       </c>
       <c r="L226" t="n">
         <v>6.977000000000004</v>
@@ -11805,7 +11827,7 @@
         <v>16.31999999999999</v>
       </c>
       <c r="K227" t="n">
-        <v>32.85714285714293</v>
+        <v>40.7407407407409</v>
       </c>
       <c r="L227" t="n">
         <v>7.007000000000005</v>
@@ -11856,7 +11878,7 @@
         <v>16.36999999999999</v>
       </c>
       <c r="K228" t="n">
-        <v>34.72222222222228</v>
+        <v>42.16867469879534</v>
       </c>
       <c r="L228" t="n">
         <v>7.045000000000004</v>
@@ -11907,7 +11929,7 @@
         <v>16.36999999999999</v>
       </c>
       <c r="K229" t="n">
-        <v>36.61971830985923</v>
+        <v>49.36708860759506</v>
       </c>
       <c r="L229" t="n">
         <v>7.080000000000005</v>
@@ -11958,7 +11980,7 @@
         <v>16.56999999999999</v>
       </c>
       <c r="K230" t="n">
-        <v>44.44444444444456</v>
+        <v>57.44680851063843</v>
       </c>
       <c r="L230" t="n">
         <v>7.139000000000006</v>
@@ -12009,7 +12031,7 @@
         <v>16.60999999999999</v>
       </c>
       <c r="K231" t="n">
-        <v>48.46625766871174</v>
+        <v>37.50000000000021</v>
       </c>
       <c r="L231" t="n">
         <v>7.197000000000005</v>
@@ -12060,7 +12082,7 @@
         <v>16.67999999999999</v>
       </c>
       <c r="K232" t="n">
-        <v>40.24390243902447</v>
+        <v>69.23076923076982</v>
       </c>
       <c r="L232" t="n">
         <v>7.214000000000006</v>
@@ -12111,7 +12133,7 @@
         <v>16.75999999999999</v>
       </c>
       <c r="K233" t="n">
-        <v>40.24390243902452</v>
+        <v>42.85714285714327</v>
       </c>
       <c r="L233" t="n">
         <v>7.242000000000006</v>
@@ -12162,7 +12184,7 @@
         <v>16.89999999999999</v>
       </c>
       <c r="K234" t="n">
-        <v>41.31736526946118</v>
+        <v>45.762711864407</v>
       </c>
       <c r="L234" t="n">
         <v>7.280000000000006</v>
@@ -12213,7 +12235,7 @@
         <v>16.91999999999999</v>
       </c>
       <c r="K235" t="n">
-        <v>42.85714285714299</v>
+        <v>47.5409836065577</v>
       </c>
       <c r="L235" t="n">
         <v>7.309000000000006</v>
@@ -12264,7 +12286,7 @@
         <v>16.91999999999999</v>
       </c>
       <c r="K236" t="n">
-        <v>48.14814814814834</v>
+        <v>50.00000000000014</v>
       </c>
       <c r="L236" t="n">
         <v>7.338000000000006</v>
@@ -12315,7 +12337,7 @@
         <v>16.97999999999999</v>
       </c>
       <c r="K237" t="n">
-        <v>44.00000000000021</v>
+        <v>50.81967213114782</v>
       </c>
       <c r="L237" t="n">
         <v>7.374000000000007</v>
@@ -12366,7 +12388,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K238" t="n">
-        <v>44.96644295302033</v>
+        <v>46.03174603174637</v>
       </c>
       <c r="L238" t="n">
         <v>7.403000000000006</v>
@@ -12417,7 +12439,7 @@
         <v>17.12999999999999</v>
       </c>
       <c r="K239" t="n">
-        <v>32.0754716981134</v>
+        <v>-7.142857142857211</v>
       </c>
       <c r="L239" t="n">
         <v>7.419000000000006</v>
@@ -12468,7 +12490,7 @@
         <v>17.17999999999999</v>
       </c>
       <c r="K240" t="n">
-        <v>31.25000000000011</v>
+        <v>-22.80701754385992</v>
       </c>
       <c r="L240" t="n">
         <v>7.410000000000005</v>
@@ -12519,7 +12541,7 @@
         <v>17.24999999999999</v>
       </c>
       <c r="K241" t="n">
-        <v>23.45679012345687</v>
+        <v>-22.80701754385976</v>
       </c>
       <c r="L241" t="n">
         <v>7.390000000000005</v>
@@ -12570,7 +12592,7 @@
         <v>17.34999999999999</v>
       </c>
       <c r="K242" t="n">
-        <v>10.14492753623192</v>
+        <v>8.474576271186464</v>
       </c>
       <c r="L242" t="n">
         <v>7.387000000000005</v>
@@ -12621,7 +12643,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K243" t="n">
-        <v>22.5806451612905</v>
+        <v>-28.00000000000014</v>
       </c>
       <c r="L243" t="n">
         <v>7.387000000000005</v>
@@ -12672,7 +12694,7 @@
         <v>17.40999999999999</v>
       </c>
       <c r="K244" t="n">
-        <v>19.00826446281005</v>
+        <v>-34.6938775510205</v>
       </c>
       <c r="L244" t="n">
         <v>7.372000000000005</v>
@@ -12723,7 +12745,7 @@
         <v>17.42999999999999</v>
       </c>
       <c r="K245" t="n">
-        <v>12.50000000000004</v>
+        <v>-29.41176470588254</v>
       </c>
       <c r="L245" t="n">
         <v>7.357000000000005</v>
@@ -12774,7 +12796,7 @@
         <v>17.47999999999999</v>
       </c>
       <c r="K246" t="n">
-        <v>16.23931623931627</v>
+        <v>-32.00000000000003</v>
       </c>
       <c r="L246" t="n">
         <v>7.347000000000004</v>
@@ -12825,7 +12847,7 @@
         <v>17.48999999999999</v>
       </c>
       <c r="K247" t="n">
-        <v>16.23931623931627</v>
+        <v>-30.61224489795936</v>
       </c>
       <c r="L247" t="n">
         <v>7.330000000000004</v>
@@ -12876,7 +12898,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K248" t="n">
-        <v>13.27433628318589</v>
+        <v>-2.702702702702904</v>
       </c>
       <c r="L248" t="n">
         <v>7.316000000000004</v>
@@ -12927,7 +12949,7 @@
         <v>17.52999999999999</v>
       </c>
       <c r="K249" t="n">
-        <v>10.34482758620697</v>
+        <v>2.857142857143067</v>
       </c>
       <c r="L249" t="n">
         <v>7.312000000000005</v>
@@ -12978,7 +13000,7 @@
         <v>17.54999999999999</v>
       </c>
       <c r="K250" t="n">
-        <v>-6.122448979591929</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L250" t="n">
         <v>7.315000000000005</v>
@@ -13029,7 +13051,7 @@
         <v>17.57999999999999</v>
       </c>
       <c r="K251" t="n">
-        <v>-13.40206185567025</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L251" t="n">
         <v>7.322000000000005</v>
@@ -13080,7 +13102,7 @@
         <v>17.58999999999999</v>
       </c>
       <c r="K252" t="n">
-        <v>-5.494505494505495</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L252" t="n">
         <v>7.320000000000005</v>
@@ -13131,7 +13153,7 @@
         <v>17.65999999999999</v>
       </c>
       <c r="K253" t="n">
-        <v>-4.444444444444455</v>
+        <v>-12.0000000000001</v>
       </c>
       <c r="L253" t="n">
         <v>7.316000000000004</v>
@@ -13182,7 +13204,7 @@
         <v>17.77999999999999</v>
       </c>
       <c r="K254" t="n">
-        <v>-34.09090909090911</v>
+        <v>-48.57142857142836</v>
       </c>
       <c r="L254" t="n">
         <v>7.301000000000004</v>
@@ -13233,7 +13255,7 @@
         <v>17.77999999999999</v>
       </c>
       <c r="K255" t="n">
-        <v>-37.20930232558145</v>
+        <v>-73.33333333333307</v>
       </c>
       <c r="L255" t="n">
         <v>7.284000000000003</v>
@@ -13284,7 +13306,7 @@
         <v>17.90999999999999</v>
       </c>
       <c r="K256" t="n">
-        <v>-19.19191919191926</v>
+        <v>-19.04761904761899</v>
       </c>
       <c r="L256" t="n">
         <v>7.275000000000004</v>
@@ -13335,7 +13357,7 @@
         <v>18.04999999999999</v>
       </c>
       <c r="K257" t="n">
-        <v>-36.44859813084108</v>
+        <v>-41.81818181818141</v>
       </c>
       <c r="L257" t="n">
         <v>7.253000000000005</v>
@@ -13386,7 +13408,7 @@
         <v>18.06999999999999</v>
       </c>
       <c r="K258" t="n">
-        <v>-36.44859813084116</v>
+        <v>-40.74074074074066</v>
       </c>
       <c r="L258" t="n">
         <v>7.228000000000004</v>
@@ -13437,7 +13459,7 @@
         <v>18.29999999999999</v>
       </c>
       <c r="K259" t="n">
-        <v>-41.88034188034184</v>
+        <v>-62.66666666666634</v>
       </c>
       <c r="L259" t="n">
         <v>7.183000000000004</v>
@@ -13488,7 +13510,7 @@
         <v>18.43999999999999</v>
       </c>
       <c r="K260" t="n">
-        <v>-23.80952380952377</v>
+        <v>-34.88372093023241</v>
       </c>
       <c r="L260" t="n">
         <v>7.150000000000004</v>
@@ -13539,7 +13561,7 @@
         <v>18.50999999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>-12.69841269841269</v>
+        <v>-26.08695652173911</v>
       </c>
       <c r="L261" t="n">
         <v>7.127000000000004</v>
@@ -13590,7 +13612,7 @@
         <v>18.53999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>-24.36974789915957</v>
+        <v>-22.72727272727268</v>
       </c>
       <c r="L262" t="n">
         <v>7.100000000000003</v>
@@ -13641,7 +13663,7 @@
         <v>18.63999999999999</v>
       </c>
       <c r="K263" t="n">
-        <v>-11.29032258064509</v>
+        <v>2.325581395348883</v>
       </c>
       <c r="L263" t="n">
         <v>7.090000000000003</v>
@@ -13692,7 +13714,7 @@
         <v>18.68999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>-14.06249999999999</v>
+        <v>-3.296703296703311</v>
       </c>
       <c r="L264" t="n">
         <v>7.087000000000003</v>
@@ -13743,7 +13765,7 @@
         <v>18.73999999999999</v>
       </c>
       <c r="K265" t="n">
-        <v>-11.45038167938922</v>
+        <v>-13.25301204819262</v>
       </c>
       <c r="L265" t="n">
         <v>7.089000000000004</v>
@@ -13794,7 +13816,7 @@
         <v>18.81</v>
       </c>
       <c r="K266" t="n">
-        <v>-20.30075187969913</v>
+        <v>-5.263157894736811</v>
       </c>
       <c r="L266" t="n">
         <v>7.071000000000003</v>
@@ -13845,7 +13867,7 @@
         <v>18.86999999999999</v>
       </c>
       <c r="K267" t="n">
-        <v>-14.49275362318835</v>
+        <v>4.999999999999978</v>
       </c>
       <c r="L267" t="n">
         <v>7.073000000000003</v>
@@ -13896,7 +13918,7 @@
         <v>19.08999999999999</v>
       </c>
       <c r="K268" t="n">
-        <v>-27.04402515723257</v>
+        <v>6.329113924050588</v>
       </c>
       <c r="L268" t="n">
         <v>7.055000000000004</v>
@@ -13947,7 +13969,7 @@
         <v>19.28999999999999</v>
       </c>
       <c r="K269" t="n">
-        <v>-11.36363636363634</v>
+        <v>12.94117647058825</v>
       </c>
       <c r="L269" t="n">
         <v>7.080000000000004</v>
@@ -13998,7 +14020,7 @@
         <v>19.29999999999999</v>
       </c>
       <c r="K270" t="n">
-        <v>-13.14285714285709</v>
+        <v>3.797468354430415</v>
       </c>
       <c r="L270" t="n">
         <v>7.090000000000003</v>
@@ -14049,7 +14071,7 @@
         <v>19.31999999999999</v>
       </c>
       <c r="K271" t="n">
-        <v>-12.64367816091951</v>
+        <v>5.128205128205149</v>
       </c>
       <c r="L271" t="n">
         <v>7.091000000000004</v>
@@ -14100,7 +14122,7 @@
         <v>19.45999999999999</v>
       </c>
       <c r="K272" t="n">
-        <v>-19.78609625668449</v>
+        <v>-24.39024390243914</v>
       </c>
       <c r="L272" t="n">
         <v>7.081000000000005</v>
@@ -14151,7 +14173,7 @@
         <v>19.45999999999999</v>
       </c>
       <c r="K273" t="n">
-        <v>-16.66666666666665</v>
+        <v>-19.48051948051951</v>
       </c>
       <c r="L273" t="n">
         <v>7.061000000000004</v>
@@ -14202,7 +14224,7 @@
         <v>19.59999999999999</v>
       </c>
       <c r="K274" t="n">
-        <v>-2.197802197802199</v>
+        <v>-6.976744186046603</v>
       </c>
       <c r="L274" t="n">
         <v>7.060000000000005</v>
@@ -14253,7 +14275,7 @@
         <v>19.60999999999999</v>
       </c>
       <c r="K275" t="n">
-        <v>-2.732240437158457</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>7.053000000000004</v>
@@ -14304,7 +14326,7 @@
         <v>19.61999999999999</v>
       </c>
       <c r="K276" t="n">
-        <v>-11.11111111111108</v>
+        <v>-9.333333333333298</v>
       </c>
       <c r="L276" t="n">
         <v>7.052000000000005</v>
@@ -14355,7 +14377,7 @@
         <v>19.65999999999999</v>
       </c>
       <c r="K277" t="n">
-        <v>-5.590062111801235</v>
+        <v>19.29824561403525</v>
       </c>
       <c r="L277" t="n">
         <v>7.041000000000006</v>
@@ -14406,7 +14428,7 @@
         <v>19.65999999999999</v>
       </c>
       <c r="K278" t="n">
-        <v>-4.402515723270403</v>
+        <v>-24.32432432432445</v>
       </c>
       <c r="L278" t="n">
         <v>7.052000000000005</v>
@@ -14457,7 +14479,7 @@
         <v>19.67999999999999</v>
       </c>
       <c r="K279" t="n">
-        <v>10.14492753623187</v>
+        <v>-26.31578947368442</v>
       </c>
       <c r="L279" t="n">
         <v>7.041000000000006</v>
@@ -14508,7 +14530,7 @@
         <v>19.74999999999999</v>
       </c>
       <c r="K280" t="n">
-        <v>5.343511450381706</v>
+        <v>-2.325581395348789</v>
       </c>
       <c r="L280" t="n">
         <v>7.038000000000006</v>
@@ -14559,7 +14581,7 @@
         <v>19.74999999999999</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>44.82758620689665</v>
       </c>
       <c r="L281" t="n">
         <v>7.037000000000004</v>
@@ -14610,7 +14632,7 @@
         <v>19.75999999999999</v>
       </c>
       <c r="K282" t="n">
-        <v>3.27868852459017</v>
+        <v>46.66666666666645</v>
       </c>
       <c r="L282" t="n">
         <v>7.051000000000005</v>
@@ -14661,7 +14683,7 @@
         <v>19.75999999999999</v>
       </c>
       <c r="K283" t="n">
-        <v>-5.357142857142914</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>7.065000000000005</v>
@@ -14712,7 +14734,7 @@
         <v>19.82999999999999</v>
       </c>
       <c r="K284" t="n">
-        <v>-7.017543859649147</v>
+        <v>-27.27272727272764</v>
       </c>
       <c r="L284" t="n">
         <v>7.058000000000004</v>
@@ -14763,7 +14785,7 @@
         <v>19.88999999999999</v>
       </c>
       <c r="K285" t="n">
-        <v>-16.52173913043489</v>
+        <v>-40.74074074074092</v>
       </c>
       <c r="L285" t="n">
         <v>7.046000000000004</v>
@@ -14814,7 +14836,7 @@
         <v>19.88999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>-11.11111111111118</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L286" t="n">
         <v>7.035000000000002</v>
@@ -14865,7 +14887,7 @@
         <v>19.92999999999999</v>
       </c>
       <c r="K287" t="n">
-        <v>-13.20754716981135</v>
+        <v>-11.11111111111122</v>
       </c>
       <c r="L287" t="n">
         <v>7.032000000000002</v>
@@ -14916,7 +14938,7 @@
         <v>19.95999999999999</v>
       </c>
       <c r="K288" t="n">
-        <v>12.64367816091961</v>
+        <v>7.142857142857278</v>
       </c>
       <c r="L288" t="n">
         <v>7.032000000000002</v>
@@ -14967,7 +14989,7 @@
         <v>19.98999999999999</v>
       </c>
       <c r="K289" t="n">
-        <v>-17.14285714285718</v>
+        <v>-33.33333333333309</v>
       </c>
       <c r="L289" t="n">
         <v>7.031000000000001</v>
@@ -15018,7 +15040,7 @@
         <v>19.98999999999999</v>
       </c>
       <c r="K290" t="n">
-        <v>-15.94202898550726</v>
+        <v>-33.33333333333309</v>
       </c>
       <c r="L290" t="n">
         <v>7.023000000000001</v>
@@ -15069,7 +15091,7 @@
         <v>19.98999999999999</v>
       </c>
       <c r="K291" t="n">
-        <v>-13.43283582089547</v>
+        <v>-39.13043478260856</v>
       </c>
       <c r="L291" t="n">
         <v>7.015000000000002</v>
@@ -15120,7 +15142,7 @@
         <v>19.98999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>9.433962264150891</v>
+        <v>-39.13043478260856</v>
       </c>
       <c r="L292" t="n">
         <v>7.006000000000002</v>
@@ -15171,7 +15193,7 @@
         <v>20.02999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>1.754385964912242</v>
+        <v>-29.99999999999991</v>
       </c>
       <c r="L293" t="n">
         <v>6.993</v>
@@ -15222,7 +15244,7 @@
         <v>20.02999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>-30.23255813953488</v>
+        <v>0</v>
       </c>
       <c r="L294" t="n">
         <v>6.987</v>
@@ -15273,7 +15295,7 @@
         <v>20.07999999999999</v>
       </c>
       <c r="K295" t="n">
-        <v>-14.89361702127669</v>
+        <v>26.31578947368394</v>
       </c>
       <c r="L295" t="n">
         <v>6.992000000000002</v>
@@ -15324,7 +15346,7 @@
         <v>20.14999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>-24.52830188679238</v>
+        <v>-27.27272727272679</v>
       </c>
       <c r="L296" t="n">
         <v>6.990000000000002</v>
@@ -15375,7 +15397,7 @@
         <v>20.20999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>-5.454545454545492</v>
+        <v>-12.0000000000001</v>
       </c>
       <c r="L297" t="n">
         <v>6.990000000000002</v>
@@ -15426,7 +15448,7 @@
         <v>20.27999999999999</v>
       </c>
       <c r="K298" t="n">
-        <v>-16.12903225806458</v>
+        <v>-24.13793103448293</v>
       </c>
       <c r="L298" t="n">
         <v>6.980000000000001</v>
@@ -15477,7 +15499,7 @@
         <v>20.36999999999999</v>
       </c>
       <c r="K299" t="n">
-        <v>1.449275362318807</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L299" t="n">
         <v>6.982000000000001</v>
@@ -15528,7 +15550,7 @@
         <v>20.39999999999999</v>
       </c>
       <c r="K300" t="n">
-        <v>-13.84615384615378</v>
+        <v>-2.43902439024385</v>
       </c>
       <c r="L300" t="n">
         <v>6.981</v>
@@ -15579,7 +15601,7 @@
         <v>20.70999999999999</v>
       </c>
       <c r="K301" t="n">
-        <v>22.91666666666662</v>
+        <v>41.66666666666671</v>
       </c>
       <c r="L301" t="n">
         <v>7.011</v>
@@ -15630,7 +15652,7 @@
         <v>20.74999999999999</v>
       </c>
       <c r="K302" t="n">
-        <v>25.25252525252529</v>
+        <v>52.77777777777784</v>
       </c>
       <c r="L302" t="n">
         <v>7.045</v>
@@ -15681,7 +15703,7 @@
         <v>20.75999999999999</v>
       </c>
       <c r="K303" t="n">
-        <v>24.00000000000002</v>
+        <v>50.6849315068493</v>
       </c>
       <c r="L303" t="n">
         <v>7.082000000000001</v>
@@ -15732,7 +15754,7 @@
         <v>20.75999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>33.3333333333334</v>
+        <v>47.05882352941182</v>
       </c>
       <c r="L304" t="n">
         <v>7.119000000000002</v>
@@ -15783,7 +15805,7 @@
         <v>20.75999999999999</v>
       </c>
       <c r="K305" t="n">
-        <v>42.52873563218387</v>
+        <v>63.9344262295082</v>
       </c>
       <c r="L305" t="n">
         <v>7.151000000000001</v>
@@ -15834,7 +15856,7 @@
         <v>20.88999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>24.00000000000002</v>
+        <v>29.41176470588239</v>
       </c>
       <c r="L306" t="n">
         <v>7.177000000000001</v>
@@ -15885,7 +15907,7 @@
         <v>20.97999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>10.4761904761905</v>
+        <v>25.71428571428583</v>
       </c>
       <c r="L307" t="n">
         <v>7.188000000000001</v>
@@ -15936,7 +15958,7 @@
         <v>21.00999999999999</v>
       </c>
       <c r="K308" t="n">
-        <v>4.761904761904741</v>
+        <v>9.375000000000069</v>
       </c>
       <c r="L308" t="n">
         <v>7.203</v>
@@ -15987,7 +16009,7 @@
         <v>21.22999999999999</v>
       </c>
       <c r="K309" t="n">
-        <v>24.19354838709679</v>
+        <v>37.34939759036148</v>
       </c>
       <c r="L309" t="n">
         <v>7.231</v>
@@ -16038,7 +16060,7 @@
         <v>21.38999999999999</v>
       </c>
       <c r="K310" t="n">
-        <v>9.999999999999986</v>
+        <v>-23.52941176470591</v>
       </c>
       <c r="L310" t="n">
         <v>7.246</v>
@@ -16089,7 +16111,7 @@
         <v>21.53999999999999</v>
       </c>
       <c r="K311" t="n">
-        <v>18.70967741935483</v>
+        <v>-6.329113924050588</v>
       </c>
       <c r="L311" t="n">
         <v>7.245000000000002</v>
@@ -16140,7 +16162,7 @@
         <v>21.64999999999999</v>
       </c>
       <c r="K312" t="n">
-        <v>10.84337349397589</v>
+        <v>-16.85393258426969</v>
       </c>
       <c r="L312" t="n">
         <v>7.229000000000002</v>
@@ -16191,7 +16213,7 @@
         <v>21.72999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>17.64705882352941</v>
+        <v>-7.216494845360863</v>
       </c>
       <c r="L313" t="n">
         <v>7.222000000000003</v>
@@ -16242,7 +16264,7 @@
         <v>21.81999999999999</v>
       </c>
       <c r="K314" t="n">
-        <v>11.731843575419</v>
+        <v>-15.09433962264154</v>
       </c>
       <c r="L314" t="n">
         <v>7.206000000000003</v>
@@ -16293,7 +16315,7 @@
         <v>21.85999999999999</v>
       </c>
       <c r="K315" t="n">
-        <v>11.2359550561798</v>
+        <v>1.030927835051526</v>
       </c>
       <c r="L315" t="n">
         <v>7.194000000000003</v>
@@ -16344,7 +16366,7 @@
         <v>21.89999999999999</v>
       </c>
       <c r="K316" t="n">
-        <v>17.71428571428573</v>
+        <v>15.21739130434782</v>
       </c>
       <c r="L316" t="n">
         <v>7.199000000000003</v>
@@ -16395,7 +16417,7 @@
         <v>21.89999999999999</v>
       </c>
       <c r="K317" t="n">
-        <v>14.79289940828404</v>
+        <v>19.10112359550567</v>
       </c>
       <c r="L317" t="n">
         <v>7.213000000000003</v>
@@ -16446,7 +16468,7 @@
         <v>21.89999999999999</v>
       </c>
       <c r="K318" t="n">
-        <v>19.75308641975314</v>
+        <v>-7.462686567164173</v>
       </c>
       <c r="L318" t="n">
         <v>7.230000000000002</v>
@@ -16497,7 +16519,7 @@
         <v>21.98999999999999</v>
       </c>
       <c r="K319" t="n">
-        <v>8.641975308642023</v>
+        <v>3.333333333333422</v>
       </c>
       <c r="L319" t="n">
         <v>7.216000000000003</v>
@@ -16548,7 +16570,7 @@
         <v>21.98999999999999</v>
       </c>
       <c r="K320" t="n">
-        <v>10.69182389937109</v>
+        <v>-28.88888888888914</v>
       </c>
       <c r="L320" t="n">
         <v>7.218000000000002</v>
@@ -16599,7 +16621,7 @@
         <v>22.05999999999999</v>
       </c>
       <c r="K321" t="n">
-        <v>-5.185185185185149</v>
+        <v>12.19512195121979</v>
       </c>
       <c r="L321" t="n">
         <v>7.212000000000002</v>
@@ -16650,7 +16672,7 @@
         <v>22.12999999999999</v>
       </c>
       <c r="K322" t="n">
-        <v>-13.04347826086955</v>
+        <v>-25</v>
       </c>
       <c r="L322" t="n">
         <v>7.210000000000003</v>
@@ -16701,7 +16723,7 @@
         <v>22.23999999999999</v>
       </c>
       <c r="K323" t="n">
-        <v>-4.054054054054096</v>
+        <v>23.80952380952383</v>
       </c>
       <c r="L323" t="n">
         <v>7.211000000000001</v>
@@ -16752,7 +16774,7 @@
         <v>22.24999999999999</v>
       </c>
       <c r="K324" t="n">
-        <v>-4.697986577181243</v>
+        <v>12.82051282051287</v>
       </c>
       <c r="L324" t="n">
         <v>7.220000000000002</v>
@@ -16803,7 +16825,7 @@
         <v>22.34999999999999</v>
       </c>
       <c r="K325" t="n">
-        <v>-10.69182389937109</v>
+        <v>-20</v>
       </c>
       <c r="L325" t="n">
         <v>7.215000000000002</v>
@@ -16854,7 +16876,7 @@
         <v>22.43999999999999</v>
       </c>
       <c r="K326" t="n">
-        <v>3.225806451612898</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>7.215000000000002</v>
@@ -16905,7 +16927,7 @@
         <v>22.44999999999999</v>
       </c>
       <c r="K327" t="n">
-        <v>8.843537414965986</v>
+        <v>-1.818181818181777</v>
       </c>
       <c r="L327" t="n">
         <v>7.214000000000001</v>
@@ -16956,7 +16978,7 @@
         <v>22.45999999999999</v>
       </c>
       <c r="K328" t="n">
-        <v>10.34482758620695</v>
+        <v>14.89361702127669</v>
       </c>
       <c r="L328" t="n">
         <v>7.212000000000002</v>
@@ -17007,7 +17029,7 @@
         <v>22.46999999999999</v>
       </c>
       <c r="K329" t="n">
-        <v>-6.45161290322582</v>
+        <v>12.49999999999991</v>
       </c>
       <c r="L329" t="n">
         <v>7.218000000000002</v>
@@ -17058,7 +17080,7 @@
         <v>22.46999999999999</v>
       </c>
       <c r="K330" t="n">
-        <v>7.407407407407425</v>
+        <v>-2.439024390244066</v>
       </c>
       <c r="L330" t="n">
         <v>7.224000000000002</v>
@@ -17109,7 +17131,7 @@
         <v>22.46999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>-7.526881720430169</v>
+        <v>17.64705882352931</v>
       </c>
       <c r="L331" t="n">
         <v>7.223000000000002</v>
@@ -17160,7 +17182,7 @@
         <v>22.46999999999999</v>
       </c>
       <c r="K332" t="n">
-        <v>4.878048780487829</v>
+        <v>-21.73913043478249</v>
       </c>
       <c r="L332" t="n">
         <v>7.229000000000002</v>
@@ -17211,7 +17233,7 @@
         <v>22.61999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>-21.34831460674159</v>
+        <v>-51.35135135135108</v>
       </c>
       <c r="L333" t="n">
         <v>7.209000000000001</v>
@@ -17262,7 +17284,7 @@
         <v>22.74999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>3.225806451612943</v>
+        <v>10.00000000000004</v>
       </c>
       <c r="L334" t="n">
         <v>7.203000000000001</v>
@@ -17313,7 +17335,7 @@
         <v>22.82999999999998</v>
       </c>
       <c r="K335" t="n">
-        <v>-9.278350515463949</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L335" t="n">
         <v>7.199000000000003</v>
@@ -17364,7 +17386,7 @@
         <v>22.88999999999998</v>
       </c>
       <c r="K336" t="n">
-        <v>-7.070707070707136</v>
+        <v>-13.63636363636393</v>
       </c>
       <c r="L336" t="n">
         <v>7.192000000000002</v>
@@ -17415,7 +17437,7 @@
         <v>22.88999999999998</v>
       </c>
       <c r="K337" t="n">
-        <v>-7.070707070707136</v>
+        <v>-11.62790697674446</v>
       </c>
       <c r="L337" t="n">
         <v>7.186000000000003</v>
@@ -17466,7 +17488,7 @@
         <v>22.90999999999998</v>
       </c>
       <c r="K338" t="n">
-        <v>-8.910891089108945</v>
+        <v>-13.63636363636373</v>
       </c>
       <c r="L338" t="n">
         <v>7.179000000000002</v>
@@ -17517,7 +17539,7 @@
         <v>22.90999999999998</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>-13.63636363636373</v>
       </c>
       <c r="L339" t="n">
         <v>7.173000000000002</v>
@@ -17568,7 +17590,7 @@
         <v>22.92999999999998</v>
       </c>
       <c r="K340" t="n">
-        <v>-2.127659574468148</v>
+        <v>-17.39130434782634</v>
       </c>
       <c r="L340" t="n">
         <v>7.165000000000002</v>
@@ -17619,7 +17641,7 @@
         <v>22.92999999999998</v>
       </c>
       <c r="K341" t="n">
-        <v>-10.34482758620705</v>
+        <v>-17.39130434782634</v>
       </c>
       <c r="L341" t="n">
         <v>7.157000000000002</v>
@@ -17670,7 +17692,7 @@
         <v>22.93999999999998</v>
       </c>
       <c r="K342" t="n">
-        <v>-3.703703703703756</v>
+        <v>18.75000000000007</v>
       </c>
       <c r="L342" t="n">
         <v>7.148000000000001</v>
@@ -17721,7 +17743,7 @@
         <v>23.15999999999998</v>
       </c>
       <c r="K343" t="n">
-        <v>-39.13043478260887</v>
+        <v>-70.73170731707377</v>
       </c>
       <c r="L343" t="n">
         <v>7.132000000000002</v>
@@ -17772,7 +17794,7 @@
         <v>23.18999999999998</v>
       </c>
       <c r="K344" t="n">
-        <v>-40.4255319148937</v>
+        <v>-66.66666666666683</v>
       </c>
       <c r="L344" t="n">
         <v>7.100000000000001</v>
@@ -17823,7 +17845,7 @@
         <v>23.36999999999998</v>
       </c>
       <c r="K345" t="n">
-        <v>-9.80392156862754</v>
+        <v>-25</v>
       </c>
       <c r="L345" t="n">
         <v>7.094000000000001</v>
@@ -17874,7 +17896,7 @@
         <v>23.51999999999998</v>
       </c>
       <c r="K346" t="n">
-        <v>-31.48148148148162</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L346" t="n">
         <v>7.067000000000002</v>
@@ -17925,7 +17947,7 @@
         <v>23.59999999999998</v>
       </c>
       <c r="K347" t="n">
-        <v>-35.65217391304375</v>
+        <v>-47.82608695652191</v>
       </c>
       <c r="L347" t="n">
         <v>7.032000000000002</v>
@@ -17976,7 +17998,7 @@
         <v>23.66999999999998</v>
       </c>
       <c r="K348" t="n">
-        <v>-38.84297520661183</v>
+        <v>-52.63157894736861</v>
       </c>
       <c r="L348" t="n">
         <v>6.992000000000003</v>
@@ -18027,7 +18049,7 @@
         <v>23.72999999999998</v>
       </c>
       <c r="K349" t="n">
-        <v>-41.26984126984154</v>
+        <v>-55.00000000000014</v>
       </c>
       <c r="L349" t="n">
         <v>6.946000000000003</v>
@@ -18078,7 +18100,7 @@
         <v>23.72999999999998</v>
       </c>
       <c r="K350" t="n">
-        <v>-41.26984126984154</v>
+        <v>-55.00000000000014</v>
       </c>
       <c r="L350" t="n">
         <v>6.902000000000004</v>
@@ -18129,7 +18151,7 @@
         <v>23.82999999999998</v>
       </c>
       <c r="K351" t="n">
-        <v>-30.88235294117672</v>
+        <v>-37.07865168539354</v>
       </c>
       <c r="L351" t="n">
         <v>6.868000000000004</v>
@@ -18180,7 +18202,7 @@
         <v>23.88999999999998</v>
       </c>
       <c r="K352" t="n">
-        <v>-33.80281690140872</v>
+        <v>-23.28767123287692</v>
       </c>
       <c r="L352" t="n">
         <v>6.829000000000003</v>
@@ -18231,7 +18253,7 @@
         <v>23.94999999999997</v>
       </c>
       <c r="K353" t="n">
-        <v>-20.30075187969947</v>
+        <v>-10.52631578947382</v>
       </c>
       <c r="L353" t="n">
         <v>6.818000000000003</v>
@@ -18282,7 +18304,7 @@
         <v>24.08999999999997</v>
       </c>
       <c r="K354" t="n">
-        <v>-19.402985074627</v>
+        <v>-16.66666666666675</v>
       </c>
       <c r="L354" t="n">
         <v>6.824000000000003</v>
@@ -18333,7 +18355,7 @@
         <v>24.22999999999998</v>
       </c>
       <c r="K355" t="n">
-        <v>-22.85714285714302</v>
+        <v>-15.49295774647906</v>
       </c>
       <c r="L355" t="n">
         <v>6.798000000000004</v>
@@ -18384,7 +18406,7 @@
         <v>24.32999999999998</v>
       </c>
       <c r="K356" t="n">
-        <v>-33.33333333333344</v>
+        <v>-17.80821917808225</v>
       </c>
       <c r="L356" t="n">
         <v>6.777000000000004</v>
@@ -18435,7 +18457,7 @@
         <v>24.32999999999998</v>
       </c>
       <c r="K357" t="n">
-        <v>-33.33333333333344</v>
+        <v>-9.090909090909079</v>
       </c>
       <c r="L357" t="n">
         <v>6.764000000000005</v>
@@ -18486,7 +18508,7 @@
         <v>24.33999999999997</v>
       </c>
       <c r="K358" t="n">
-        <v>-31.46853146853164</v>
+        <v>1.639344262295058</v>
       </c>
       <c r="L358" t="n">
         <v>6.759000000000003</v>
@@ -18537,7 +18559,7 @@
         <v>24.36999999999998</v>
       </c>
       <c r="K359" t="n">
-        <v>-32.87671232876729</v>
+        <v>-3.125000000000087</v>
       </c>
       <c r="L359" t="n">
         <v>6.757000000000003</v>
@@ -18588,7 +18610,7 @@
         <v>24.63999999999998</v>
       </c>
       <c r="K360" t="n">
-        <v>-11.11111111111112</v>
+        <v>18.51851851851859</v>
       </c>
       <c r="L360" t="n">
         <v>6.782000000000004</v>
@@ -18639,7 +18661,7 @@
         <v>24.87999999999997</v>
       </c>
       <c r="K361" t="n">
-        <v>-22.05128205128213</v>
+        <v>-3.03030303030306</v>
       </c>
       <c r="L361" t="n">
         <v>6.773000000000003</v>
@@ -18690,7 +18712,7 @@
         <v>24.96999999999997</v>
       </c>
       <c r="K362" t="n">
-        <v>-16.25615763546806</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>6.779000000000003</v>
@@ -18741,7 +18763,7 @@
         <v>25.11999999999998</v>
       </c>
       <c r="K363" t="n">
-        <v>2.04081632653062</v>
+        <v>0.9708737864077452</v>
       </c>
       <c r="L363" t="n">
         <v>6.794000000000004</v>
@@ -18792,7 +18814,7 @@
         <v>25.31999999999998</v>
       </c>
       <c r="K364" t="n">
-        <v>-6.103286384976544</v>
+        <v>-4.587155963302736</v>
       </c>
       <c r="L364" t="n">
         <v>6.775000000000004</v>
@@ -18843,7 +18865,7 @@
         <v>25.39999999999998</v>
       </c>
       <c r="K365" t="n">
-        <v>-11.33004926108375</v>
+        <v>12.14953271028036</v>
       </c>
       <c r="L365" t="n">
         <v>6.778000000000004</v>
@@ -18894,7 +18916,7 @@
         <v>25.39999999999998</v>
       </c>
       <c r="K366" t="n">
-        <v>-4.255319148936184</v>
+        <v>12.14953271028036</v>
       </c>
       <c r="L366" t="n">
         <v>6.791000000000004</v>
@@ -18945,7 +18967,7 @@
         <v>25.46999999999998</v>
       </c>
       <c r="K367" t="n">
-        <v>3.743315508021411</v>
+        <v>16.8141592920354</v>
       </c>
       <c r="L367" t="n">
         <v>6.811000000000004</v>
@@ -18996,7 +19018,7 @@
         <v>25.46999999999998</v>
       </c>
       <c r="K368" t="n">
-        <v>7.777777777777822</v>
+        <v>20.00000000000003</v>
       </c>
       <c r="L368" t="n">
         <v>6.830000000000005</v>
@@ -19047,7 +19069,7 @@
         <v>25.61999999999998</v>
       </c>
       <c r="K369" t="n">
-        <v>2.64550264550264</v>
+        <v>-20.40816326530613</v>
       </c>
       <c r="L369" t="n">
         <v>6.837000000000006</v>
@@ -19098,7 +19120,7 @@
         <v>25.66999999999998</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>-1.265822784810095</v>
       </c>
       <c r="L370" t="n">
         <v>6.812000000000006</v>
@@ -19149,7 +19171,7 @@
         <v>25.70999999999998</v>
       </c>
       <c r="K371" t="n">
-        <v>-7.446808510638285</v>
+        <v>-18.91891891891883</v>
       </c>
       <c r="L371" t="n">
         <v>6.807000000000007</v>
@@ -19200,7 +19222,7 @@
         <v>25.83999999999997</v>
       </c>
       <c r="K372" t="n">
-        <v>2.564102564102556</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L372" t="n">
         <v>6.806000000000007</v>
@@ -19251,7 +19273,7 @@
         <v>25.97999999999998</v>
       </c>
       <c r="K373" t="n">
-        <v>-7.389162561576325</v>
+        <v>-15.15151515151509</v>
       </c>
       <c r="L373" t="n">
         <v>6.776000000000008</v>
@@ -19302,7 +19324,7 @@
         <v>26.17999999999997</v>
       </c>
       <c r="K374" t="n">
-        <v>-4.306220095693815</v>
+        <v>2.564102564102518</v>
       </c>
       <c r="L374" t="n">
         <v>6.786000000000007</v>
@@ -19353,7 +19375,7 @@
         <v>26.23999999999997</v>
       </c>
       <c r="K375" t="n">
-        <v>5.47263681592042</v>
+        <v>9.523809523809575</v>
       </c>
       <c r="L375" t="n">
         <v>6.794000000000007</v>
@@ -19404,7 +19426,7 @@
         <v>26.24999999999997</v>
       </c>
       <c r="K376" t="n">
-        <v>11.45833333333335</v>
+        <v>2.564102564102529</v>
       </c>
       <c r="L376" t="n">
         <v>6.803000000000007</v>
@@ -19455,7 +19477,7 @@
         <v>26.48999999999997</v>
       </c>
       <c r="K377" t="n">
-        <v>-0.9259259259259488</v>
+        <v>-21.56862745098054</v>
       </c>
       <c r="L377" t="n">
         <v>6.781000000000006</v>
@@ -19506,7 +19528,7 @@
         <v>26.51999999999997</v>
       </c>
       <c r="K378" t="n">
-        <v>-2.752293577981634</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L378" t="n">
         <v>6.756000000000006</v>
@@ -19557,7 +19579,7 @@
         <v>26.60999999999997</v>
       </c>
       <c r="K379" t="n">
-        <v>2.678571428571453</v>
+        <v>4.255319148936184</v>
       </c>
       <c r="L379" t="n">
         <v>6.755000000000005</v>
@@ -19608,7 +19630,7 @@
         <v>26.70999999999997</v>
       </c>
       <c r="K380" t="n">
-        <v>-5.314009661835772</v>
+        <v>18.00000000000004</v>
       </c>
       <c r="L380" t="n">
         <v>6.769000000000005</v>
@@ -19659,7 +19681,7 @@
         <v>26.86999999999997</v>
       </c>
       <c r="K381" t="n">
-        <v>-1.507537688442225</v>
+        <v>-10.67961165048549</v>
       </c>
       <c r="L381" t="n">
         <v>6.771000000000006</v>
@@ -19710,7 +19732,7 @@
         <v>27.27999999999997</v>
       </c>
       <c r="K382" t="n">
-        <v>12.55411255411256</v>
+        <v>33.84615384615388</v>
       </c>
       <c r="L382" t="n">
         <v>6.801000000000006</v>
@@ -19761,7 +19783,7 @@
         <v>27.28999999999997</v>
       </c>
       <c r="K383" t="n">
-        <v>5.990783410138259</v>
+        <v>20.72072072072084</v>
       </c>
       <c r="L383" t="n">
         <v>6.844000000000006</v>
@@ -19812,7 +19834,7 @@
         <v>27.30999999999997</v>
       </c>
       <c r="K384" t="n">
-        <v>15.5778894472362</v>
+        <v>14.01869158878504</v>
       </c>
       <c r="L384" t="n">
         <v>6.865000000000006</v>
@@ -19863,7 +19885,7 @@
         <v>27.31999999999997</v>
       </c>
       <c r="K385" t="n">
-        <v>11.45833333333335</v>
+        <v>12.14953271028036</v>
       </c>
       <c r="L385" t="n">
         <v>6.879000000000007</v>
@@ -19914,7 +19936,7 @@
         <v>27.32999999999997</v>
       </c>
       <c r="K386" t="n">
-        <v>11.91709844559588</v>
+        <v>45.23809523809543</v>
       </c>
       <c r="L386" t="n">
         <v>6.893000000000006</v>
@@ -19965,7 +19987,7 @@
         <v>27.33999999999997</v>
       </c>
       <c r="K387" t="n">
-        <v>8.021390374331563</v>
+        <v>48.78048780487839</v>
       </c>
       <c r="L387" t="n">
         <v>6.930000000000007</v>
@@ -20016,7 +20038,7 @@
         <v>27.34999999999997</v>
       </c>
       <c r="K388" t="n">
-        <v>7.446808510638327</v>
+        <v>40.540540540541</v>
       </c>
       <c r="L388" t="n">
         <v>6.969000000000007</v>
@@ -20067,7 +20089,7 @@
         <v>27.36999999999997</v>
       </c>
       <c r="K389" t="n">
-        <v>17.7142857142858</v>
+        <v>33.33333333333365</v>
       </c>
       <c r="L389" t="n">
         <v>7.001000000000007</v>
@@ -20118,7 +20140,7 @@
         <v>27.36999999999997</v>
       </c>
       <c r="K390" t="n">
-        <v>21.1764705882354</v>
+        <v>76.00000000000105</v>
       </c>
       <c r="L390" t="n">
         <v>7.023000000000008</v>
@@ -20169,7 +20191,7 @@
         <v>27.40999999999996</v>
       </c>
       <c r="K391" t="n">
-        <v>21.1764705882354</v>
+        <v>-53.84615384615742</v>
       </c>
       <c r="L391" t="n">
         <v>7.057000000000007</v>
@@ -20220,7 +20242,7 @@
         <v>27.41999999999997</v>
       </c>
       <c r="K392" t="n">
-        <v>15.18987341772162</v>
+        <v>-38.46153846153967</v>
       </c>
       <c r="L392" t="n">
         <v>7.051000000000007</v>
@@ -20271,7 +20293,7 @@
         <v>27.42999999999997</v>
       </c>
       <c r="K393" t="n">
-        <v>25.51724137931043</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L393" t="n">
         <v>7.045000000000007</v>
@@ -20322,7 +20344,7 @@
         <v>27.46999999999997</v>
       </c>
       <c r="K394" t="n">
-        <v>10.07751937984508</v>
+        <v>-46.66666666666781</v>
       </c>
       <c r="L394" t="n">
         <v>7.037000000000008</v>
@@ -20373,7 +20395,7 @@
         <v>27.47999999999997</v>
       </c>
       <c r="K395" t="n">
-        <v>6.451612903225838</v>
+        <v>-46.66666666666671</v>
       </c>
       <c r="L395" t="n">
         <v>7.031000000000008</v>
@@ -20424,7 +20446,7 @@
         <v>27.49999999999997</v>
       </c>
       <c r="K396" t="n">
-        <v>3.999999999999997</v>
+        <v>-50</v>
       </c>
       <c r="L396" t="n">
         <v>7.022000000000007</v>
@@ -20475,7 +20497,7 @@
         <v>27.55999999999997</v>
       </c>
       <c r="K397" t="n">
-        <v>21.49532710280392</v>
+        <v>-61.90476190476161</v>
       </c>
       <c r="L397" t="n">
         <v>7.008000000000007</v>
@@ -20526,7 +20548,7 @@
         <v>27.59999999999997</v>
       </c>
       <c r="K398" t="n">
-        <v>20.37037037037051</v>
+        <v>-82.60869565217355</v>
       </c>
       <c r="L398" t="n">
         <v>6.991000000000007</v>
@@ -20577,7 +20599,7 @@
         <v>27.61999999999997</v>
       </c>
       <c r="K399" t="n">
-        <v>10.89108910891093</v>
+        <v>-83.99999999999999</v>
       </c>
       <c r="L399" t="n">
         <v>6.970000000000006</v>
@@ -20628,7 +20650,7 @@
         <v>27.61999999999997</v>
       </c>
       <c r="K400" t="n">
-        <v>1.098901098901084</v>
+        <v>-80.95238095238059</v>
       </c>
       <c r="L400" t="n">
         <v>6.949000000000005</v>
@@ -20679,7 +20701,7 @@
         <v>27.66999999999997</v>
       </c>
       <c r="K401" t="n">
-        <v>15.00000000000013</v>
+        <v>-92.00000000000017</v>
       </c>
       <c r="L401" t="n">
         <v>6.927000000000005</v>
@@ -20730,7 +20752,7 @@
         <v>27.68999999999997</v>
       </c>
       <c r="K402" t="n">
-        <v>-65.85365853658638</v>
+        <v>-76.92307692307723</v>
       </c>
       <c r="L402" t="n">
         <v>6.906000000000006</v>
@@ -20781,7 +20803,7 @@
         <v>27.83999999999996</v>
       </c>
       <c r="K403" t="n">
-        <v>-20.00000000000029</v>
+        <v>-2.702702702702904</v>
       </c>
       <c r="L403" t="n">
         <v>6.901000000000006</v>
@@ -20832,7 +20854,7 @@
         <v>27.84999999999997</v>
       </c>
       <c r="K404" t="n">
-        <v>-18.5185185185186</v>
+        <v>-8.108108108108231</v>
       </c>
       <c r="L404" t="n">
         <v>6.899000000000005</v>
@@ -20883,7 +20905,7 @@
         <v>27.90999999999996</v>
       </c>
       <c r="K405" t="n">
-        <v>-25.42372881355954</v>
+        <v>-17.07317073170731</v>
       </c>
       <c r="L405" t="n">
         <v>6.890000000000006</v>
@@ -20934,7 +20956,7 @@
         <v>27.95999999999997</v>
       </c>
       <c r="K406" t="n">
-        <v>-17.46031746031749</v>
+        <v>10.00000000000004</v>
       </c>
       <c r="L406" t="n">
         <v>6.888000000000007</v>
@@ -20985,7 +21007,7 @@
         <v>27.96999999999996</v>
       </c>
       <c r="K407" t="n">
-        <v>-14.28571428571436</v>
+        <v>24.32432432432445</v>
       </c>
       <c r="L407" t="n">
         <v>6.893000000000006</v>
@@ -21036,7 +21058,7 @@
         <v>27.98999999999996</v>
       </c>
       <c r="K408" t="n">
-        <v>-15.62500000000002</v>
+        <v>24.3243243243247</v>
       </c>
       <c r="L408" t="n">
         <v>6.900000000000006</v>
@@ -21087,7 +21109,7 @@
         <v>28.01999999999996</v>
       </c>
       <c r="K409" t="n">
-        <v>-23.07692307692304</v>
+        <v>15.00000000000018</v>
       </c>
       <c r="L409" t="n">
         <v>6.906000000000006</v>
@@ -21138,7 +21160,7 @@
         <v>28.04999999999997</v>
       </c>
       <c r="K410" t="n">
-        <v>-17.64705882352931</v>
+        <v>36.84210526315815</v>
       </c>
       <c r="L410" t="n">
         <v>6.915000000000006</v>
@@ -21189,7 +21211,7 @@
         <v>28.05999999999997</v>
       </c>
       <c r="K411" t="n">
-        <v>-13.84615384615378</v>
+        <v>29.7297297297295</v>
       </c>
       <c r="L411" t="n">
         <v>6.928000000000007</v>
@@ -21240,7 +21262,7 @@
         <v>28.08999999999997</v>
       </c>
       <c r="K412" t="n">
-        <v>-19.4029850746268</v>
+        <v>-27.99999999999936</v>
       </c>
       <c r="L412" t="n">
         <v>6.936000000000007</v>
@@ -21291,7 +21313,7 @@
         <v>28.11999999999997</v>
       </c>
       <c r="K413" t="n">
-        <v>-13.04347826086952</v>
+        <v>-11.11111111111108</v>
       </c>
       <c r="L413" t="n">
         <v>6.932000000000007</v>
@@ -21342,7 +21364,7 @@
         <v>28.23999999999997</v>
       </c>
       <c r="K414" t="n">
-        <v>-22.07792207792209</v>
+        <v>-27.27272727272705</v>
       </c>
       <c r="L414" t="n">
         <v>6.917000000000009</v>
@@ -21393,7 +21415,7 @@
         <v>28.30999999999997</v>
       </c>
       <c r="K415" t="n">
-        <v>-13.25301204819278</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L415" t="n">
         <v>6.915000000000008</v>
@@ -21444,7 +21466,7 @@
         <v>28.30999999999997</v>
       </c>
       <c r="K416" t="n">
-        <v>-11.11111111111106</v>
+        <v>-23.52941176470542</v>
       </c>
       <c r="L416" t="n">
         <v>6.908000000000007</v>
@@ -21495,7 +21517,7 @@
         <v>28.34999999999997</v>
       </c>
       <c r="K417" t="n">
-        <v>-8.860759493670892</v>
+        <v>-27.77777777777742</v>
       </c>
       <c r="L417" t="n">
         <v>6.896000000000008</v>
@@ -21546,7 +21568,7 @@
         <v>28.37999999999997</v>
       </c>
       <c r="K418" t="n">
-        <v>0</v>
+        <v>-11.11111111111092</v>
       </c>
       <c r="L418" t="n">
         <v>6.889000000000008</v>
@@ -21597,7 +21619,7 @@
         <v>28.38999999999997</v>
       </c>
       <c r="K419" t="n">
-        <v>3.896103896103895</v>
+        <v>-17.6470588235292</v>
       </c>
       <c r="L419" t="n">
         <v>6.886000000000008</v>
@@ -21648,7 +21670,7 @@
         <v>28.43999999999997</v>
       </c>
       <c r="K420" t="n">
-        <v>9.756097560975531</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>6.885000000000008</v>
@@ -21699,7 +21721,7 @@
         <v>28.56999999999997</v>
       </c>
       <c r="K421" t="n">
-        <v>0</v>
+        <v>-20.83333333333327</v>
       </c>
       <c r="L421" t="n">
         <v>6.872000000000009</v>
@@ -21750,7 +21772,7 @@
         <v>28.82999999999997</v>
       </c>
       <c r="K422" t="n">
-        <v>21.05263157894723</v>
+        <v>18.30985915492954</v>
       </c>
       <c r="L422" t="n">
         <v>6.888000000000008</v>
@@ -21801,7 +21823,7 @@
         <v>28.82999999999997</v>
       </c>
       <c r="K423" t="n">
-        <v>9.090909090909026</v>
+        <v>42.37288135593221</v>
       </c>
       <c r="L423" t="n">
         <v>6.901000000000008</v>
@@ -21852,7 +21874,7 @@
         <v>29.06999999999997</v>
       </c>
       <c r="K424" t="n">
-        <v>-11.47540983606553</v>
+        <v>-7.894736842105232</v>
       </c>
       <c r="L424" t="n">
         <v>6.902000000000006</v>
@@ -21903,7 +21925,7 @@
         <v>29.26999999999997</v>
       </c>
       <c r="K425" t="n">
-        <v>8.823529411764628</v>
+        <v>14.58333333333334</v>
       </c>
       <c r="L425" t="n">
         <v>6.916000000000007</v>
@@ -21954,7 +21976,7 @@
         <v>29.45999999999997</v>
       </c>
       <c r="K426" t="n">
-        <v>17.33333333333328</v>
+        <v>33.33333333333336</v>
       </c>
       <c r="L426" t="n">
         <v>6.949000000000007</v>
@@ -22005,7 +22027,7 @@
         <v>29.45999999999997</v>
       </c>
       <c r="K427" t="n">
-        <v>16.77852348993282</v>
+        <v>31.48148148148152</v>
       </c>
       <c r="L427" t="n">
         <v>6.986000000000006</v>
@@ -22056,7 +22078,7 @@
         <v>29.45999999999997</v>
       </c>
       <c r="K428" t="n">
-        <v>18.36734693877541</v>
+        <v>30.84112149532721</v>
       </c>
       <c r="L428" t="n">
         <v>7.020000000000005</v>
@@ -22107,7 +22129,7 @@
         <v>29.48999999999997</v>
       </c>
       <c r="K429" t="n">
-        <v>22.44897959183665</v>
+        <v>29.52380952380965</v>
       </c>
       <c r="L429" t="n">
         <v>7.056000000000004</v>
@@ -22158,7 +22180,7 @@
         <v>29.48999999999997</v>
       </c>
       <c r="K430" t="n">
-        <v>20.83333333333325</v>
+        <v>47.82608695652188</v>
       </c>
       <c r="L430" t="n">
         <v>7.087000000000003</v>
@@ -22209,7 +22231,7 @@
         <v>29.48999999999997</v>
       </c>
       <c r="K431" t="n">
-        <v>21.67832167832166</v>
+        <v>27.27272727272736</v>
       </c>
       <c r="L431" t="n">
         <v>7.131000000000003</v>
@@ -22260,7 +22282,7 @@
         <v>29.48999999999997</v>
       </c>
       <c r="K432" t="n">
-        <v>24.28571428571424</v>
+        <v>27.27272727272736</v>
       </c>
       <c r="L432" t="n">
         <v>7.149000000000003</v>
@@ -22311,7 +22333,7 @@
         <v>29.49999999999997</v>
       </c>
       <c r="K433" t="n">
-        <v>21.73913043478262</v>
+        <v>95.34883720930164</v>
       </c>
       <c r="L433" t="n">
         <v>7.166000000000002</v>
@@ -22362,7 +22384,7 @@
         <v>29.51999999999997</v>
       </c>
       <c r="K434" t="n">
-        <v>34.375</v>
+        <v>91.99999999999886</v>
       </c>
       <c r="L434" t="n">
         <v>7.209000000000003</v>
@@ -22413,7 +22435,7 @@
         <v>29.71999999999997</v>
       </c>
       <c r="K435" t="n">
-        <v>12.05673758865248</v>
+        <v>-61.53846153846122</v>
       </c>
       <c r="L435" t="n">
         <v>7.212000000000003</v>
@@ -22464,7 +22486,7 @@
         <v>29.91999999999997</v>
       </c>
       <c r="K436" t="n">
-        <v>22.98136645962735</v>
+        <v>8.695652173913034</v>
       </c>
       <c r="L436" t="n">
         <v>7.216000000000004</v>
@@ -22515,7 +22537,7 @@
         <v>29.92999999999997</v>
       </c>
       <c r="K437" t="n">
-        <v>25.31645569620252</v>
+        <v>6.382978723404276</v>
       </c>
       <c r="L437" t="n">
         <v>7.219000000000004</v>
@@ -22566,7 +22588,7 @@
         <v>29.92999999999997</v>
       </c>
       <c r="K438" t="n">
-        <v>23.87096774193548</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>7.222000000000004</v>
@@ -22617,7 +22639,7 @@
         <v>29.92999999999997</v>
       </c>
       <c r="K439" t="n">
-        <v>23.37662337662341</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>7.222000000000004</v>
@@ -22668,7 +22690,7 @@
         <v>29.92999999999997</v>
       </c>
       <c r="K440" t="n">
-        <v>20.80536912751683</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>7.222000000000004</v>
@@ -22719,7 +22741,7 @@
         <v>29.93999999999997</v>
       </c>
       <c r="K441" t="n">
-        <v>31.38686131386871</v>
+        <v>-2.222222222222178</v>
       </c>
       <c r="L441" t="n">
         <v>7.221000000000005</v>
@@ -22770,7 +22792,7 @@
         <v>30.05999999999997</v>
       </c>
       <c r="K442" t="n">
-        <v>23.57723577235778</v>
+        <v>21.42857142857147</v>
       </c>
       <c r="L442" t="n">
         <v>7.232000000000005</v>
@@ -22821,7 +22843,7 @@
         <v>30.06999999999996</v>
       </c>
       <c r="K443" t="n">
-        <v>22.58064516129043</v>
+        <v>16.36363636363653</v>
       </c>
       <c r="L443" t="n">
         <v>7.243000000000005</v>
@@ -22872,7 +22894,7 @@
         <v>30.06999999999996</v>
       </c>
       <c r="K444" t="n">
-        <v>52.00000000000015</v>
+        <v>82.85714285714421</v>
       </c>
       <c r="L444" t="n">
         <v>7.252000000000005</v>
@@ -22923,7 +22945,7 @@
         <v>30.06999999999996</v>
       </c>
       <c r="K445" t="n">
-        <v>40.00000000000018</v>
+        <v>60.0000000000019</v>
       </c>
       <c r="L445" t="n">
         <v>7.281000000000006</v>
@@ -22974,7 +22996,7 @@
         <v>30.07999999999996</v>
       </c>
       <c r="K446" t="n">
-        <v>22.58064516129049</v>
+        <v>73.33333333333712</v>
       </c>
       <c r="L446" t="n">
         <v>7.291000000000006</v>
@@ -23025,7 +23047,7 @@
         <v>30.07999999999996</v>
       </c>
       <c r="K447" t="n">
-        <v>22.58064516129049</v>
+        <v>73.33333333333712</v>
       </c>
       <c r="L447" t="n">
         <v>7.302000000000005</v>
@@ -23076,7 +23098,7 @@
         <v>30.08999999999996</v>
       </c>
       <c r="K448" t="n">
-        <v>20.63492063492088</v>
+        <v>62.50000000000389</v>
       </c>
       <c r="L448" t="n">
         <v>7.312000000000006</v>
@@ -23127,7 +23149,7 @@
         <v>30.09999999999996</v>
       </c>
       <c r="K449" t="n">
-        <v>14.75409836065599</v>
+        <v>52.94117647059204</v>
       </c>
       <c r="L449" t="n">
         <v>7.321000000000007</v>
@@ -23178,7 +23200,7 @@
         <v>30.13999999999996</v>
       </c>
       <c r="K450" t="n">
-        <v>7.692307692307808</v>
+        <v>30.00000000000151</v>
       </c>
       <c r="L450" t="n">
         <v>7.326000000000008</v>
@@ -23229,7 +23251,7 @@
         <v>30.16999999999996</v>
       </c>
       <c r="K451" t="n">
-        <v>2.94117647058822</v>
+        <v>-81.8181818181874</v>
       </c>
       <c r="L451" t="n">
         <v>7.329000000000008</v>
@@ -23280,7 +23302,7 @@
         <v>30.18999999999996</v>
       </c>
       <c r="K452" t="n">
-        <v>0</v>
+        <v>-83.33333333333728</v>
       </c>
       <c r="L452" t="n">
         <v>7.318000000000008</v>
@@ -23331,7 +23353,7 @@
         <v>30.50999999999996</v>
       </c>
       <c r="K453" t="n">
-        <v>-30.69306930693113</v>
+        <v>-95.4545454545467</v>
       </c>
       <c r="L453" t="n">
         <v>7.276000000000008</v>
@@ -23382,7 +23404,7 @@
         <v>30.78999999999996</v>
       </c>
       <c r="K454" t="n">
-        <v>-3.937007874015768</v>
+        <v>-19.44444444444453</v>
       </c>
       <c r="L454" t="n">
         <v>7.262000000000008</v>
@@ -23433,7 +23455,7 @@
         <v>31.09999999999996</v>
       </c>
       <c r="K455" t="n">
-        <v>-11.59420289855083</v>
+        <v>-45.09803921568645</v>
       </c>
       <c r="L455" t="n">
         <v>7.217000000000008</v>
@@ -23484,7 +23506,7 @@
         <v>31.09999999999996</v>
       </c>
       <c r="K456" t="n">
-        <v>-30.50847457627149</v>
+        <v>-45.09803921568645</v>
       </c>
       <c r="L456" t="n">
         <v>7.171000000000008</v>
@@ -23535,7 +23557,7 @@
         <v>31.12999999999996</v>
       </c>
       <c r="K457" t="n">
-        <v>-31.66666666666696</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L457" t="n">
         <v>7.122000000000009</v>
@@ -23586,7 +23608,7 @@
         <v>31.16999999999996</v>
       </c>
       <c r="K458" t="n">
-        <v>-27.41935483870994</v>
+        <v>-40.18691588785043</v>
       </c>
       <c r="L458" t="n">
         <v>7.078000000000008</v>
@@ -23637,7 +23659,7 @@
         <v>31.25999999999996</v>
       </c>
       <c r="K459" t="n">
-        <v>-32.33082706766952</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L459" t="n">
         <v>7.026000000000009</v>
@@ -23688,7 +23710,7 @@
         <v>31.32999999999996</v>
       </c>
       <c r="K460" t="n">
-        <v>-25.71428571428596</v>
+        <v>-32.75862068965516</v>
       </c>
       <c r="L460" t="n">
         <v>6.985000000000008</v>
@@ -23739,7 +23761,7 @@
         <v>31.33999999999996</v>
       </c>
       <c r="K461" t="n">
-        <v>-24.28571428571449</v>
+        <v>-30.43478260869564</v>
       </c>
       <c r="L461" t="n">
         <v>6.948000000000008</v>
@@ -23790,7 +23812,7 @@
         <v>31.34999999999996</v>
       </c>
       <c r="K462" t="n">
-        <v>-36.43410852713199</v>
+        <v>-4.761904761904767</v>
       </c>
       <c r="L462" t="n">
         <v>6.912000000000008</v>
@@ -23841,7 +23863,7 @@
         <v>31.42999999999996</v>
       </c>
       <c r="K463" t="n">
-        <v>-39.7058823529414</v>
+        <v>-62.50000000000034</v>
       </c>
       <c r="L463" t="n">
         <v>6.900000000000007</v>
@@ -23892,7 +23914,7 @@
         <v>31.46999999999996</v>
       </c>
       <c r="K464" t="n">
-        <v>-41.42857142857169</v>
+        <v>-35.13513513513535</v>
       </c>
       <c r="L464" t="n">
         <v>6.856000000000007</v>
@@ -23943,7 +23965,7 @@
         <v>31.48999999999996</v>
       </c>
       <c r="K465" t="n">
-        <v>-42.25352112676081</v>
+        <v>-38.46153846153862</v>
       </c>
       <c r="L465" t="n">
         <v>6.841000000000006</v>
@@ -23994,7 +24016,7 @@
         <v>31.56999999999996</v>
       </c>
       <c r="K466" t="n">
-        <v>-46.30872483221489</v>
+        <v>-45.45454545454573</v>
       </c>
       <c r="L466" t="n">
         <v>6.818000000000007</v>
@@ -24045,7 +24067,7 @@
         <v>31.69999999999996</v>
       </c>
       <c r="K467" t="n">
-        <v>-50.61728395061744</v>
+        <v>-69.81132075471731</v>
       </c>
       <c r="L467" t="n">
         <v>6.785000000000006</v>
@@ -24096,7 +24118,7 @@
         <v>31.69999999999996</v>
       </c>
       <c r="K468" t="n">
-        <v>-50.31055900621129</v>
+        <v>-63.63636363636382</v>
       </c>
       <c r="L468" t="n">
         <v>6.748000000000006</v>
@@ -24147,7 +24169,7 @@
         <v>31.84999999999996</v>
       </c>
       <c r="K469" t="n">
-        <v>-37.14285714285724</v>
+        <v>-38.46153846153879</v>
       </c>
       <c r="L469" t="n">
         <v>6.735000000000005</v>
@@ -24198,7 +24220,7 @@
         <v>31.97999999999995</v>
       </c>
       <c r="K470" t="n">
-        <v>-40.21739130434791</v>
+        <v>-53.12500000000052</v>
       </c>
       <c r="L470" t="n">
         <v>6.702000000000005</v>
@@ -24249,7 +24271,7 @@
         <v>32.10999999999996</v>
       </c>
       <c r="K471" t="n">
-        <v>-29.89690721649488</v>
+        <v>-26.3157894736843</v>
       </c>
       <c r="L471" t="n">
         <v>6.681000000000004</v>
@@ -24300,7 +24322,7 @@
         <v>32.10999999999996</v>
       </c>
       <c r="K472" t="n">
-        <v>-29.16666666666672</v>
+        <v>-17.64705882352943</v>
       </c>
       <c r="L472" t="n">
         <v>6.661000000000004</v>
@@ -24351,7 +24373,7 @@
         <v>32.17999999999996</v>
       </c>
       <c r="K473" t="n">
-        <v>-10.17964071856288</v>
+        <v>-1.40845070422532</v>
       </c>
       <c r="L473" t="n">
         <v>6.656000000000004</v>
@@ -24402,7 +24424,7 @@
         <v>32.21999999999996</v>
       </c>
       <c r="K474" t="n">
-        <v>-28.67132867132876</v>
+        <v>6.849315068493123</v>
       </c>
       <c r="L474" t="n">
         <v>6.659000000000004</v>
@@ -24453,7 +24475,7 @@
         <v>32.22999999999995</v>
       </c>
       <c r="K475" t="n">
-        <v>-7.964601769911524</v>
+        <v>21.21212121212127</v>
       </c>
       <c r="L475" t="n">
         <v>6.665000000000004</v>
@@ -24504,7 +24526,7 @@
         <v>32.26999999999995</v>
       </c>
       <c r="K476" t="n">
-        <v>-11.11111111111115</v>
+        <v>40.3508771929826</v>
       </c>
       <c r="L476" t="n">
         <v>6.675000000000006</v>
@@ -24555,7 +24577,7 @@
         <v>32.68999999999996</v>
       </c>
       <c r="K477" t="n">
-        <v>20.51282051282054</v>
+        <v>65.6565656565657</v>
       </c>
       <c r="L477" t="n">
         <v>6.740000000000006</v>
@@ -24606,7 +24628,7 @@
         <v>32.75999999999996</v>
       </c>
       <c r="K478" t="n">
-        <v>13.20754716981135</v>
+        <v>47.25274725274731</v>
       </c>
       <c r="L478" t="n">
         <v>6.798000000000006</v>
@@ -24657,7 +24679,7 @@
         <v>33.08999999999995</v>
       </c>
       <c r="K479" t="n">
-        <v>-1.639344262295052</v>
+        <v>20.72072072072077</v>
       </c>
       <c r="L479" t="n">
         <v>6.808000000000007</v>
@@ -24708,7 +24730,7 @@
         <v>33.10999999999996</v>
       </c>
       <c r="K480" t="n">
-        <v>-6.74157303370788</v>
+        <v>8.000000000000007</v>
       </c>
       <c r="L480" t="n">
         <v>6.829000000000008</v>
@@ -24759,7 +24781,7 @@
         <v>33.18999999999996</v>
       </c>
       <c r="K481" t="n">
-        <v>-11.35135135135138</v>
+        <v>0</v>
       </c>
       <c r="L481" t="n">
         <v>6.829000000000008</v>
@@ -24810,7 +24832,7 @@
         <v>33.37999999999995</v>
       </c>
       <c r="K482" t="n">
-        <v>-0.4926108374384146</v>
+        <v>10.00000000000004</v>
       </c>
       <c r="L482" t="n">
         <v>6.848000000000008</v>
@@ -24861,7 +24883,7 @@
         <v>33.46999999999996</v>
       </c>
       <c r="K483" t="n">
-        <v>-0.9803921568627246</v>
+        <v>-0.7999999999999831</v>
       </c>
       <c r="L483" t="n">
         <v>6.851000000000008</v>
@@ -24912,7 +24934,7 @@
         <v>33.57999999999996</v>
       </c>
       <c r="K484" t="n">
-        <v>-4.26540284360189</v>
+        <v>-9.629629629629612</v>
       </c>
       <c r="L484" t="n">
         <v>6.839000000000008</v>
@@ -24963,7 +24985,7 @@
         <v>33.78999999999996</v>
       </c>
       <c r="K485" t="n">
-        <v>6.086956521739115</v>
+        <v>7.894736842105255</v>
       </c>
       <c r="L485" t="n">
         <v>6.847000000000007</v>
@@ -25014,7 +25036,7 @@
         <v>33.80999999999996</v>
       </c>
       <c r="K486" t="n">
-        <v>8.928571428571429</v>
+        <v>-28.5714285714284</v>
       </c>
       <c r="L486" t="n">
         <v>6.857000000000006</v>
@@ -25065,7 +25087,7 @@
         <v>33.90999999999996</v>
       </c>
       <c r="K487" t="n">
-        <v>19.45701357466058</v>
+        <v>-13.04347826086953</v>
       </c>
       <c r="L487" t="n">
         <v>6.835000000000005</v>
@@ -25116,7 +25138,7 @@
         <v>33.90999999999996</v>
       </c>
       <c r="K488" t="n">
-        <v>19.45701357466058</v>
+        <v>21.95121951219489</v>
       </c>
       <c r="L488" t="n">
         <v>6.820000000000005</v>
@@ -25167,7 +25189,7 @@
         <v>33.91999999999996</v>
       </c>
       <c r="K489" t="n">
-        <v>14.00966183574877</v>
+        <v>25.92592592592585</v>
       </c>
       <c r="L489" t="n">
         <v>6.839000000000004</v>
@@ -25218,7 +25240,7 @@
         <v>33.93999999999996</v>
       </c>
       <c r="K490" t="n">
-        <v>20.40816326530613</v>
+        <v>36.00000000000006</v>
       </c>
       <c r="L490" t="n">
         <v>6.858000000000004</v>
@@ -25269,7 +25291,7 @@
         <v>33.95999999999996</v>
       </c>
       <c r="K491" t="n">
-        <v>13.5135135135135</v>
+        <v>10.34482758620673</v>
       </c>
       <c r="L491" t="n">
         <v>6.883000000000004</v>
@@ -25320,7 +25342,7 @@
         <v>33.95999999999996</v>
       </c>
       <c r="K492" t="n">
-        <v>13.5135135135135</v>
+        <v>30.61224489795895</v>
       </c>
       <c r="L492" t="n">
         <v>6.889000000000005</v>
@@ -25371,7 +25393,7 @@
         <v>33.95999999999996</v>
       </c>
       <c r="K493" t="n">
-        <v>10.11235955056178</v>
+        <v>68.42105263157843</v>
       </c>
       <c r="L493" t="n">
         <v>6.904000000000005</v>
@@ -25422,7 +25444,7 @@
         <v>34.10999999999996</v>
       </c>
       <c r="K494" t="n">
-        <v>15.34391534391534</v>
+        <v>62.5</v>
       </c>
       <c r="L494" t="n">
         <v>6.945000000000005</v>
@@ -25473,7 +25495,7 @@
         <v>34.17999999999996</v>
       </c>
       <c r="K495" t="n">
-        <v>10.76923076923075</v>
+        <v>40.54054054054068</v>
       </c>
       <c r="L495" t="n">
         <v>6.958000000000006</v>
@@ -25524,7 +25546,7 @@
         <v>34.25999999999996</v>
       </c>
       <c r="K496" t="n">
-        <v>16.58291457286431</v>
+        <v>37.14285714285771</v>
       </c>
       <c r="L496" t="n">
         <v>6.981000000000006</v>
@@ -25575,7 +25597,7 @@
         <v>34.38999999999996</v>
       </c>
       <c r="K497" t="n">
-        <v>2.352941176470587</v>
+        <v>54.16666666666698</v>
       </c>
       <c r="L497" t="n">
         <v>7.007000000000007</v>
@@ -25626,7 +25648,7 @@
         <v>34.75999999999996</v>
       </c>
       <c r="K498" t="n">
-        <v>-13.00000000000003</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L498" t="n">
         <v>6.996000000000007</v>
@@ -25677,7 +25699,7 @@
         <v>34.94999999999995</v>
       </c>
       <c r="K499" t="n">
-        <v>13.97849462365591</v>
+        <v>8.910891089108915</v>
       </c>
       <c r="L499" t="n">
         <v>7.003000000000007</v>
@@ -25728,7 +25750,7 @@
         <v>34.95999999999995</v>
       </c>
       <c r="K500" t="n">
-        <v>15.67567567567573</v>
+        <v>12.0000000000001</v>
       </c>
       <c r="L500" t="n">
         <v>7.013000000000007</v>
@@ -25779,7 +25801,7 @@
         <v>35.09999999999995</v>
       </c>
       <c r="K501" t="n">
-        <v>26.70157068062836</v>
+        <v>22.80701754385984</v>
       </c>
       <c r="L501" t="n">
         <v>7.039000000000007</v>
@@ -25830,7 +25852,7 @@
         <v>35.21999999999995</v>
       </c>
       <c r="K502" t="n">
-        <v>10.86956521739134</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L502" t="n">
         <v>7.053000000000006</v>
@@ -25881,7 +25903,7 @@
         <v>35.32999999999995</v>
       </c>
       <c r="K503" t="n">
-        <v>9.677419354838735</v>
+        <v>-9.836065573770567</v>
       </c>
       <c r="L503" t="n">
         <v>7.056000000000006</v>
@@ -25932,7 +25954,7 @@
         <v>35.32999999999995</v>
       </c>
       <c r="K504" t="n">
-        <v>16.57142857142864</v>
+        <v>-4.347826086956538</v>
       </c>
       <c r="L504" t="n">
         <v>7.044000000000006</v>
@@ -25983,7 +26005,7 @@
         <v>35.37999999999995</v>
       </c>
       <c r="K505" t="n">
-        <v>1.886792452830217</v>
+        <v>-16.07142857142868</v>
       </c>
       <c r="L505" t="n">
         <v>7.034000000000004</v>
@@ -26034,7 +26056,7 @@
         <v>35.58999999999995</v>
       </c>
       <c r="K506" t="n">
-        <v>-8.988764044943895</v>
+        <v>-43.33333333333371</v>
       </c>
       <c r="L506" t="n">
         <v>6.995000000000005</v>
@@ -26085,7 +26107,7 @@
         <v>35.60999999999994</v>
       </c>
       <c r="K507" t="n">
-        <v>-14.1176470588237</v>
+        <v>-15.29411764705904</v>
       </c>
       <c r="L507" t="n">
         <v>6.945000000000005</v>
@@ -26136,7 +26158,7 @@
         <v>35.85999999999994</v>
       </c>
       <c r="K508" t="n">
-        <v>0.5128205128205068</v>
+        <v>-7.692307692307812</v>
       </c>
       <c r="L508" t="n">
         <v>6.957000000000005</v>
@@ -26187,7 +26209,7 @@
         <v>35.85999999999994</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>-8.888888888888982</v>
       </c>
       <c r="L509" t="n">
         <v>6.950000000000005</v>
@@ -26238,7 +26260,7 @@
         <v>36.04999999999994</v>
       </c>
       <c r="K510" t="n">
-        <v>9.952606635071158</v>
+        <v>-3.157894736842169</v>
       </c>
       <c r="L510" t="n">
         <v>6.961000000000004</v>
@@ -26289,7 +26311,7 @@
         <v>36.19999999999994</v>
       </c>
       <c r="K511" t="n">
-        <v>3.571428571428605</v>
+        <v>-6.122448979591951</v>
       </c>
       <c r="L511" t="n">
         <v>6.943000000000005</v>
@@ -26340,7 +26362,7 @@
         <v>36.25999999999994</v>
       </c>
       <c r="K512" t="n">
-        <v>6.0869565217392</v>
+        <v>11.82795698924744</v>
       </c>
       <c r="L512" t="n">
         <v>6.943000000000007</v>
@@ -26391,7 +26413,7 @@
         <v>36.49999999999994</v>
       </c>
       <c r="K513" t="n">
-        <v>-3.937007874015758</v>
+        <v>-11.11111111111115</v>
       </c>
       <c r="L513" t="n">
         <v>6.930000000000007</v>
@@ -26442,7 +26464,7 @@
         <v>36.71999999999994</v>
       </c>
       <c r="K514" t="n">
-        <v>-1.149425287356338</v>
+        <v>10.44776119402986</v>
       </c>
       <c r="L514" t="n">
         <v>6.939000000000007</v>
@@ -26493,7 +26515,7 @@
         <v>36.92999999999994</v>
       </c>
       <c r="K515" t="n">
-        <v>-6.181818181818211</v>
+        <v>10.44776119402986</v>
       </c>
       <c r="L515" t="n">
         <v>6.932000000000007</v>
@@ -26544,7 +26566,7 @@
         <v>37.08999999999995</v>
       </c>
       <c r="K516" t="n">
-        <v>-3.18021201413428</v>
+        <v>18.91891891891888</v>
       </c>
       <c r="L516" t="n">
         <v>6.962000000000008</v>
@@ -26595,7 +26617,7 @@
         <v>37.25999999999995</v>
       </c>
       <c r="K517" t="n">
-        <v>-13.58885017421606</v>
+        <v>-9.999999999999936</v>
       </c>
       <c r="L517" t="n">
         <v>6.973000000000008</v>
@@ -26646,7 +26668,7 @@
         <v>37.42999999999995</v>
       </c>
       <c r="K518" t="n">
-        <v>5.617977528089913</v>
+        <v>1.910828025477714</v>
       </c>
       <c r="L518" t="n">
         <v>6.976000000000008</v>
@@ -26697,7 +26719,7 @@
         <v>37.69999999999995</v>
       </c>
       <c r="K519" t="n">
-        <v>-11.27272727272729</v>
+        <v>-26.06060606060595</v>
       </c>
       <c r="L519" t="n">
         <v>6.952000000000008</v>
@@ -26748,7 +26770,7 @@
         <v>37.86999999999995</v>
       </c>
       <c r="K520" t="n">
-        <v>-5.15463917525772</v>
+        <v>-6.586826347305321</v>
       </c>
       <c r="L520" t="n">
         <v>6.926000000000009</v>
@@ -26799,7 +26821,7 @@
         <v>37.93999999999995</v>
       </c>
       <c r="K521" t="n">
-        <v>-7.746478873239469</v>
+        <v>-5.95238095238096</v>
       </c>
       <c r="L521" t="n">
         <v>6.922000000000009</v>
@@ -26850,7 +26872,7 @@
         <v>38.09999999999995</v>
       </c>
       <c r="K522" t="n">
-        <v>-9.027777777777793</v>
+        <v>-1.250000000000022</v>
       </c>
       <c r="L522" t="n">
         <v>6.89600000000001</v>
@@ -26901,7 +26923,7 @@
         <v>38.25999999999995</v>
       </c>
       <c r="K523" t="n">
-        <v>0.3412969283276378</v>
+        <v>-5.194805194805179</v>
       </c>
       <c r="L523" t="n">
         <v>6.910000000000009</v>
@@ -26952,7 +26974,7 @@
         <v>38.51999999999995</v>
       </c>
       <c r="K524" t="n">
-        <v>-7.836990595611291</v>
+        <v>-8.176100628930794</v>
       </c>
       <c r="L524" t="n">
         <v>6.876000000000009</v>
@@ -27003,7 +27025,7 @@
         <v>38.52999999999994</v>
       </c>
       <c r="K525" t="n">
-        <v>-6.031746031746047</v>
+        <v>-19.44444444444449</v>
       </c>
       <c r="L525" t="n">
         <v>6.864000000000009</v>
@@ -27054,7 +27076,7 @@
         <v>38.66999999999994</v>
       </c>
       <c r="K526" t="n">
-        <v>5.194805194805202</v>
+        <v>2.127659574468108</v>
       </c>
       <c r="L526" t="n">
         <v>6.850000000000009</v>
@@ -27105,7 +27127,7 @@
         <v>38.80999999999995</v>
       </c>
       <c r="K527" t="n">
-        <v>0</v>
+        <v>-20.28985507246385</v>
       </c>
       <c r="L527" t="n">
         <v>6.839000000000008</v>
@@ -27156,7 +27178,7 @@
         <v>38.81999999999994</v>
       </c>
       <c r="K528" t="n">
-        <v>-8.108108108108084</v>
+        <v>0</v>
       </c>
       <c r="L528" t="n">
         <v>6.812000000000009</v>
@@ -27207,7 +27229,7 @@
         <v>38.90999999999995</v>
       </c>
       <c r="K529" t="n">
-        <v>-10.81967213114753</v>
+        <v>-25.00000000000008</v>
       </c>
       <c r="L529" t="n">
         <v>6.803000000000009</v>
@@ -27258,7 +27280,7 @@
         <v>38.90999999999995</v>
       </c>
       <c r="K530" t="n">
-        <v>-18.18181818181816</v>
+        <v>-34.02061855670107</v>
       </c>
       <c r="L530" t="n">
         <v>6.777000000000008</v>
@@ -27309,7 +27331,7 @@
         <v>38.90999999999995</v>
       </c>
       <c r="K531" t="n">
-        <v>-13.65313653136528</v>
+        <v>-20.98765432098777</v>
       </c>
       <c r="L531" t="n">
         <v>6.744000000000009</v>
@@ -27360,7 +27382,7 @@
         <v>38.91999999999994</v>
       </c>
       <c r="K532" t="n">
-        <v>-15.7894736842105</v>
+        <v>-48.48484848484864</v>
       </c>
       <c r="L532" t="n">
         <v>6.728000000000009</v>
@@ -27411,7 +27433,7 @@
         <v>38.92999999999994</v>
       </c>
       <c r="K533" t="n">
-        <v>-6.995884773662548</v>
+        <v>-12.19512195121957</v>
       </c>
       <c r="L533" t="n">
         <v>6.697000000000008</v>
@@ -27462,7 +27484,7 @@
         <v>39.05999999999995</v>
       </c>
       <c r="K534" t="n">
-        <v>-11.11111111111109</v>
+        <v>13.20754716981135</v>
       </c>
       <c r="L534" t="n">
         <v>6.70500000000001</v>
@@ -27513,7 +27535,7 @@
         <v>39.09999999999994</v>
       </c>
       <c r="K535" t="n">
-        <v>-0.4608294930875474</v>
+        <v>-6.976744186046574</v>
       </c>
       <c r="L535" t="n">
         <v>6.71600000000001</v>
@@ -27564,7 +27586,7 @@
         <v>39.19999999999995</v>
       </c>
       <c r="K536" t="n">
-        <v>-3.317535545023711</v>
+        <v>53.84615384615375</v>
       </c>
       <c r="L536" t="n">
         <v>6.723000000000009</v>
@@ -27615,7 +27637,7 @@
         <v>39.41999999999994</v>
       </c>
       <c r="K537" t="n">
-        <v>-5.55555555555557</v>
+        <v>-3.333333333333403</v>
       </c>
       <c r="L537" t="n">
         <v>6.722000000000008</v>
@@ -27666,7 +27688,7 @@
         <v>39.54999999999995</v>
       </c>
       <c r="K538" t="n">
-        <v>-7.547169811320771</v>
+        <v>31.25</v>
       </c>
       <c r="L538" t="n">
         <v>6.733000000000009</v>
@@ -27717,7 +27739,7 @@
         <v>39.58999999999995</v>
       </c>
       <c r="K539" t="n">
-        <v>3.703703703703671</v>
+        <v>23.52941176470591</v>
       </c>
       <c r="L539" t="n">
         <v>6.749000000000008</v>
@@ -27768,7 +27790,7 @@
         <v>39.67999999999995</v>
       </c>
       <c r="K540" t="n">
-        <v>-0.5524861878453404</v>
+        <v>32.46753246753234</v>
       </c>
       <c r="L540" t="n">
         <v>6.774000000000008</v>
@@ -27819,7 +27841,7 @@
         <v>39.73999999999995</v>
       </c>
       <c r="K541" t="n">
-        <v>-7.777777777777742</v>
+        <v>21.95121951219489</v>
       </c>
       <c r="L541" t="n">
         <v>6.793000000000008</v>
@@ -27870,7 +27892,7 @@
         <v>39.89999999999995</v>
       </c>
       <c r="K542" t="n">
-        <v>10.00000000000005</v>
+        <v>34.02061855670082</v>
       </c>
       <c r="L542" t="n">
         <v>6.827000000000007</v>
@@ -27921,7 +27943,7 @@
         <v>39.90999999999995</v>
       </c>
       <c r="K543" t="n">
-        <v>0.6060606060606475</v>
+        <v>22.3529411764706</v>
       </c>
       <c r="L543" t="n">
         <v>6.859000000000007</v>
@@ -27972,7 +27994,7 @@
         <v>39.93999999999995</v>
       </c>
       <c r="K544" t="n">
-        <v>16.90140845070422</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L544" t="n">
         <v>6.875000000000007</v>
@@ -28023,7 +28045,7 @@
         <v>39.98999999999995</v>
       </c>
       <c r="K545" t="n">
-        <v>19.17808219178083</v>
+        <v>8.860759493670932</v>
       </c>
       <c r="L545" t="n">
         <v>6.892000000000007</v>
@@ -28074,7 +28096,7 @@
         <v>39.99999999999994</v>
       </c>
       <c r="K546" t="n">
-        <v>11.27819548872178</v>
+        <v>51.7241379310346</v>
       </c>
       <c r="L546" t="n">
         <v>6.900000000000008</v>
@@ -28125,7 +28147,7 @@
         <v>40.02999999999994</v>
       </c>
       <c r="K547" t="n">
-        <v>21.31147540983614</v>
+        <v>29.16666666666697</v>
       </c>
       <c r="L547" t="n">
         <v>6.927000000000009</v>
@@ -28176,7 +28198,7 @@
         <v>40.03999999999994</v>
       </c>
       <c r="K548" t="n">
-        <v>19.67213114754095</v>
+        <v>37.77777777777812</v>
       </c>
       <c r="L548" t="n">
         <v>6.940000000000009</v>
@@ -28227,7 +28249,7 @@
         <v>40.04999999999994</v>
       </c>
       <c r="K549" t="n">
-        <v>28.07017543859668</v>
+        <v>18.91891891891949</v>
       </c>
       <c r="L549" t="n">
         <v>6.956000000000008</v>
@@ -28278,7 +28300,7 @@
         <v>40.04999999999994</v>
       </c>
       <c r="K550" t="n">
-        <v>28.07017543859668</v>
+        <v>41.93548387096932</v>
       </c>
       <c r="L550" t="n">
         <v>6.963000000000008</v>
@@ -28329,7 +28351,7 @@
         <v>40.08999999999994</v>
       </c>
       <c r="K551" t="n">
-        <v>30.5084745762714</v>
+        <v>5.26315789473699</v>
       </c>
       <c r="L551" t="n">
         <v>6.980000000000008</v>
@@ -28380,7 +28402,7 @@
         <v>40.11999999999994</v>
       </c>
       <c r="K552" t="n">
-        <v>26.66666666666671</v>
+        <v>-4.761904761905225</v>
       </c>
       <c r="L552" t="n">
         <v>6.978000000000009</v>
@@ -28431,7 +28453,7 @@
         <v>40.12999999999994</v>
       </c>
       <c r="K553" t="n">
-        <v>25.00000000000007</v>
+        <v>5.26315789473699</v>
       </c>
       <c r="L553" t="n">
         <v>6.976000000000008</v>
@@ -28482,7 +28504,7 @@
         <v>40.12999999999994</v>
       </c>
       <c r="K554" t="n">
-        <v>15.88785046728981</v>
+        <v>-28.57142857142993</v>
       </c>
       <c r="L554" t="n">
         <v>6.977000000000007</v>
@@ -28533,7 +28555,7 @@
         <v>40.23999999999994</v>
       </c>
       <c r="K555" t="n">
-        <v>1.754385964912253</v>
+        <v>-66.66666666666815</v>
       </c>
       <c r="L555" t="n">
         <v>6.962000000000006</v>
@@ -28584,7 +28606,7 @@
         <v>40.32999999999994</v>
       </c>
       <c r="K556" t="n">
-        <v>0.8849557522124527</v>
+        <v>-13.33333333333347</v>
       </c>
       <c r="L556" t="n">
         <v>6.955000000000005</v>
@@ -28635,7 +28657,7 @@
         <v>40.34999999999994</v>
       </c>
       <c r="K557" t="n">
-        <v>26.88172043010774</v>
+        <v>-3.225806451612884</v>
       </c>
       <c r="L557" t="n">
         <v>6.953000000000005</v>
@@ -28686,7 +28708,7 @@
         <v>40.55999999999994</v>
       </c>
       <c r="K558" t="n">
-        <v>-8.910891089108977</v>
+        <v>-41.17647058823545</v>
       </c>
       <c r="L558" t="n">
         <v>6.931000000000004</v>
@@ -28737,7 +28759,7 @@
         <v>40.57999999999994</v>
       </c>
       <c r="K559" t="n">
-        <v>-3.030303030303071</v>
+        <v>-35.84905660377358</v>
       </c>
       <c r="L559" t="n">
         <v>6.912000000000004</v>
@@ -28788,7 +28810,7 @@
         <v>40.62999999999994</v>
       </c>
       <c r="K560" t="n">
-        <v>-17.89473684210547</v>
+        <v>-51.85185185185198</v>
       </c>
       <c r="L560" t="n">
         <v>6.888000000000005</v>
@@ -28839,7 +28861,7 @@
         <v>40.75999999999994</v>
       </c>
       <c r="K561" t="n">
-        <v>1.96078431372547</v>
+        <v>-18.75</v>
       </c>
       <c r="L561" t="n">
         <v>6.873000000000005</v>
@@ -28890,7 +28912,7 @@
         <v>40.77999999999994</v>
       </c>
       <c r="K562" t="n">
-        <v>-18.18181818181829</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L562" t="n">
         <v>6.859000000000004</v>
@@ -28941,7 +28963,7 @@
         <v>40.79999999999995</v>
       </c>
       <c r="K563" t="n">
-        <v>-19.1011235955057</v>
+        <v>-22.3880597014923</v>
       </c>
       <c r="L563" t="n">
         <v>6.844000000000006</v>
@@ -28992,7 +29014,7 @@
         <v>40.83999999999995</v>
       </c>
       <c r="K564" t="n">
-        <v>-20.0000000000001</v>
+        <v>-13.33333333333316</v>
       </c>
       <c r="L564" t="n">
         <v>6.825000000000006</v>
@@ -29043,7 +29065,7 @@
         <v>40.84999999999994</v>
       </c>
       <c r="K565" t="n">
-        <v>-25.5813953488372</v>
+        <v>-30.76923076923061</v>
       </c>
       <c r="L565" t="n">
         <v>6.818000000000007</v>
@@ -29094,7 +29116,7 @@
         <v>40.86999999999995</v>
       </c>
       <c r="K566" t="n">
-        <v>-24.13793103448263</v>
+        <v>-30.76923076923019</v>
       </c>
       <c r="L566" t="n">
         <v>6.804000000000006</v>
@@ -29145,7 +29167,7 @@
         <v>40.86999999999995</v>
       </c>
       <c r="K567" t="n">
-        <v>-21.42857142857141</v>
+        <v>16.12903225806397</v>
       </c>
       <c r="L567" t="n">
         <v>6.788000000000006</v>
@@ -29196,7 +29218,7 @@
         <v>40.88999999999994</v>
       </c>
       <c r="K568" t="n">
-        <v>-22.35294117647049</v>
+        <v>3.225806451613098</v>
       </c>
       <c r="L568" t="n">
         <v>6.791000000000007</v>
@@ -29247,7 +29269,7 @@
         <v>40.91999999999994</v>
       </c>
       <c r="K569" t="n">
-        <v>-24.13793103448263</v>
+        <v>10.34482758620676</v>
       </c>
       <c r="L569" t="n">
         <v>6.789000000000007</v>
@@ -29298,7 +29320,7 @@
         <v>40.92999999999994</v>
       </c>
       <c r="K570" t="n">
-        <v>-22.72727272727268</v>
+        <v>-52.94117647058763</v>
       </c>
       <c r="L570" t="n">
         <v>6.793000000000008</v>
@@ -29349,7 +29371,7 @@
         <v>40.93999999999994</v>
       </c>
       <c r="K571" t="n">
-        <v>-27.05882352941177</v>
+        <v>-37.50000000000111</v>
       </c>
       <c r="L571" t="n">
         <v>6.785000000000008</v>
@@ -29400,7 +29422,7 @@
         <v>40.93999999999994</v>
       </c>
       <c r="K572" t="n">
-        <v>-24.39024390243904</v>
+        <v>-28.57142857142993</v>
       </c>
       <c r="L572" t="n">
         <v>6.779000000000008</v>
@@ -29451,7 +29473,7 @@
         <v>40.93999999999994</v>
       </c>
       <c r="K573" t="n">
-        <v>-23.45679012345677</v>
+        <v>0</v>
       </c>
       <c r="L573" t="n">
         <v>6.775000000000007</v>
@@ -29502,7 +29524,7 @@
         <v>40.93999999999994</v>
       </c>
       <c r="K574" t="n">
-        <v>-23.45679012345677</v>
+        <v>-11.11111111111232</v>
       </c>
       <c r="L574" t="n">
         <v>6.775000000000007</v>
@@ -29553,7 +29575,7 @@
         <v>40.94999999999994</v>
       </c>
       <c r="K575" t="n">
-        <v>-12.67605633802813</v>
+        <v>-50.00000000000555</v>
       </c>
       <c r="L575" t="n">
         <v>6.773000000000008</v>
@@ -29604,7 +29626,7 @@
         <v>40.96999999999994</v>
       </c>
       <c r="K576" t="n">
-        <v>-31.25</v>
+        <v>-60.00000000000302</v>
       </c>
       <c r="L576" t="n">
         <v>6.767000000000007</v>
@@ -29655,7 +29677,7 @@
         <v>40.97999999999994</v>
       </c>
       <c r="K577" t="n">
-        <v>-33.33333333333319</v>
+        <v>-33.33333333333498</v>
       </c>
       <c r="L577" t="n">
         <v>6.762000000000008</v>
@@ -29706,7 +29728,7 @@
         <v>41.05999999999994</v>
       </c>
       <c r="K578" t="n">
-        <v>16.00000000000001</v>
+        <v>57.14285714285986</v>
       </c>
       <c r="L578" t="n">
         <v>6.767000000000007</v>
@@ -29757,7 +29779,7 @@
         <v>41.07999999999994</v>
       </c>
       <c r="K579" t="n">
-        <v>8.000000000000007</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L579" t="n">
         <v>6.773000000000008</v>
@@ -29808,7 +29830,7 @@
         <v>41.09999999999994</v>
       </c>
       <c r="K580" t="n">
-        <v>14.89361702127669</v>
+        <v>12.50000000000055</v>
       </c>
       <c r="L580" t="n">
         <v>6.776000000000008</v>
@@ -29859,7 +29881,7 @@
         <v>41.10999999999994</v>
       </c>
       <c r="K581" t="n">
-        <v>-14.28571428571447</v>
+        <v>17.64705882353012</v>
       </c>
       <c r="L581" t="n">
         <v>6.779000000000008</v>
@@ -29910,7 +29932,7 @@
         <v>41.12999999999994</v>
       </c>
       <c r="K582" t="n">
-        <v>-14.28571428571447</v>
+        <v>5.26315789473726</v>
       </c>
       <c r="L582" t="n">
         <v>6.780000000000008</v>
@@ -29961,7 +29983,7 @@
         <v>41.14999999999993</v>
       </c>
       <c r="K583" t="n">
-        <v>-2.857142857142901</v>
+        <v>14.28571428571483</v>
       </c>
       <c r="L583" t="n">
         <v>6.783000000000008</v>
@@ -30012,7 +30034,7 @@
         <v>41.14999999999993</v>
       </c>
       <c r="K584" t="n">
-        <v>9.677419354839163</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L584" t="n">
         <v>6.786000000000008</v>
@@ -30063,7 +30085,7 @@
         <v>41.14999999999993</v>
       </c>
       <c r="K585" t="n">
-        <v>6.666666666666746</v>
+        <v>33.33333333333449</v>
       </c>
       <c r="L585" t="n">
         <v>6.790000000000008</v>
@@ -30114,7 +30136,7 @@
         <v>41.33999999999993</v>
       </c>
       <c r="K586" t="n">
-        <v>40.42553191489502</v>
+        <v>66.66666666666815</v>
       </c>
       <c r="L586" t="n">
         <v>6.815000000000007</v>
@@ -30165,7 +30187,7 @@
         <v>41.38999999999993</v>
       </c>
       <c r="K587" t="n">
-        <v>26.92307692307797</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L587" t="n">
         <v>6.834000000000008</v>
@@ -30216,7 +30238,7 @@
         <v>41.44999999999993</v>
       </c>
       <c r="K588" t="n">
-        <v>17.85714285714317</v>
+        <v>18.91891891891949</v>
       </c>
       <c r="L588" t="n">
         <v>6.839000000000008</v>
@@ -30267,7 +30289,7 @@
         <v>41.51999999999993</v>
       </c>
       <c r="K589" t="n">
-        <v>33.33333333333407</v>
+        <v>38.09523809523862</v>
       </c>
       <c r="L589" t="n">
         <v>6.853000000000007</v>
@@ -30318,7 +30340,7 @@
         <v>41.66999999999993</v>
       </c>
       <c r="K590" t="n">
-        <v>5.405405405405499</v>
+        <v>0</v>
       </c>
       <c r="L590" t="n">
         <v>6.854000000000006</v>
@@ -30369,7 +30391,7 @@
         <v>41.70999999999993</v>
       </c>
       <c r="K591" t="n">
-        <v>9.090909090909259</v>
+        <v>10.34482758620699</v>
       </c>
       <c r="L591" t="n">
         <v>6.858000000000007</v>
@@ -30420,7 +30442,7 @@
         <v>41.71999999999993</v>
       </c>
       <c r="K592" t="n">
-        <v>7.692307692307885</v>
+        <v>5.263157894736949</v>
       </c>
       <c r="L592" t="n">
         <v>6.863000000000007</v>
@@ -30471,7 +30493,7 @@
         <v>41.71999999999993</v>
       </c>
       <c r="K593" t="n">
-        <v>7.692307692307885</v>
+        <v>5.263157894736949</v>
       </c>
       <c r="L593" t="n">
         <v>6.866000000000007</v>
@@ -30522,7 +30544,7 @@
         <v>41.74999999999993</v>
       </c>
       <c r="K594" t="n">
-        <v>11.11111111111137</v>
+        <v>10.00000000000018</v>
       </c>
       <c r="L594" t="n">
         <v>6.872000000000007</v>
@@ -30573,7 +30595,7 @@
         <v>41.84999999999993</v>
       </c>
       <c r="K595" t="n">
-        <v>0</v>
+        <v>-45.09803921568653</v>
       </c>
       <c r="L595" t="n">
         <v>6.868000000000007</v>
@@ -30624,7 +30646,7 @@
         <v>41.85999999999993</v>
       </c>
       <c r="K596" t="n">
-        <v>1.123595505617971</v>
+        <v>-40.4255319148938</v>
       </c>
       <c r="L596" t="n">
         <v>6.844000000000008</v>
@@ -30675,7 +30697,7 @@
         <v>41.87999999999992</v>
       </c>
       <c r="K597" t="n">
-        <v>2.222222222222213</v>
+        <v>-25.58139534883772</v>
       </c>
       <c r="L597" t="n">
         <v>6.827000000000008</v>
@@ -30726,7 +30748,7 @@
         <v>41.94999999999992</v>
       </c>
       <c r="K598" t="n">
-        <v>-14.60674157303392</v>
+        <v>-58.13953488372194</v>
       </c>
       <c r="L598" t="n">
         <v>6.809000000000009</v>
@@ -30777,7 +30799,7 @@
         <v>41.98999999999992</v>
       </c>
       <c r="K599" t="n">
-        <v>-7.692307692307774</v>
+        <v>-18.75000000000028</v>
       </c>
       <c r="L599" t="n">
         <v>6.788000000000008</v>
@@ -30828,7 +30850,7 @@
         <v>42.02999999999992</v>
       </c>
       <c r="K600" t="n">
-        <v>-9.677419354838845</v>
+        <v>-43.75000000000083</v>
       </c>
       <c r="L600" t="n">
         <v>6.778000000000008</v>
@@ -30879,7 +30901,7 @@
         <v>42.03999999999992</v>
       </c>
       <c r="K601" t="n">
-        <v>-9.677419354838845</v>
+        <v>-37.50000000000083</v>
       </c>
       <c r="L601" t="n">
         <v>6.765000000000008</v>
@@ -30930,7 +30952,7 @@
         <v>42.04999999999992</v>
       </c>
       <c r="K602" t="n">
-        <v>-8.695652173913237</v>
+        <v>-39.39393939394041</v>
       </c>
       <c r="L602" t="n">
         <v>6.752000000000008</v>
@@ -30981,7 +31003,7 @@
         <v>42.08999999999992</v>
       </c>
       <c r="K603" t="n">
-        <v>-6.382978723404325</v>
+        <v>-35.29411764705998</v>
       </c>
       <c r="L603" t="n">
         <v>6.743000000000007</v>
@@ -31032,7 +31054,7 @@
         <v>42.11999999999992</v>
       </c>
       <c r="K604" t="n">
-        <v>-3.092783505154714</v>
+        <v>3.703703703703777</v>
       </c>
       <c r="L604" t="n">
         <v>6.734000000000007</v>
@@ -31083,7 +31105,7 @@
         <v>42.13999999999992</v>
       </c>
       <c r="K605" t="n">
-        <v>-5.050505050505131</v>
+        <v>0</v>
       </c>
       <c r="L605" t="n">
         <v>6.733000000000007</v>
@@ -31134,7 +31156,7 @@
         <v>42.24999999999991</v>
       </c>
       <c r="K606" t="n">
-        <v>-14.28571428571455</v>
+        <v>24.32432432432516</v>
       </c>
       <c r="L606" t="n">
         <v>6.744000000000007</v>
@@ -31185,7 +31207,7 @@
         <v>42.25999999999991</v>
       </c>
       <c r="K607" t="n">
-        <v>-10.34482758620718</v>
+        <v>48.38709677419524</v>
       </c>
       <c r="L607" t="n">
         <v>6.752000000000007</v>
@@ -31236,7 +31258,7 @@
         <v>42.32999999999991</v>
       </c>
       <c r="K608" t="n">
-        <v>-11.36363636363657</v>
+        <v>11.76470588235333</v>
       </c>
       <c r="L608" t="n">
         <v>6.760000000000007</v>
@@ -31287,7 +31309,7 @@
         <v>42.36999999999991</v>
       </c>
       <c r="K609" t="n">
-        <v>-24.70588235294175</v>
+        <v>11.76470588235333</v>
       </c>
       <c r="L609" t="n">
         <v>6.760000000000007</v>
@@ -31338,7 +31360,7 @@
         <v>42.45999999999991</v>
       </c>
       <c r="K610" t="n">
-        <v>3.797468354430518</v>
+        <v>28.57142857142945</v>
       </c>
       <c r="L610" t="n">
         <v>6.773000000000006</v>
@@ -31389,7 +31411,7 @@
         <v>42.46999999999991</v>
       </c>
       <c r="K611" t="n">
-        <v>0</v>
+        <v>33.33333333333425</v>
       </c>
       <c r="L611" t="n">
         <v>6.786000000000007</v>
@@ -31440,7 +31462,7 @@
         <v>42.48999999999991</v>
       </c>
       <c r="K612" t="n">
-        <v>3.89610389610402</v>
+        <v>30.00000000000066</v>
       </c>
       <c r="L612" t="n">
         <v>6.802000000000007</v>
@@ -31495,7 +31517,7 @@
         <v>42.49999999999991</v>
       </c>
       <c r="K613" t="n">
-        <v>5.128205128205265</v>
+        <v>26.31578947368516</v>
       </c>
       <c r="L613" t="n">
         <v>6.815000000000007</v>
@@ -31554,7 +31576,7 @@
         <v>42.52999999999991</v>
       </c>
       <c r="K614" t="n">
-        <v>-2.56410256410269</v>
+        <v>23.07692307692343</v>
       </c>
       <c r="L614" t="n">
         <v>6.822000000000008</v>
@@ -31613,7 +31635,7 @@
         <v>42.58999999999991</v>
       </c>
       <c r="K615" t="n">
-        <v>18.91891891891949</v>
+        <v>11.76470588235308</v>
       </c>
       <c r="L615" t="n">
         <v>6.837000000000009</v>
@@ -31670,7 +31692,7 @@
         <v>42.63999999999992</v>
       </c>
       <c r="K616" t="n">
-        <v>12.82051282051299</v>
+        <v>0</v>
       </c>
       <c r="L616" t="n">
         <v>6.836000000000008</v>
@@ -31731,7 +31753,7 @@
         <v>42.76999999999992</v>
       </c>
       <c r="K617" t="n">
-        <v>-5.617977528089909</v>
+        <v>-13.6363636363636</v>
       </c>
       <c r="L617" t="n">
         <v>6.823000000000009</v>
@@ -31792,7 +31814,7 @@
         <v>42.86999999999992</v>
       </c>
       <c r="K618" t="n">
-        <v>13.04347826086965</v>
+        <v>15.99999999999979</v>
       </c>
       <c r="L618" t="n">
         <v>6.82700000000001</v>
@@ -31851,7 +31873,7 @@
         <v>42.92999999999992</v>
       </c>
       <c r="K619" t="n">
-        <v>2.127659574468045</v>
+        <v>-14.89361702127624</v>
       </c>
       <c r="L619" t="n">
         <v>6.82900000000001</v>
@@ -31914,7 +31936,7 @@
         <v>42.93999999999992</v>
       </c>
       <c r="K620" t="n">
-        <v>7.692307692307655</v>
+        <v>-14.89361702127624</v>
       </c>
       <c r="L620" t="n">
         <v>6.82300000000001</v>
@@ -31977,7 +31999,7 @@
         <v>42.96999999999992</v>
       </c>
       <c r="K621" t="n">
-        <v>3.225806451612931</v>
+        <v>-24.99999999999945</v>
       </c>
       <c r="L621" t="n">
         <v>6.813000000000009</v>
@@ -32040,7 +32062,7 @@
         <v>43.01999999999992</v>
       </c>
       <c r="K622" t="n">
-        <v>-1.030927835051526</v>
+        <v>-34.61538461538388</v>
       </c>
       <c r="L622" t="n">
         <v>6.796000000000009</v>
@@ -32101,7 +32123,7 @@
         <v>43.06999999999992</v>
       </c>
       <c r="K623" t="n">
-        <v>0</v>
+        <v>-18.51851851851824</v>
       </c>
       <c r="L623" t="n">
         <v>6.783000000000008</v>
@@ -32160,7 +32182,7 @@
         <v>43.06999999999992</v>
       </c>
       <c r="K624" t="n">
-        <v>-3.157894736842052</v>
+        <v>-33.33333333333309</v>
       </c>
       <c r="L624" t="n">
         <v>6.773000000000008</v>
@@ -32223,7 +32245,7 @@
         <v>43.10999999999991</v>
       </c>
       <c r="K625" t="n">
-        <v>3.092783505154669</v>
+        <v>-14.8936170212765</v>
       </c>
       <c r="L625" t="n">
         <v>6.761000000000007</v>
@@ -32286,7 +32308,7 @@
         <v>43.10999999999991</v>
       </c>
       <c r="K626" t="n">
-        <v>-9.302325581395362</v>
+        <v>17.64705882352975</v>
       </c>
       <c r="L626" t="n">
         <v>6.754000000000008</v>
@@ -32349,7 +32371,7 @@
         <v>43.10999999999991</v>
       </c>
       <c r="K627" t="n">
-        <v>-8.235294117646974</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L627" t="n">
         <v>6.760000000000008</v>
@@ -32412,7 +32434,7 @@
         <v>43.10999999999991</v>
       </c>
       <c r="K628" t="n">
-        <v>0</v>
+        <v>11.11111111111182</v>
       </c>
       <c r="L628" t="n">
         <v>6.756000000000009</v>
@@ -32475,7 +32497,7 @@
         <v>43.18999999999991</v>
       </c>
       <c r="K629" t="n">
-        <v>-4.878048780487807</v>
+        <v>-28.00000000000055</v>
       </c>
       <c r="L629" t="n">
         <v>6.750000000000009</v>
@@ -32538,7 +32560,7 @@
         <v>43.19999999999991</v>
       </c>
       <c r="K630" t="n">
-        <v>-18.91891891891883</v>
+        <v>-21.7391304347835</v>
       </c>
       <c r="L630" t="n">
         <v>6.742000000000009</v>
@@ -32601,7 +32623,7 @@
         <v>43.28999999999991</v>
       </c>
       <c r="K631" t="n">
-        <v>-29.26829268292659</v>
+        <v>-33.3333333333341</v>
       </c>
       <c r="L631" t="n">
         <v>6.728000000000009</v>
@@ -32662,7 +32684,7 @@
         <v>43.43999999999991</v>
       </c>
       <c r="K632" t="n">
-        <v>-11.57894736842105</v>
+        <v>2.702702702702664</v>
       </c>
       <c r="L632" t="n">
         <v>6.734000000000009</v>
@@ -32721,7 +32743,7 @@
         <v>43.48999999999991</v>
       </c>
       <c r="K633" t="n">
-        <v>-17.17171717171713</v>
+        <v>-9.523809523809655</v>
       </c>
       <c r="L633" t="n">
         <v>6.730000000000009</v>
@@ -32784,7 +32806,7 @@
         <v>43.53999999999991</v>
       </c>
       <c r="K634" t="n">
-        <v>-18.8118811881188</v>
+        <v>-30.23255813953537</v>
       </c>
       <c r="L634" t="n">
         <v>6.721000000000011</v>
@@ -32843,7 +32865,7 @@
         <v>43.56999999999991</v>
       </c>
       <c r="K635" t="n">
-        <v>-28.57142857142869</v>
+        <v>-34.78260869565268</v>
       </c>
       <c r="L635" t="n">
         <v>6.705000000000011</v>
@@ -32902,7 +32924,7 @@
         <v>43.71999999999991</v>
       </c>
       <c r="K636" t="n">
-        <v>-7.407407407407475</v>
+        <v>-1.639344262295213</v>
       </c>
       <c r="L636" t="n">
         <v>6.70400000000001</v>
@@ -32961,7 +32983,7 @@
         <v>43.7999999999999</v>
       </c>
       <c r="K637" t="n">
-        <v>-2.912621359223276</v>
+        <v>-13.04347826086972</v>
       </c>
       <c r="L637" t="n">
         <v>6.69500000000001</v>
@@ -33020,7 +33042,7 @@
         <v>43.85999999999991</v>
       </c>
       <c r="K638" t="n">
-        <v>-19.19191919191947</v>
+        <v>-10.44776119402998</v>
       </c>
       <c r="L638" t="n">
         <v>6.680000000000009</v>
@@ -33077,7 +33099,7 @@
         <v>43.86999999999991</v>
       </c>
       <c r="K639" t="n">
-        <v>-14.89361702127682</v>
+        <v>-10.44776119402998</v>
       </c>
       <c r="L639" t="n">
         <v>6.672000000000009</v>
@@ -33136,7 +33158,7 @@
         <v>43.9099999999999</v>
       </c>
       <c r="K640" t="n">
-        <v>-11.34020618556713</v>
+        <v>9.677419354838941</v>
       </c>
       <c r="L640" t="n">
         <v>6.669000000000009</v>
@@ -33197,7 +33219,7 @@
         <v>43.9099999999999</v>
       </c>
       <c r="K641" t="n">
-        <v>-8.510638297872497</v>
+        <v>-19.14893617021307</v>
       </c>
       <c r="L641" t="n">
         <v>6.67500000000001</v>
@@ -33258,7 +33280,7 @@
         <v>43.92999999999991</v>
       </c>
       <c r="K642" t="n">
-        <v>-1.098901098901186</v>
+        <v>-4.545454545454674</v>
       </c>
       <c r="L642" t="n">
         <v>6.668000000000009</v>
@@ -33319,7 +33341,7 @@
         <v>43.92999999999991</v>
       </c>
       <c r="K643" t="n">
-        <v>-6.976744186046632</v>
+        <v>7.692307692307517</v>
       </c>
       <c r="L643" t="n">
         <v>6.666000000000009</v>
@@ -33380,7 +33402,7 @@
         <v>43.92999999999991</v>
       </c>
       <c r="K644" t="n">
-        <v>-6.976744186046632</v>
+        <v>16.66666666666659</v>
       </c>
       <c r="L644" t="n">
         <v>6.669000000000008</v>
@@ -33441,7 +33463,7 @@
         <v>44.0499999999999</v>
       </c>
       <c r="K645" t="n">
-        <v>2.127659574468061</v>
+        <v>9.090909090909213</v>
       </c>
       <c r="L645" t="n">
         <v>6.687000000000007</v>
@@ -33502,7 +33524,7 @@
         <v>44.06999999999991</v>
       </c>
       <c r="K646" t="n">
-        <v>0</v>
+        <v>33.3333333333329</v>
       </c>
       <c r="L646" t="n">
         <v>6.688000000000008</v>
@@ -33563,7 +33585,7 @@
         <v>44.10999999999991</v>
       </c>
       <c r="K647" t="n">
-        <v>-4.000000000000032</v>
+        <v>44.00000000000013</v>
       </c>
       <c r="L647" t="n">
         <v>6.693000000000008</v>
@@ -33622,7 +33644,7 @@
         <v>44.12999999999991</v>
       </c>
       <c r="K648" t="n">
-        <v>-5.882352941176542</v>
+        <v>38.46153846153757</v>
       </c>
       <c r="L648" t="n">
         <v>6.702000000000008</v>
@@ -33679,7 +33701,7 @@
         <v>44.19999999999991</v>
       </c>
       <c r="K649" t="n">
-        <v>-4.950495049504942</v>
+        <v>-3.448275862068818</v>
       </c>
       <c r="L649" t="n">
         <v>6.705000000000008</v>
@@ -33736,7 +33758,7 @@
         <v>44.24999999999991</v>
       </c>
       <c r="K650" t="n">
-        <v>0.9523809523809346</v>
+        <v>11.76470588235283</v>
       </c>
       <c r="L650" t="n">
         <v>6.709000000000009</v>
@@ -33793,7 +33815,7 @@
         <v>44.26999999999991</v>
       </c>
       <c r="K651" t="n">
-        <v>8.163265306122481</v>
+        <v>0</v>
       </c>
       <c r="L651" t="n">
         <v>6.71100000000001</v>
@@ -33850,7 +33872,7 @@
         <v>44.28999999999991</v>
       </c>
       <c r="K652" t="n">
-        <v>-10.5882352941177</v>
+        <v>-5.555555555555445</v>
       </c>
       <c r="L652" t="n">
         <v>6.709000000000009</v>
@@ -33907,7 +33929,7 @@
         <v>44.31999999999991</v>
       </c>
       <c r="K653" t="n">
-        <v>-8.433734939759088</v>
+        <v>-12.82051282051276</v>
       </c>
       <c r="L653" t="n">
         <v>6.704000000000008</v>
@@ -33964,7 +33986,7 @@
         <v>44.31999999999991</v>
       </c>
       <c r="K654" t="n">
-        <v>-2.564102564102619</v>
+        <v>-62.96296296296221</v>
       </c>
       <c r="L654" t="n">
         <v>6.699000000000007</v>
@@ -34021,7 +34043,7 @@
         <v>44.34999999999991</v>
       </c>
       <c r="K655" t="n">
-        <v>-2.564102564102619</v>
+        <v>-64.28571428571423</v>
       </c>
       <c r="L655" t="n">
         <v>6.679000000000006</v>
@@ -34078,7 +34100,7 @@
         <v>44.35999999999991</v>
       </c>
       <c r="K656" t="n">
-        <v>-28.12499999999993</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L656" t="n">
         <v>6.660000000000006</v>
@@ -34135,7 +34157,7 @@
         <v>44.37999999999991</v>
       </c>
       <c r="K657" t="n">
-        <v>-20.68965517241362</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L657" t="n">
         <v>6.643000000000008</v>
@@ -34186,7 +34208,7 @@
         <v>44.53999999999991</v>
       </c>
       <c r="K658" t="n">
-        <v>14.70588235294126</v>
+        <v>23.52941176470616</v>
       </c>
       <c r="L658" t="n">
         <v>6.644000000000008</v>
@@ -34237,7 +34259,7 @@
         <v>44.59999999999991</v>
       </c>
       <c r="K659" t="n">
-        <v>6.849315068493089</v>
+        <v>-8.571428571428608</v>
       </c>
       <c r="L659" t="n">
         <v>6.646000000000008</v>
@@ -34288,7 +34310,7 @@
         <v>44.64999999999991</v>
       </c>
       <c r="K660" t="n">
-        <v>-5.405405405405396</v>
+        <v>-15.78947368421061</v>
       </c>
       <c r="L660" t="n">
         <v>6.638000000000008</v>
@@ -34339,7 +34361,7 @@
         <v>44.6999999999999</v>
       </c>
       <c r="K661" t="n">
-        <v>-11.39240506329113</v>
+        <v>-21.95121951219527</v>
       </c>
       <c r="L661" t="n">
         <v>6.627000000000007</v>
@@ -34390,7 +34412,7 @@
         <v>44.6999999999999</v>
       </c>
       <c r="K662" t="n">
-        <v>-14.28571428571428</v>
+        <v>-15.78947368421061</v>
       </c>
       <c r="L662" t="n">
         <v>6.618000000000007</v>
@@ -34441,7 +34463,7 @@
         <v>44.7399999999999</v>
       </c>
       <c r="K663" t="n">
-        <v>-18.51851851851856</v>
+        <v>-23.80952380952403</v>
       </c>
       <c r="L663" t="n">
         <v>6.608000000000007</v>
@@ -34492,7 +34514,7 @@
         <v>44.8899999999999</v>
       </c>
       <c r="K664" t="n">
-        <v>0</v>
+        <v>14.81481481481505</v>
       </c>
       <c r="L664" t="n">
         <v>6.613000000000008</v>
@@ -34543,7 +34565,7 @@
         <v>44.9599999999999</v>
       </c>
       <c r="K665" t="n">
-        <v>-20.8791208791209</v>
+        <v>3.333333333333442</v>
       </c>
       <c r="L665" t="n">
         <v>6.614000000000009</v>
@@ -34594,7 +34616,7 @@
         <v>44.9699999999999</v>
       </c>
       <c r="K666" t="n">
-        <v>-20.00000000000026</v>
+        <v>5.084745762711849</v>
       </c>
       <c r="L666" t="n">
         <v>6.615000000000007</v>
@@ -34645,7 +34667,7 @@
         <v>45.0699999999999</v>
       </c>
       <c r="K667" t="n">
-        <v>-4.166666666666698</v>
+        <v>-5.660377358490677</v>
       </c>
       <c r="L667" t="n">
         <v>6.628000000000009</v>
@@ -34696,7 +34718,7 @@
         <v>45.0899999999999</v>
       </c>
       <c r="K668" t="n">
-        <v>-4.166666666666698</v>
+        <v>2.04081632653059</v>
       </c>
       <c r="L668" t="n">
         <v>6.623000000000009</v>
@@ -34747,7 +34769,7 @@
         <v>45.0999999999999</v>
       </c>
       <c r="K669" t="n">
-        <v>2.222222222222196</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L669" t="n">
         <v>6.623000000000009</v>
@@ -34798,7 +34820,7 @@
         <v>45.1099999999999</v>
       </c>
       <c r="K670" t="n">
-        <v>-4.65116279069772</v>
+        <v>21.95121951219527</v>
       </c>
       <c r="L670" t="n">
         <v>6.627000000000008</v>
@@ -34849,7 +34871,7 @@
         <v>45.2499999999999</v>
       </c>
       <c r="K671" t="n">
-        <v>12.24489795918381</v>
+        <v>41.81818181818195</v>
       </c>
       <c r="L671" t="n">
         <v>6.650000000000008</v>
@@ -34900,7 +34922,7 @@
         <v>45.2499999999999</v>
       </c>
       <c r="K672" t="n">
-        <v>14.5833333333334</v>
+        <v>52.94117647058836</v>
       </c>
       <c r="L672" t="n">
         <v>6.673000000000007</v>
@@ -34951,7 +34973,7 @@
         <v>45.2599999999999</v>
       </c>
       <c r="K673" t="n">
-        <v>17.02127659574487</v>
+        <v>29.72972972973002</v>
       </c>
       <c r="L673" t="n">
         <v>6.699000000000008</v>
@@ -35002,7 +35024,7 @@
         <v>45.2699999999999</v>
       </c>
       <c r="K674" t="n">
-        <v>15.78947368421075</v>
+        <v>54.83870967742018</v>
       </c>
       <c r="L674" t="n">
         <v>6.709000000000009</v>
@@ -35053,7 +35075,7 @@
         <v>45.3399999999999</v>
       </c>
       <c r="K675" t="n">
-        <v>25.25252525252557</v>
+        <v>67.56756756756803</v>
       </c>
       <c r="L675" t="n">
         <v>6.733000000000009</v>
@@ -35104,7 +35126,7 @@
         <v>45.3699999999999</v>
       </c>
       <c r="K676" t="n">
-        <v>22.77227722772302</v>
+        <v>40.00000000000041</v>
       </c>
       <c r="L676" t="n">
         <v>6.75500000000001</v>
@@ -35155,7 +35177,7 @@
         <v>45.5499999999999</v>
       </c>
       <c r="K677" t="n">
-        <v>36.75213675213712</v>
+        <v>69.56521739130535</v>
       </c>
       <c r="L677" t="n">
         <v>6.785000000000009</v>
@@ -35206,7 +35228,7 @@
         <v>45.5899999999999</v>
       </c>
       <c r="K678" t="n">
-        <v>21.90476190476207</v>
+        <v>59.18367346938837</v>
       </c>
       <c r="L678" t="n">
         <v>6.813000000000008</v>
@@ -35257,7 +35279,7 @@
         <v>45.6099999999999</v>
       </c>
       <c r="K679" t="n">
-        <v>30.69306930693102</v>
+        <v>64.00000000000006</v>
       </c>
       <c r="L679" t="n">
         <v>6.844000000000008</v>
@@ -35308,7 +35330,7 @@
         <v>45.6899999999999</v>
       </c>
       <c r="K680" t="n">
-        <v>26.92307692307715</v>
+        <v>22.72727272727296</v>
       </c>
       <c r="L680" t="n">
         <v>6.868000000000009</v>
@@ -35359,7 +35381,7 @@
         <v>45.7399999999999</v>
       </c>
       <c r="K681" t="n">
-        <v>26.92307692307707</v>
+        <v>10.20408163265313</v>
       </c>
       <c r="L681" t="n">
         <v>6.873000000000009</v>
@@ -35410,7 +35432,7 @@
         <v>45.85999999999989</v>
       </c>
       <c r="K682" t="n">
-        <v>34.48275862068992</v>
+        <v>30.00000000000024</v>
       </c>
       <c r="L682" t="n">
         <v>6.890000000000009</v>
@@ -35461,7 +35483,7 @@
         <v>45.8799999999999</v>
       </c>
       <c r="K683" t="n">
-        <v>36.8421052631581</v>
+        <v>27.86885245901641</v>
       </c>
       <c r="L683" t="n">
         <v>6.906000000000009</v>
@@ -35512,7 +35534,7 @@
         <v>45.9799999999999</v>
       </c>
       <c r="K684" t="n">
-        <v>15.5963302752294</v>
+        <v>0</v>
       </c>
       <c r="L684" t="n">
         <v>6.913000000000008</v>
@@ -35563,7 +35585,7 @@
         <v>45.9799999999999</v>
       </c>
       <c r="K685" t="n">
-        <v>23.52941176470591</v>
+        <v>4.918032786885146</v>
       </c>
       <c r="L685" t="n">
         <v>6.913000000000008</v>
@@ -35614,7 +35636,7 @@
         <v>46.0599999999999</v>
       </c>
       <c r="K686" t="n">
-        <v>30.27522935779827</v>
+        <v>-13.72549019607854</v>
       </c>
       <c r="L686" t="n">
         <v>6.924000000000009</v>
@@ -35665,7 +35687,7 @@
         <v>46.06999999999989</v>
       </c>
       <c r="K687" t="n">
-        <v>24.00000000000019</v>
+        <v>-4.166666666666605</v>
       </c>
       <c r="L687" t="n">
         <v>6.918000000000009</v>
@@ -35716,7 +35738,7 @@
         <v>46.20999999999989</v>
       </c>
       <c r="K688" t="n">
-        <v>10.71428571428582</v>
+        <v>-30.00000000000039</v>
       </c>
       <c r="L688" t="n">
         <v>6.90200000000001</v>
@@ -35767,7 +35789,7 @@
         <v>46.20999999999989</v>
       </c>
       <c r="K689" t="n">
-        <v>11.71171171171178</v>
+        <v>-19.23076923076948</v>
       </c>
       <c r="L689" t="n">
         <v>6.884000000000009</v>
@@ -35818,7 +35840,7 @@
         <v>46.31999999999989</v>
       </c>
       <c r="K690" t="n">
-        <v>20.66115702479349</v>
+        <v>10.34482758620701</v>
       </c>
       <c r="L690" t="n">
         <v>6.885000000000008</v>
@@ -35869,7 +35891,7 @@
         <v>46.4499999999999</v>
       </c>
       <c r="K691" t="n">
-        <v>-1.666666666666637</v>
+        <v>-32.20338983050821</v>
       </c>
       <c r="L691" t="n">
         <v>6.878000000000009</v>
@@ -35920,7 +35942,7 @@
         <v>46.56999999999989</v>
       </c>
       <c r="K692" t="n">
-        <v>7.575757575757655</v>
+        <v>-7.2463768115942</v>
       </c>
       <c r="L692" t="n">
         <v>6.871000000000009</v>
@@ -35971,7 +35993,7 @@
         <v>46.6999999999999</v>
       </c>
       <c r="K693" t="n">
-        <v>-1.388888888888923</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L693" t="n">
         <v>6.853000000000009</v>
@@ -36022,7 +36044,7 @@
         <v>46.7199999999999</v>
       </c>
       <c r="K694" t="n">
-        <v>0.6896551724137771</v>
+        <v>-8.108108108108034</v>
       </c>
       <c r="L694" t="n">
         <v>6.84700000000001</v>
@@ -36073,7 +36095,7 @@
         <v>46.7999999999999</v>
       </c>
       <c r="K695" t="n">
-        <v>1.369863013698661</v>
+        <v>-8.108108108108034</v>
       </c>
       <c r="L695" t="n">
         <v>6.849000000000011</v>
@@ -36124,7 +36146,7 @@
         <v>46.8099999999999</v>
       </c>
       <c r="K696" t="n">
-        <v>4.166666666666647</v>
+        <v>-8.108108108108153</v>
       </c>
       <c r="L696" t="n">
         <v>6.844000000000011</v>
@@ -36175,7 +36197,7 @@
         <v>46.88999999999989</v>
       </c>
       <c r="K697" t="n">
-        <v>-14.92537313432841</v>
+        <v>0</v>
       </c>
       <c r="L697" t="n">
         <v>6.830000000000011</v>
@@ -36226,7 +36248,7 @@
         <v>46.99999999999989</v>
       </c>
       <c r="K698" t="n">
-        <v>-3.546099290780138</v>
+        <v>13.92405063291145</v>
       </c>
       <c r="L698" t="n">
         <v>6.841000000000011</v>
@@ -36277,7 +36299,7 @@
         <v>46.99999999999989</v>
       </c>
       <c r="K699" t="n">
-        <v>-5.035971223021627</v>
+        <v>0</v>
       </c>
       <c r="L699" t="n">
         <v>6.852000000000011</v>
@@ -36328,7 +36350,7 @@
         <v>47.14999999999989</v>
       </c>
       <c r="K700" t="n">
-        <v>-9.58904109589049</v>
+        <v>-2.857142857142941</v>
       </c>
       <c r="L700" t="n">
         <v>6.837000000000012</v>
@@ -36379,7 +36401,7 @@
         <v>47.16999999999989</v>
       </c>
       <c r="K701" t="n">
-        <v>-7.692307692307693</v>
+        <v>-26.66666666666694</v>
       </c>
       <c r="L701" t="n">
         <v>6.833000000000011</v>
@@ -36430,7 +36452,7 @@
         <v>47.16999999999989</v>
       </c>
       <c r="K702" t="n">
-        <v>-17.55725190839697</v>
+        <v>-6.382978723404231</v>
       </c>
       <c r="L702" t="n">
         <v>6.81700000000001</v>
@@ -36481,7 +36503,7 @@
         <v>47.17999999999989</v>
       </c>
       <c r="K703" t="n">
-        <v>-16.92307692307703</v>
+        <v>-13.04347826086986</v>
       </c>
       <c r="L703" t="n">
         <v>6.813000000000011</v>
@@ -36532,7 +36554,7 @@
         <v>47.17999999999989</v>
       </c>
       <c r="K704" t="n">
-        <v>-10.00000000000003</v>
+        <v>-36.84210526315894</v>
       </c>
       <c r="L704" t="n">
         <v>6.807000000000011</v>
@@ -36583,7 +36605,7 @@
         <v>47.17999999999989</v>
       </c>
       <c r="K705" t="n">
-        <v>-10.00000000000003</v>
+        <v>-40.54054054054145</v>
       </c>
       <c r="L705" t="n">
         <v>6.793000000000011</v>
@@ -36634,7 +36656,7 @@
         <v>47.23999999999989</v>
       </c>
       <c r="K706" t="n">
-        <v>-11.86440677966107</v>
+        <v>-2.857142857142843</v>
       </c>
       <c r="L706" t="n">
         <v>6.784000000000011</v>
@@ -36685,7 +36707,7 @@
         <v>47.28999999999989</v>
       </c>
       <c r="K707" t="n">
-        <v>-16.39344262295095</v>
+        <v>-58.620689655174</v>
       </c>
       <c r="L707" t="n">
         <v>6.778000000000011</v>
@@ -36736,7 +36758,7 @@
         <v>47.31999999999989</v>
       </c>
       <c r="K708" t="n">
-        <v>-2.702702702702744</v>
+        <v>-43.75000000000111</v>
       </c>
       <c r="L708" t="n">
         <v>6.764000000000012</v>
@@ -36787,7 +36809,7 @@
         <v>47.31999999999989</v>
       </c>
       <c r="K709" t="n">
-        <v>-2.702702702702744</v>
+        <v>5.882352941176532</v>
       </c>
       <c r="L709" t="n">
         <v>6.750000000000012</v>
@@ -36838,7 +36860,7 @@
         <v>47.32999999999988</v>
       </c>
       <c r="K710" t="n">
-        <v>-12.87128712871298</v>
+        <v>25.00000000000055</v>
       </c>
       <c r="L710" t="n">
         <v>6.752000000000011</v>
@@ -36889,7 +36911,7 @@
         <v>47.32999999999988</v>
       </c>
       <c r="K711" t="n">
-        <v>0</v>
+        <v>25.00000000000055</v>
       </c>
       <c r="L711" t="n">
         <v>6.756000000000012</v>
@@ -36940,7 +36962,7 @@
         <v>47.33999999999988</v>
       </c>
       <c r="K712" t="n">
-        <v>-14.28571428571453</v>
+        <v>37.50000000000055</v>
       </c>
       <c r="L712" t="n">
         <v>6.761000000000013</v>
@@ -36991,7 +37013,7 @@
         <v>47.34999999999988</v>
       </c>
       <c r="K713" t="n">
-        <v>4.615384615384765</v>
+        <v>41.17647058823625</v>
       </c>
       <c r="L713" t="n">
         <v>6.768000000000012</v>
@@ -37042,7 +37064,7 @@
         <v>47.34999999999988</v>
       </c>
       <c r="K714" t="n">
-        <v>1.587301587301601</v>
+        <v>41.17647058823625</v>
       </c>
       <c r="L714" t="n">
         <v>6.775000000000011</v>
@@ -37093,7 +37115,7 @@
         <v>47.34999999999988</v>
       </c>
       <c r="K715" t="n">
-        <v>-12.72727272727317</v>
+        <v>9.09090909090953</v>
       </c>
       <c r="L715" t="n">
         <v>6.782000000000011</v>
@@ -37144,7 +37166,7 @@
         <v>47.43999999999988</v>
       </c>
       <c r="K716" t="n">
-        <v>1.587301587301583</v>
+        <v>100.0000000000006</v>
       </c>
       <c r="L716" t="n">
         <v>6.79200000000001</v>
@@ -37195,7 +37217,7 @@
         <v>47.43999999999988</v>
       </c>
       <c r="K717" t="n">
-        <v>16.36363636363663</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L717" t="n">
         <v>6.807000000000011</v>
@@ -37246,7 +37268,7 @@
         <v>47.47999999999988</v>
       </c>
       <c r="K718" t="n">
-        <v>-12.50000000000037</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L718" t="n">
         <v>6.81500000000001</v>
@@ -37297,7 +37319,7 @@
         <v>47.50999999999988</v>
       </c>
       <c r="K719" t="n">
-        <v>-17.6470588235297</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L719" t="n">
         <v>6.820000000000012</v>
@@ -37348,7 +37370,7 @@
         <v>47.54999999999988</v>
       </c>
       <c r="K720" t="n">
-        <v>5.000000000000222</v>
+        <v>0</v>
       </c>
       <c r="L720" t="n">
         <v>6.820000000000012</v>
@@ -37399,7 +37421,7 @@
         <v>47.60999999999989</v>
       </c>
       <c r="K721" t="n">
-        <v>-4.545454545454674</v>
+        <v>-25.92592592592573</v>
       </c>
       <c r="L721" t="n">
         <v>6.814000000000012</v>
@@ -37450,7 +37472,7 @@
         <v>47.62999999999988</v>
       </c>
       <c r="K722" t="n">
-        <v>-8.695652173913169</v>
+        <v>-35.71428571428545</v>
       </c>
       <c r="L722" t="n">
         <v>6.805000000000011</v>
@@ -37501,7 +37523,7 @@
         <v>47.78999999999988</v>
       </c>
       <c r="K723" t="n">
-        <v>21.31147540983632</v>
+        <v>13.63636363636382</v>
       </c>
       <c r="L723" t="n">
         <v>6.811000000000011</v>
@@ -37552,7 +37574,7 @@
         <v>47.79999999999988</v>
       </c>
       <c r="K724" t="n">
-        <v>22.58064516129062</v>
+        <v>15.55555555555577</v>
       </c>
       <c r="L724" t="n">
         <v>6.818000000000012</v>
@@ -37603,7 +37625,7 @@
         <v>47.80999999999987</v>
       </c>
       <c r="K725" t="n">
-        <v>20.634920634921</v>
+        <v>-8.108108108108148</v>
       </c>
       <c r="L725" t="n">
         <v>6.824000000000012</v>
@@ -37654,7 +37676,7 @@
         <v>47.92999999999987</v>
       </c>
       <c r="K726" t="n">
-        <v>-7.246376811594351</v>
+        <v>-30.61224489795984</v>
       </c>
       <c r="L726" t="n">
         <v>6.809000000000012</v>
@@ -37705,7 +37727,7 @@
         <v>47.93999999999987</v>
       </c>
       <c r="K727" t="n">
-        <v>1.538461538461543</v>
+        <v>-21.73913043478316</v>
       </c>
       <c r="L727" t="n">
         <v>6.795000000000011</v>
@@ -37756,7 +37778,7 @@
         <v>47.94999999999987</v>
       </c>
       <c r="K728" t="n">
-        <v>-1.587301587301601</v>
+        <v>-13.63636363636426</v>
       </c>
       <c r="L728" t="n">
         <v>6.786000000000013</v>
@@ -37807,7 +37829,7 @@
         <v>47.94999999999987</v>
       </c>
       <c r="K729" t="n">
-        <v>-1.587301587301601</v>
+        <v>-5.000000000000311</v>
       </c>
       <c r="L729" t="n">
         <v>6.780000000000013</v>
@@ -37858,7 +37880,7 @@
         <v>48.01999999999987</v>
       </c>
       <c r="K730" t="n">
-        <v>-13.04347826086986</v>
+        <v>-7.317073170731867</v>
       </c>
       <c r="L730" t="n">
         <v>6.771000000000012</v>
@@ -37909,7 +37931,7 @@
         <v>48.02999999999987</v>
       </c>
       <c r="K731" t="n">
-        <v>-14.28571428571474</v>
+        <v>-5.000000000000311</v>
       </c>
       <c r="L731" t="n">
         <v>6.767000000000013</v>
@@ -37960,7 +37982,7 @@
         <v>48.21999999999986</v>
       </c>
       <c r="K732" t="n">
-        <v>9.090909090909292</v>
+        <v>2.325581395348866</v>
       </c>
       <c r="L732" t="n">
         <v>6.784000000000013</v>
@@ -38011,7 +38033,7 @@
         <v>48.28999999999986</v>
       </c>
       <c r="K733" t="n">
-        <v>0</v>
+        <v>-14.2857142857147</v>
       </c>
       <c r="L733" t="n">
         <v>6.778000000000013</v>
@@ -38062,7 +38084,7 @@
         <v>48.36999999999986</v>
       </c>
       <c r="K734" t="n">
-        <v>-7.843137254902108</v>
+        <v>-25.00000000000063</v>
       </c>
       <c r="L734" t="n">
         <v>6.763000000000012</v>
@@ -38113,7 +38135,7 @@
         <v>48.36999999999986</v>
       </c>
       <c r="K735" t="n">
-        <v>-7.843137254902108</v>
+        <v>-4.545454545454747</v>
       </c>
       <c r="L735" t="n">
         <v>6.749000000000012</v>
@@ -38164,7 +38186,7 @@
         <v>48.37999999999986</v>
       </c>
       <c r="K736" t="n">
-        <v>-17.02127659574503</v>
+        <v>-4.545454545454546</v>
       </c>
       <c r="L736" t="n">
         <v>6.748000000000014</v>
@@ -38215,7 +38237,7 @@
         <v>48.45999999999986</v>
       </c>
       <c r="K737" t="n">
-        <v>-7.843137254902162</v>
+        <v>9.80392156862759</v>
       </c>
       <c r="L737" t="n">
         <v>6.754000000000014</v>
@@ -38266,7 +38288,7 @@
         <v>48.55999999999986</v>
       </c>
       <c r="K738" t="n">
-        <v>-12.96296296296321</v>
+        <v>-8.196721311475484</v>
       </c>
       <c r="L738" t="n">
         <v>6.749000000000012</v>
@@ -38317,7 +38339,7 @@
         <v>48.58999999999986</v>
       </c>
       <c r="K739" t="n">
-        <v>-7.407407407407572</v>
+        <v>8.771929824561479</v>
       </c>
       <c r="L739" t="n">
         <v>6.747000000000011</v>
@@ -38368,7 +38390,7 @@
         <v>48.67999999999986</v>
       </c>
       <c r="K740" t="n">
-        <v>4.424778761062004</v>
+        <v>23.07692307692318</v>
       </c>
       <c r="L740" t="n">
         <v>6.761000000000012</v>
@@ -38419,7 +38441,7 @@
         <v>48.77999999999987</v>
       </c>
       <c r="K741" t="n">
-        <v>0.8547008547009268</v>
+        <v>-24.99999999999984</v>
       </c>
       <c r="L741" t="n">
         <v>6.766000000000011</v>
@@ -38470,7 +38492,7 @@
         <v>48.80999999999987</v>
       </c>
       <c r="K742" t="n">
-        <v>0</v>
+        <v>-19.23076923076905</v>
       </c>
       <c r="L742" t="n">
         <v>6.749000000000011</v>
@@ -38521,7 +38543,7 @@
         <v>48.80999999999987</v>
       </c>
       <c r="K743" t="n">
-        <v>-15.68627450980411</v>
+        <v>-4.545454545454398</v>
       </c>
       <c r="L743" t="n">
         <v>6.739000000000011</v>
@@ -38572,7 +38594,7 @@
         <v>48.80999999999987</v>
       </c>
       <c r="K744" t="n">
-        <v>-16.83168316831698</v>
+        <v>-4.545454545454398</v>
       </c>
       <c r="L744" t="n">
         <v>6.737000000000012</v>
@@ -38623,7 +38645,7 @@
         <v>48.85999999999986</v>
       </c>
       <c r="K745" t="n">
-        <v>-20.00000000000019</v>
+        <v>-16.66666666666654</v>
       </c>
       <c r="L745" t="n">
         <v>6.730000000000013</v>
@@ -38674,7 +38696,7 @@
         <v>48.85999999999986</v>
       </c>
       <c r="K746" t="n">
-        <v>-9.677419354838772</v>
+        <v>-39.99999999999925</v>
       </c>
       <c r="L746" t="n">
         <v>6.722000000000013</v>
@@ -38725,7 +38747,7 @@
         <v>48.87999999999987</v>
       </c>
       <c r="K747" t="n">
-        <v>-12.76595744680855</v>
+        <v>-24.99999999999945</v>
       </c>
       <c r="L747" t="n">
         <v>6.704000000000012</v>
@@ -38776,7 +38798,7 @@
         <v>48.96999999999987</v>
       </c>
       <c r="K748" t="n">
-        <v>-3.921568627450972</v>
+        <v>-5.26315789473683</v>
       </c>
       <c r="L748" t="n">
         <v>6.705000000000013</v>
@@ -38827,7 +38849,7 @@
         <v>48.97999999999987</v>
       </c>
       <c r="K749" t="n">
-        <v>-4.854368932038812</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L749" t="n">
         <v>6.702000000000012</v>
@@ -38878,7 +38900,7 @@
         <v>48.97999999999987</v>
       </c>
       <c r="K750" t="n">
-        <v>2.083333333333287</v>
+        <v>-10.00000000000009</v>
       </c>
       <c r="L750" t="n">
         <v>6.690000000000012</v>
@@ -38929,7 +38951,7 @@
         <v>48.97999999999987</v>
       </c>
       <c r="K751" t="n">
-        <v>3.157894736842122</v>
+        <v>5.882352941176286</v>
       </c>
       <c r="L751" t="n">
         <v>6.688000000000011</v>
@@ -38980,7 +39002,7 @@
         <v>48.98999999999987</v>
       </c>
       <c r="K752" t="n">
-        <v>-22.07792207792198</v>
+        <v>0</v>
       </c>
       <c r="L752" t="n">
         <v>6.688000000000011</v>
@@ -39031,7 +39053,7 @@
         <v>48.99999999999986</v>
       </c>
       <c r="K753" t="n">
-        <v>-15.49295774647877</v>
+        <v>-5.263157894736794</v>
       </c>
       <c r="L753" t="n">
         <v>6.68700000000001</v>
@@ -39082,7 +39104,7 @@
         <v>49.01999999999987</v>
       </c>
       <c r="K754" t="n">
-        <v>-1.538461538461492</v>
+        <v>37.49999999999889</v>
       </c>
       <c r="L754" t="n">
         <v>6.688000000000009</v>
@@ -39137,7 +39159,7 @@
         <v>49.04999999999987</v>
       </c>
       <c r="K755" t="n">
-        <v>2.941176470588274</v>
+        <v>47.3684210526303</v>
       </c>
       <c r="L755" t="n">
         <v>6.697000000000008</v>
@@ -39196,7 +39218,7 @@
         <v>49.05999999999987</v>
       </c>
       <c r="K756" t="n">
-        <v>2.941176470588143</v>
+        <v>66.66666666666683</v>
       </c>
       <c r="L756" t="n">
         <v>6.707000000000008</v>
@@ -39255,7 +39277,7 @@
         <v>49.06999999999987</v>
       </c>
       <c r="K757" t="n">
-        <v>-8.196721311475292</v>
+        <v>40.00000000000231</v>
       </c>
       <c r="L757" t="n">
         <v>6.720000000000009</v>
@@ -39314,7 +39336,7 @@
         <v>49.06999999999987</v>
       </c>
       <c r="K758" t="n">
-        <v>9.803921568627318</v>
+        <v>55.55555555555763</v>
       </c>
       <c r="L758" t="n">
         <v>6.724000000000009</v>
@@ -39373,7 +39395,7 @@
         <v>49.08999999999986</v>
       </c>
       <c r="K759" t="n">
-        <v>0</v>
+        <v>27.2727272727294</v>
       </c>
       <c r="L759" t="n">
         <v>6.727000000000009</v>
@@ -39432,7 +39454,7 @@
         <v>49.08999999999986</v>
       </c>
       <c r="K760" t="n">
-        <v>-21.95121951219527</v>
+        <v>27.2727272727294</v>
       </c>
       <c r="L760" t="n">
         <v>6.730000000000009</v>
@@ -39491,7 +39513,7 @@
         <v>49.11999999999986</v>
       </c>
       <c r="K761" t="n">
-        <v>-5.88235294117667</v>
+        <v>7.692307692307796</v>
       </c>
       <c r="L761" t="n">
         <v>6.730000000000009</v>
@@ -39550,7 +39572,7 @@
         <v>49.11999999999986</v>
       </c>
       <c r="K762" t="n">
-        <v>3.225806451612884</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L762" t="n">
         <v>6.731000000000009</v>
@@ -39609,7 +39631,7 @@
         <v>49.14999999999986</v>
       </c>
       <c r="K763" t="n">
-        <v>11.76470588235308</v>
+        <v>23.07692307692407</v>
       </c>
       <c r="L763" t="n">
         <v>6.736000000000009</v>
@@ -39668,7 +39690,7 @@
         <v>49.14999999999986</v>
       </c>
       <c r="K764" t="n">
-        <v>11.76470588235308</v>
+        <v>0</v>
       </c>
       <c r="L764" t="n">
         <v>6.739000000000009</v>
@@ -39723,7 +39745,7 @@
         <v>49.16999999999986</v>
       </c>
       <c r="K765" t="n">
-        <v>35.48387096774231</v>
+        <v>9.09090909090953</v>
       </c>
       <c r="L765" t="n">
         <v>6.741000000000009</v>
@@ -39782,7 +39804,7 @@
         <v>49.22999999999986</v>
       </c>
       <c r="K766" t="n">
-        <v>45.94594594594624</v>
+        <v>37.50000000000111</v>
       </c>
       <c r="L766" t="n">
         <v>6.74800000000001</v>
@@ -39841,7 +39863,7 @@
         <v>49.25999999999986</v>
       </c>
       <c r="K767" t="n">
-        <v>57.89473684210589</v>
+        <v>47.36842105263207</v>
       </c>
       <c r="L767" t="n">
         <v>6.757000000000009</v>
@@ -39898,7 +39920,7 @@
         <v>49.32999999999986</v>
       </c>
       <c r="K768" t="n">
-        <v>16.66666666666716</v>
+        <v>16.66666666666654</v>
       </c>
       <c r="L768" t="n">
         <v>6.759000000000009</v>
@@ -39957,7 +39979,7 @@
         <v>49.37999999999986</v>
       </c>
       <c r="K769" t="n">
-        <v>30.00000000000066</v>
+        <v>31.03448275862073</v>
       </c>
       <c r="L769" t="n">
         <v>6.76800000000001</v>
@@ -40014,7 +40036,7 @@
         <v>49.37999999999986</v>
       </c>
       <c r="K770" t="n">
-        <v>30.00000000000066</v>
+        <v>46.15384615384655</v>
       </c>
       <c r="L770" t="n">
         <v>6.77700000000001</v>
@@ -40071,7 +40093,7 @@
         <v>49.46999999999986</v>
       </c>
       <c r="K771" t="n">
-        <v>6.12244897959204</v>
+        <v>8.571428571428781</v>
       </c>
       <c r="L771" t="n">
         <v>6.78000000000001</v>
@@ -40128,7 +40150,7 @@
         <v>49.46999999999986</v>
       </c>
       <c r="K772" t="n">
-        <v>8.333333333333519</v>
+        <v>0</v>
       </c>
       <c r="L772" t="n">
         <v>6.78300000000001</v>
@@ -40185,7 +40207,7 @@
         <v>49.55999999999986</v>
       </c>
       <c r="K773" t="n">
-        <v>25.00000000000016</v>
+        <v>21.95121951219527</v>
       </c>
       <c r="L773" t="n">
         <v>6.79200000000001</v>
@@ -40242,7 +40264,7 @@
         <v>49.55999999999986</v>
       </c>
       <c r="K774" t="n">
-        <v>22.22222222222257</v>
+        <v>17.948717948718</v>
       </c>
       <c r="L774" t="n">
         <v>6.801000000000011</v>
@@ -40293,7 +40315,7 @@
         <v>49.55999999999986</v>
       </c>
       <c r="K775" t="n">
-        <v>17.6470588235297</v>
+        <v>3.030303030302981</v>
       </c>
       <c r="L775" t="n">
         <v>6.80800000000001</v>
@@ -40344,7 +40366,7 @@
         <v>49.57999999999986</v>
       </c>
       <c r="K776" t="n">
-        <v>19.23076923076957</v>
+        <v>0</v>
       </c>
       <c r="L776" t="n">
         <v>6.81100000000001</v>
@@ -40395,7 +40417,7 @@
         <v>49.57999999999986</v>
       </c>
       <c r="K777" t="n">
-        <v>17.6470588235297</v>
+        <v>28.00000000000055</v>
       </c>
       <c r="L777" t="n">
         <v>6.81100000000001</v>
@@ -40446,7 +40468,7 @@
         <v>49.59999999999986</v>
       </c>
       <c r="K778" t="n">
-        <v>20.75471698113237</v>
+        <v>18.18181818181829</v>
       </c>
       <c r="L778" t="n">
         <v>6.82000000000001</v>
@@ -40497,7 +40519,7 @@
         <v>49.59999999999986</v>
       </c>
       <c r="K779" t="n">
-        <v>25.49019607843145</v>
+        <v>18.18181818181829</v>
       </c>
       <c r="L779" t="n">
         <v>6.824000000000011</v>
@@ -40548,7 +40570,7 @@
         <v>49.63999999999986</v>
       </c>
       <c r="K780" t="n">
-        <v>16.36363636363642</v>
+        <v>52.94117647058763</v>
       </c>
       <c r="L780" t="n">
         <v>6.824000000000011</v>
@@ -40599,7 +40621,7 @@
         <v>49.71999999999986</v>
       </c>
       <c r="K781" t="n">
-        <v>6.666666666666736</v>
+        <v>3.999999999999915</v>
       </c>
       <c r="L781" t="n">
         <v>6.825000000000012</v>
@@ -40650,7 +40672,7 @@
         <v>49.76999999999985</v>
       </c>
       <c r="K782" t="n">
-        <v>-1.538461538461526</v>
+        <v>-61.9047619047637</v>
       </c>
       <c r="L782" t="n">
         <v>6.821000000000012</v>
@@ -40701,7 +40723,7 @@
         <v>49.78999999999985</v>
       </c>
       <c r="K783" t="n">
-        <v>-3.125000000000139</v>
+        <v>-47.82608695652401</v>
       </c>
       <c r="L783" t="n">
         <v>6.810000000000012</v>

--- a/BackTest/2019-11-12 BackTest FZZ.xlsx
+++ b/BackTest/2019-11-12 BackTest FZZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,1959 +517,1755 @@
         <v>-2907472.493201968</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>430200.8496</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2477271.643601968</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12831.8568</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2490103.500401969</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F7" t="n">
+        <v>210136.5132</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2279966.987201969</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F8" t="n">
+        <v>174445.4819</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-2105521.505301969</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F9" t="n">
+        <v>80661.57393890577</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-2105521.505301969</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>516732.2071</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2622253.712401968</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>727509.0845</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-3349762.796901968</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F12" t="n">
+        <v>500150.4148</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-3849913.211701968</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="F13" t="n">
+        <v>230.0198</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-3850143.231501968</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4449</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-3845694.231501968</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="F15" t="n">
+        <v>860545.4000611621</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-4706239.63156313</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="F16" t="n">
+        <v>87415.9387</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-4706239.63156313</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="F17" t="n">
+        <v>160</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-4706399.63156313</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12915.0578</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-4693484.57376313</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>6.49</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="C19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F19" t="n">
+        <v>381870.3652</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-5075354.93896313</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F20" t="n">
+        <v>88</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-5075442.93896313</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="F21" t="n">
+        <v>156570.7029</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-5232013.64186313</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="F22" t="n">
+        <v>373277.7022</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-4858735.93966313</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>48753.1613</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-4809982.77836313</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F24" t="n">
+        <v>715.2985</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-4809982.77836313</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F25" t="n">
+        <v>84832.80530000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-4809982.77836313</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F26" t="n">
+        <v>187310.8766</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-4622671.90176313</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F27" t="n">
+        <v>256575.7475</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-4622671.90176313</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F28" t="n">
+        <v>294009.4723</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-4328662.429463129</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1568.8698</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-4330231.29926313</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2280470.611</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2049760.68826313</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="F31" t="n">
+        <v>19977.8273</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-2049760.68826313</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F32" t="n">
+        <v>74211.3333</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-2123972.02156313</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F33" t="n">
+        <v>81851.7408</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-2123972.02156313</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="F34" t="n">
+        <v>918106.0653</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-3042078.08686313</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F35" t="n">
+        <v>638116.0643</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-3680194.15116313</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>160</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-3680354.15116313</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F37" t="n">
+        <v>308</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-3680046.15116313</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F38" t="n">
+        <v>45105.3644</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-3680046.15116313</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F39" t="n">
+        <v>76</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-3680046.15116313</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F40" t="n">
+        <v>362428.9832</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-4042475.13436313</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>47684.203</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-3994790.93136313</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="F42" t="n">
+        <v>404877.1056</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-4399668.03696313</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>241850.4302</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-4157817.606763131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F44" t="n">
+        <v>82534.91620000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-4240352.522963131</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>42546.7573</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-4197805.765663131</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>88</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-4197717.765663131</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="E47" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4016.5561</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-4201734.321763131</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="F48" t="n">
+        <v>153</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-4201581.321763131</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="F49" t="n">
+        <v>90177.8256</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-4201581.321763131</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5281.5506</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-4206862.872363131</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1082234.8524</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-5289097.724763131</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F52" t="n">
+        <v>149545.3463</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-5289097.724763131</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F53" t="n">
+        <v>77</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-5289020.724763131</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1204.9668</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-5290225.69156313</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-5290225.69156313</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E56" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>97393.63499999999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-5290225.69156313</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="F5" t="n">
-        <v>430200.8496</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-2477271.643601968</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12831.8568</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-2490103.500401969</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="F7" t="n">
-        <v>210136.5132</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-2279966.987201969</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="F8" t="n">
-        <v>174445.4819</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-2105521.505301969</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="F9" t="n">
-        <v>80661.57393890577</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-2105521.505301969</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>516732.2071</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-2622253.712401968</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>727509.0845</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-3349762.796901968</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="F12" t="n">
-        <v>500150.4148</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-3849913.211701968</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="F13" t="n">
-        <v>230.0198</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-3850143.231501968</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4449</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-3845694.231501968</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="F15" t="n">
-        <v>860545.4000611621</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-4706239.63156313</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="F16" t="n">
-        <v>87415.9387</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-4706239.63156313</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="F17" t="n">
-        <v>160</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-4706399.63156313</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12915.0578</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-4693484.57376313</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="F19" t="n">
-        <v>381870.3652</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-5075354.93896313</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="F20" t="n">
-        <v>88</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-5075442.93896313</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="F21" t="n">
-        <v>156570.7029</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-5232013.64186313</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="F22" t="n">
-        <v>373277.7022</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-4858735.93966313</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="D23" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>48753.1613</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-4809982.77836313</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="D24" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="E24" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="F24" t="n">
-        <v>715.2985</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-4809982.77836313</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="F25" t="n">
-        <v>84832.80530000001</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-4809982.77836313</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="C26" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D26" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="F26" t="n">
-        <v>187310.8766</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-4622671.90176313</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="C27" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D27" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="E27" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="F27" t="n">
-        <v>256575.7475</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-4622671.90176313</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="C28" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="F28" t="n">
-        <v>294009.4723</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-4328662.429463129</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="C29" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="D29" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1568.8698</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-4330231.29926313</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="C30" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="D30" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2280470.611</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-2049760.68826313</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="C31" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="D31" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="F31" t="n">
-        <v>19977.8273</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-2049760.68826313</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="C32" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="F32" t="n">
-        <v>74211.3333</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-2123972.02156313</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C33" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="F33" t="n">
-        <v>81851.7408</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-2123972.02156313</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="D34" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="E34" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="F34" t="n">
-        <v>918106.0653</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-3042078.08686313</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="C35" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="F35" t="n">
-        <v>638116.0643</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-3680194.15116313</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="C36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>160</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-3680354.15116313</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="F37" t="n">
-        <v>308</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-3680046.15116313</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="D38" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="F38" t="n">
-        <v>45105.3644</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-3680046.15116313</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="D39" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="E39" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="F39" t="n">
-        <v>76</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-3680046.15116313</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="C40" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="D40" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="F40" t="n">
-        <v>362428.9832</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-4042475.13436313</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="C41" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="D41" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>47684.203</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-3994790.93136313</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="D42" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="E42" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="F42" t="n">
-        <v>404877.1056</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-4399668.03696313</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C43" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="D43" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="E43" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>241850.4302</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-4157817.606763131</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C44" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="D44" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="E44" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F44" t="n">
-        <v>82534.91620000001</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-4240352.522963131</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="C45" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="D45" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="E45" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F45" t="n">
-        <v>42546.7573</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-4197805.765663131</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C46" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D46" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E46" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F46" t="n">
-        <v>88</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-4197717.765663131</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="D47" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="E47" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4016.5561</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-4201734.321763131</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="C48" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="D48" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="F48" t="n">
-        <v>153</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-4201581.321763131</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="C49" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="D49" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="F49" t="n">
-        <v>90177.8256</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-4201581.321763131</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="C50" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="D50" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="E50" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="F50" t="n">
-        <v>5281.5506</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-4206862.872363131</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="C51" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D51" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="E51" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1082234.8524</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-5289097.724763131</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="C52" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D52" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E52" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="F52" t="n">
-        <v>149545.3463</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-5289097.724763131</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="C53" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="D53" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="E53" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="F53" t="n">
-        <v>77</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-5289020.724763131</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D54" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1204.9668</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-5290225.69156313</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C55" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D55" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F55" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-5290225.69156313</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="C56" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D56" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="E56" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F56" t="n">
-        <v>97393.63499999999</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-5290225.69156313</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2498,12 +2294,14 @@
         <v>-5290067.69156313</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>6.3</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2537,12 +2335,14 @@
         <v>-5296133.40046313</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>6.32</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2576,12 +2376,14 @@
         <v>-5329376.00416313</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>6.31</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2615,12 +2417,14 @@
         <v>-5329194.937063131</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>6.3</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,12 +2458,14 @@
         <v>-5329194.937063131</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>6.31</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2693,12 +2499,14 @@
         <v>-5316900.978563131</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>6.31</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2732,12 +2540,14 @@
         <v>-5316900.978563131</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>6.49</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2771,12 +2581,14 @@
         <v>-5316900.978563131</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>6.49</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,12 +2622,14 @@
         <v>-5316900.978563131</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>6.49</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2849,12 +2663,14 @@
         <v>-5316900.978563131</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>6.49</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,12 +2704,14 @@
         <v>-5316900.978563131</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>6.49</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2927,12 +2745,14 @@
         <v>-5316900.978563131</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>6.49</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,12 +2786,14 @@
         <v>-5346891.978563131</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>6.49</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3005,12 +2827,14 @@
         <v>-5346813.978563131</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>6.26</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,12 +2868,14 @@
         <v>-5347113.978563131</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>6.48</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3083,12 +2909,14 @@
         <v>-5347035.978563131</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>6.26</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3122,12 +2950,14 @@
         <v>-5350337.946663131</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>6.46</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,12 +2991,14 @@
         <v>-3068285.187763131</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>6.4</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,12 +3032,12 @@
         <v>-702627.5669631311</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3242,7 +3074,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,7 +3113,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,7 +3152,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3353,7 +3191,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,7 +3230,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,7 +3269,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,7 +3308,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3501,7 +3347,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,7 +3386,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3575,7 +3425,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3612,7 +3464,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3649,7 +3503,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,7 +3542,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3723,7 +3581,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3760,7 +3620,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,7 +3659,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,7 +3698,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3871,7 +3737,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3908,7 +3776,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3945,7 +3815,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,7 +3854,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4019,7 +3893,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4056,7 +3932,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4093,7 +3971,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4130,7 +4010,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4167,7 +4049,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4204,7 +4088,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,7 +4127,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4275,10 +4163,12 @@
         <v>9143790.190781215</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,10 +4202,12 @@
         <v>9825541.744781215</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4352,7 +4244,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4389,7 +4283,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4426,7 +4322,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4463,7 +4361,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4500,7 +4400,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4534,19 +4436,23 @@
         <v>7954857.124637566</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>1.198149606299213</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.06984126984127</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4571,15 +4477,11 @@
         <v>7954857.124637566</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4608,15 +4510,11 @@
         <v>7741912.630337565</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4645,15 +4543,11 @@
         <v>6552526.080137566</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4682,15 +4576,11 @@
         <v>6552526.080137566</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4719,15 +4609,11 @@
         <v>7120065.360937566</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4756,15 +4642,11 @@
         <v>5650875.766737565</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4793,15 +4675,11 @@
         <v>5453094.669137565</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4830,15 +4708,11 @@
         <v>6039475.173806597</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4867,15 +4741,11 @@
         <v>4366655.510206597</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4904,15 +4774,11 @@
         <v>5455102.598606597</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4941,15 +4807,11 @@
         <v>8574476.368406598</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4978,15 +4840,11 @@
         <v>8295647.599106598</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5015,15 +4873,11 @@
         <v>7945650.036406598</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5052,15 +4906,11 @@
         <v>8090687.796606598</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5089,15 +4939,11 @@
         <v>9090787.671877755</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5126,15 +4972,11 @@
         <v>9090556.046377756</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5163,15 +5005,11 @@
         <v>9336195.524477756</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5200,15 +5038,11 @@
         <v>8572227.822477756</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5237,15 +5071,11 @@
         <v>8906408.5896066</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5274,15 +5104,11 @@
         <v>9062082.859018713</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5311,15 +5137,11 @@
         <v>9062082.859018713</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5348,15 +5170,11 @@
         <v>7337366.852718713</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5385,15 +5203,11 @@
         <v>8037934.338518713</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5422,15 +5236,11 @@
         <v>8252457.506618713</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5459,15 +5269,11 @@
         <v>8252457.506618713</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5306,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5537,11 +5339,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5574,11 +5372,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5611,11 +5405,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5644,15 +5434,11 @@
         <v>6186783.929322087</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5681,15 +5467,11 @@
         <v>6628931.502022088</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5718,15 +5500,11 @@
         <v>6679655.026622088</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5755,15 +5533,11 @@
         <v>4460989.138822088</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5792,15 +5566,11 @@
         <v>3960594.638822088</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5829,15 +5599,11 @@
         <v>3990756.138822088</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5866,15 +5632,11 @@
         <v>3618876.411222088</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5903,15 +5665,11 @@
         <v>3969523.793122088</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5940,15 +5698,11 @@
         <v>3953668.616022088</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5977,15 +5731,11 @@
         <v>4059186.653222088</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6014,15 +5764,11 @@
         <v>4058246.653222088</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6055,11 +5801,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6088,15 +5830,11 @@
         <v>4045226.641822088</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6129,11 +5867,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6166,11 +5900,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6203,11 +5933,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6240,11 +5966,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6277,11 +5999,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6314,11 +6032,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6351,11 +6065,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6388,11 +6098,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6425,11 +6131,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6462,11 +6164,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6499,11 +6197,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6536,11 +6230,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6573,11 +6263,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +6296,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6647,11 +6329,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6684,11 +6362,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6395,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6758,11 +6428,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6795,11 +6461,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6832,11 +6494,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6869,11 +6527,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6906,11 +6560,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6943,11 +6593,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6980,11 +6626,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7017,11 +6659,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7054,11 +6692,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7091,11 +6725,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7128,11 +6758,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7165,11 +6791,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7202,11 +6824,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7239,11 +6857,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7276,11 +6890,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7313,11 +6923,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7350,11 +6956,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7387,11 +6989,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7424,11 +7022,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7461,11 +7055,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7498,11 +7088,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7535,11 +7121,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7572,11 +7154,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7609,11 +7187,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7646,11 +7220,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7683,11 +7253,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7720,11 +7286,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7757,11 +7319,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7794,11 +7352,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7831,11 +7385,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7868,11 +7418,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7905,11 +7451,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +7484,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7979,11 +7517,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8016,11 +7550,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8053,11 +7583,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8090,11 +7616,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8127,11 +7649,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8164,11 +7682,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8201,11 +7715,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8238,11 +7748,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8275,11 +7781,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8312,11 +7814,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8349,11 +7847,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8386,11 +7880,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8423,11 +7913,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8460,11 +7946,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8497,11 +7979,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8534,11 +8012,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8571,11 +8045,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8608,11 +8078,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8645,11 +8111,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8682,11 +8144,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8719,11 +8177,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8756,11 +8210,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8793,11 +8243,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8830,11 +8276,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8867,11 +8309,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8904,11 +8342,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8941,11 +8375,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8978,11 +8408,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9015,11 +8441,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9052,11 +8474,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9089,11 +8507,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9126,11 +8540,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +8573,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9200,11 +8606,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9237,11 +8639,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9274,11 +8672,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9311,11 +8705,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9348,11 +8738,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9385,11 +8771,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9422,11 +8804,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9459,11 +8837,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9496,11 +8870,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9533,11 +8903,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9570,11 +8936,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9607,11 +8969,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9644,11 +9002,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9681,11 +9035,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9718,11 +9068,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9755,11 +9101,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9792,11 +9134,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9829,11 +9167,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9866,11 +9200,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9903,11 +9233,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9940,11 +9266,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9977,11 +9299,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10014,11 +9332,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10051,11 +9365,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10088,11 +9398,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10121,17 +9427,11 @@
         <v>3806502.340002177</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>6.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10164,11 +9464,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10201,11 +9497,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10238,11 +9530,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10275,11 +9563,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10312,11 +9596,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10349,11 +9629,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10386,11 +9662,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10423,11 +9695,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10460,11 +9728,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10497,11 +9761,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10534,11 +9794,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10571,11 +9827,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10608,11 +9860,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10645,11 +9893,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10682,11 +9926,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10719,11 +9959,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10756,11 +9992,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10793,11 +10025,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10830,11 +10058,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10867,11 +10091,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10904,11 +10124,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10941,11 +10157,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +10190,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11015,11 +10223,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11052,11 +10256,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11089,11 +10289,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11126,11 +10322,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11163,11 +10355,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11200,11 +10388,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11237,11 +10421,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11274,11 +10454,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11311,11 +10487,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11348,11 +10520,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11385,11 +10553,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11422,11 +10586,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11459,11 +10619,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11496,11 +10652,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11533,11 +10685,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11570,11 +10718,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11607,11 +10751,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11644,11 +10784,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11681,11 +10817,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11718,11 +10850,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11755,11 +10883,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11792,11 +10916,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11829,11 +10949,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11866,11 +10982,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11903,11 +11015,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11940,11 +11048,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11977,11 +11081,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12014,11 +11114,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12051,11 +11147,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12088,11 +11180,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12125,11 +11213,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12162,11 +11246,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +11279,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12236,11 +11312,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12273,11 +11345,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12310,11 +11378,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12347,11 +11411,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12384,11 +11444,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12421,11 +11477,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12458,11 +11510,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12495,11 +11543,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12532,11 +11576,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12569,11 +11609,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12606,11 +11642,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12643,11 +11675,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12680,11 +11708,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12717,11 +11741,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12754,11 +11774,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12791,11 +11807,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12828,11 +11840,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12865,11 +11873,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12902,11 +11906,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12939,11 +11939,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12976,11 +11972,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13013,11 +12005,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13050,11 +12038,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13087,11 +12071,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13124,11 +12104,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13161,11 +12137,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13198,11 +12170,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13235,11 +12203,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13272,11 +12236,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13309,11 +12269,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13346,11 +12302,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13383,11 +12335,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +12368,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13457,11 +12401,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13494,11 +12434,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13531,11 +12467,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13568,11 +12500,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13605,11 +12533,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13642,11 +12566,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13679,11 +12599,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13716,11 +12632,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13753,11 +12665,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13790,11 +12698,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13827,11 +12731,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13860,16 +12760,14 @@
         <v>6102866.176743991</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
       <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
@@ -13895,7 +12793,7 @@
         <v>6102866.176743991</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14126,7 +13024,7 @@
         <v>5811165.599043991</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14159,7 +13057,7 @@
         <v>5855974.548143991</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14192,7 +13090,7 @@
         <v>5758035.972443991</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14225,7 +13123,7 @@
         <v>5897176.504043992</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14258,7 +13156,7 @@
         <v>6087229.387743992</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14291,7 +13189,7 @@
         <v>6087229.387743992</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14324,7 +13222,7 @@
         <v>6087229.387743992</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14390,7 +13288,7 @@
         <v>6068765.578843992</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14423,7 +13321,7 @@
         <v>6071787.273343992</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14456,7 +13354,7 @@
         <v>6071619.286043992</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14489,7 +13387,7 @@
         <v>6706382.317643993</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14522,7 +13420,7 @@
         <v>6170384.603243993</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14555,7 +13453,7 @@
         <v>6170085.603243993</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14588,7 +13486,7 @@
         <v>6170458.603243993</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14621,7 +13519,7 @@
         <v>6168376.603243993</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14654,7 +13552,7 @@
         <v>6167672.047943993</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14687,7 +13585,7 @@
         <v>6166296.047943993</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14720,7 +13618,7 @@
         <v>6166296.047943993</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -18152,7 +17050,7 @@
         <v>4350116.219343995</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18185,7 +17083,7 @@
         <v>4349817.383643995</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18284,7 +17182,7 @@
         <v>4304961.383643995</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18317,7 +17215,7 @@
         <v>4304961.383643995</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18350,7 +17248,7 @@
         <v>4304961.383643995</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18383,7 +17281,7 @@
         <v>4196502.400643995</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18416,7 +17314,7 @@
         <v>4376572.400643995</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18449,7 +17347,7 @@
         <v>4376402.400643995</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18482,7 +17380,7 @@
         <v>4376402.400643995</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18515,7 +17413,7 @@
         <v>4376402.400643995</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18548,7 +17446,7 @@
         <v>4520197.000543995</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18581,7 +17479,7 @@
         <v>4520197.000543995</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18614,7 +17512,7 @@
         <v>4473127.000543995</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18647,7 +17545,7 @@
         <v>4338894.714343995</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18680,7 +17578,7 @@
         <v>4338823.714343995</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18713,7 +17611,7 @@
         <v>4338686.714343995</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18746,7 +17644,7 @@
         <v>4335817.714343995</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18779,7 +17677,7 @@
         <v>4112677.089243995</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18812,7 +17710,7 @@
         <v>4112747.089243995</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -29317,6 +28215,6 @@
       <c r="M831" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest FZZ.xlsx
+++ b/BackTest/2019-11-12 BackTest FZZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2134,14 +2134,10 @@
         <v>-5289020.724763131</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="J53" t="n">
-        <v>6.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2171,19 +2167,11 @@
         <v>-5290225.69156313</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2218,13 +2206,9 @@
         <v>6.3</v>
       </c>
       <c r="J55" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>6.3</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2259,7 +2243,7 @@
         <v>6.3</v>
       </c>
       <c r="J56" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2300,7 +2284,7 @@
         <v>6.3</v>
       </c>
       <c r="J57" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2341,7 +2325,7 @@
         <v>6.32</v>
       </c>
       <c r="J58" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2382,7 +2366,7 @@
         <v>6.31</v>
       </c>
       <c r="J59" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2423,7 +2407,7 @@
         <v>6.3</v>
       </c>
       <c r="J60" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2464,7 +2448,7 @@
         <v>6.31</v>
       </c>
       <c r="J61" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2505,7 +2489,7 @@
         <v>6.31</v>
       </c>
       <c r="J62" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2546,7 +2530,7 @@
         <v>6.49</v>
       </c>
       <c r="J63" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2587,7 +2571,7 @@
         <v>6.49</v>
       </c>
       <c r="J64" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2628,7 +2612,7 @@
         <v>6.49</v>
       </c>
       <c r="J65" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2669,7 +2653,7 @@
         <v>6.49</v>
       </c>
       <c r="J66" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2710,7 +2694,7 @@
         <v>6.49</v>
       </c>
       <c r="J67" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2751,7 +2735,7 @@
         <v>6.49</v>
       </c>
       <c r="J68" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2792,7 +2776,7 @@
         <v>6.49</v>
       </c>
       <c r="J69" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2833,7 +2817,7 @@
         <v>6.26</v>
       </c>
       <c r="J70" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2874,7 +2858,7 @@
         <v>6.48</v>
       </c>
       <c r="J71" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2915,7 +2899,7 @@
         <v>6.26</v>
       </c>
       <c r="J72" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2956,7 +2940,7 @@
         <v>6.46</v>
       </c>
       <c r="J73" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2997,7 +2981,7 @@
         <v>6.4</v>
       </c>
       <c r="J74" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3036,7 +3020,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3075,7 +3059,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3114,7 +3098,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3153,7 +3137,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3192,7 +3176,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3231,7 +3215,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3270,7 +3254,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3309,7 +3293,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3348,7 +3332,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3387,7 +3371,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3422,21 +3406,23 @@
         <v>7118951.053305401</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>1.153730158730159</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.06984126984127</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3464,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3503,14 +3483,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3539,17 +3513,11 @@
         <v>5682350.5393054</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3578,17 +3546,11 @@
         <v>4279306.9821054</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3620,14 +3582,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3659,14 +3615,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3698,14 +3648,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3737,14 +3681,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3776,14 +3714,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3815,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3854,14 +3780,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3893,14 +3813,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3932,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3971,14 +3879,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4010,14 +3912,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4049,14 +3945,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4088,14 +3978,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4127,14 +4011,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4166,14 +4044,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4205,14 +4077,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4244,14 +4110,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4283,14 +4143,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4322,14 +4176,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4361,14 +4209,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4400,14 +4242,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4436,23 +4272,15 @@
         <v>7954857.124637566</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>1.198149606299213</v>
-      </c>
-      <c r="M111" t="n">
-        <v>1.06984126984127</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4477,7 +4305,7 @@
         <v>7954857.124637566</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4510,7 +4338,7 @@
         <v>7741912.630337565</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4543,7 +4371,7 @@
         <v>6552526.080137566</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4576,7 +4404,7 @@
         <v>6552526.080137566</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4609,7 +4437,7 @@
         <v>7120065.360937566</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4642,7 +4470,7 @@
         <v>5650875.766737565</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4675,7 +4503,7 @@
         <v>5453094.669137565</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4840,7 +4668,7 @@
         <v>8295647.599106598</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4873,7 +4701,7 @@
         <v>7945650.036406598</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4972,7 +4800,7 @@
         <v>9090556.046377756</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5005,7 +4833,7 @@
         <v>9336195.524477756</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5038,7 +4866,7 @@
         <v>8572227.822477756</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5071,7 +4899,7 @@
         <v>8906408.5896066</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5104,7 +4932,7 @@
         <v>9062082.859018713</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5137,7 +4965,7 @@
         <v>9062082.859018713</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5170,7 +4998,7 @@
         <v>7337366.852718713</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5203,7 +5031,7 @@
         <v>8037934.338518713</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5236,7 +5064,7 @@
         <v>8252457.506618713</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5269,7 +5097,7 @@
         <v>8252457.506618713</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5434,7 +5262,7 @@
         <v>6186783.929322087</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5467,7 +5295,7 @@
         <v>6628931.502022088</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5500,7 +5328,7 @@
         <v>6679655.026622088</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5533,7 +5361,7 @@
         <v>4460989.138822088</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5566,7 +5394,7 @@
         <v>3960594.638822088</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5599,7 +5427,7 @@
         <v>3990756.138822088</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5632,7 +5460,7 @@
         <v>3618876.411222088</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5665,7 +5493,7 @@
         <v>3969523.793122088</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5698,7 +5526,7 @@
         <v>3953668.616022088</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5731,7 +5559,7 @@
         <v>4059186.653222088</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5764,7 +5592,7 @@
         <v>4058246.653222088</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5830,7 +5658,7 @@
         <v>4045226.641822088</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -10549,7 +10377,7 @@
         <v>8657267.568120284</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10582,7 +10410,7 @@
         <v>8632424.898420284</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10615,7 +10443,7 @@
         <v>7815637.668620284</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10648,7 +10476,7 @@
         <v>7248057.245320284</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10681,7 +10509,7 @@
         <v>6607307.887320284</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10714,7 +10542,7 @@
         <v>6854165.910020283</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10747,7 +10575,7 @@
         <v>6740740.615720283</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10780,7 +10608,7 @@
         <v>6688300.471520283</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10813,7 +10641,7 @@
         <v>6798657.588320283</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10846,7 +10674,7 @@
         <v>6802161.588320283</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10879,7 +10707,7 @@
         <v>6801289.588320283</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10912,7 +10740,7 @@
         <v>7480140.705920283</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10945,7 +10773,7 @@
         <v>7326463.780920283</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10978,7 +10806,7 @@
         <v>7331308.280520283</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11011,7 +10839,7 @@
         <v>7329977.908820283</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11044,7 +10872,7 @@
         <v>7629008.616820282</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11077,7 +10905,7 @@
         <v>7628152.169520282</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11110,7 +10938,7 @@
         <v>7334182.169420282</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11143,7 +10971,7 @@
         <v>7334182.169420282</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11176,7 +11004,7 @@
         <v>7337283.155420282</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11209,7 +11037,7 @@
         <v>7063722.429120282</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -28215,6 +28043,6 @@
       <c r="M831" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest FZZ.xlsx
+++ b/BackTest/2019-11-12 BackTest FZZ.xlsx
@@ -2200,14 +2200,10 @@
         <v>-5290225.69156313</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>6.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2237,142 +2233,122 @@
         <v>-5290225.69156313</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F57" t="n">
+        <v>158</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-5290067.69156313</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6065.7089</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-5296133.40046313</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="J58" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C59" t="n">
         <v>6.3</v>
       </c>
-      <c r="J56" t="n">
+      <c r="D59" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E59" t="n">
         <v>6.3</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="F59" t="n">
+        <v>33242.6037</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-5329376.00416313</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="J59" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="D57" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="F57" t="n">
-        <v>158</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-5290067.69156313</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="C58" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="D58" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="F58" t="n">
-        <v>6065.7089</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-5296133.40046313</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="C59" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D59" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="E59" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F59" t="n">
-        <v>33242.6037</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-5329376.00416313</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="J59" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2407,7 +2383,7 @@
         <v>6.3</v>
       </c>
       <c r="J60" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2448,7 +2424,7 @@
         <v>6.31</v>
       </c>
       <c r="J61" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2489,7 +2465,7 @@
         <v>6.31</v>
       </c>
       <c r="J62" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2530,7 +2506,7 @@
         <v>6.49</v>
       </c>
       <c r="J63" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2571,7 +2547,7 @@
         <v>6.49</v>
       </c>
       <c r="J64" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2612,7 +2588,7 @@
         <v>6.49</v>
       </c>
       <c r="J65" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2653,7 +2629,7 @@
         <v>6.49</v>
       </c>
       <c r="J66" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2694,7 +2670,7 @@
         <v>6.49</v>
       </c>
       <c r="J67" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2735,7 +2711,7 @@
         <v>6.49</v>
       </c>
       <c r="J68" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2776,7 +2752,7 @@
         <v>6.49</v>
       </c>
       <c r="J69" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2817,7 +2793,7 @@
         <v>6.26</v>
       </c>
       <c r="J70" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2858,7 +2834,7 @@
         <v>6.48</v>
       </c>
       <c r="J71" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2899,7 +2875,7 @@
         <v>6.26</v>
       </c>
       <c r="J72" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2940,7 +2916,7 @@
         <v>6.46</v>
       </c>
       <c r="J73" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2981,7 +2957,7 @@
         <v>6.4</v>
       </c>
       <c r="J74" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3020,7 +2996,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3059,7 +3035,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3098,7 +3074,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3137,7 +3113,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3176,7 +3152,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3215,7 +3191,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3254,7 +3230,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3293,7 +3269,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3332,7 +3308,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3371,7 +3347,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3406,650 +3382,764 @@
         <v>7118951.053305401</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E86" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2031285.6044</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5087665.448905401</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C87" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="D87" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E87" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="F87" t="n">
+        <v>404669.0545</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5492334.503405401</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="C88" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E88" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="F88" t="n">
+        <v>190016.0359</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5682350.5393054</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1403043.5572</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4279306.9821054</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C90" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D90" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E90" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>475534.184</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4754841.166105401</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F91" t="n">
+        <v>421097.5567</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4333743.609405401</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D92" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F92" t="n">
+        <v>446618.0128</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3887125.596605401</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D93" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1004420.4456</v>
+      </c>
+      <c r="G93" t="n">
+        <v>3887125.596605401</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="F94" t="n">
+        <v>270012.1905</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4157137.787105401</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1998188.5837</v>
+      </c>
+      <c r="G95" t="n">
+        <v>6155326.370805401</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4395243.9674</v>
+      </c>
+      <c r="G96" t="n">
+        <v>10550570.3382054</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C97" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1659556.56538225</v>
+      </c>
+      <c r="G97" t="n">
+        <v>8891013.772823151</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="C98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>558787.3432</v>
+      </c>
+      <c r="G98" t="n">
+        <v>8332226.429623151</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F99" t="n">
+        <v>815196.9269</v>
+      </c>
+      <c r="G99" t="n">
+        <v>7517029.502723151</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F100" t="n">
+        <v>686890.8332</v>
+      </c>
+      <c r="G100" t="n">
+        <v>8203920.335923151</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="C101" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E101" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F101" t="n">
+        <v>216197.9318</v>
+      </c>
+      <c r="G101" t="n">
+        <v>8420118.267723151</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F102" t="n">
+        <v>511006.8204580645</v>
+      </c>
+      <c r="G102" t="n">
+        <v>8931125.088181214</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>449218.6600612903</v>
+      </c>
+      <c r="G103" t="n">
+        <v>8931125.088181214</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F104" t="n">
+        <v>212665.1026</v>
+      </c>
+      <c r="G104" t="n">
+        <v>9143790.190781215</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1.153730158730159</v>
-      </c>
-      <c r="M85" t="n">
+      <c r="L104" t="n">
+        <v>1.229177215189873</v>
+      </c>
+      <c r="M104" t="n">
         <v>1.06984126984127</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C86" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="D86" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="E86" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2031285.6044</v>
-      </c>
-      <c r="G86" t="n">
-        <v>5087665.448905401</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C87" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="D87" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="E87" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="F87" t="n">
-        <v>404669.0545</v>
-      </c>
-      <c r="G87" t="n">
-        <v>5492334.503405401</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="C88" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="D88" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="E88" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="F88" t="n">
-        <v>190016.0359</v>
-      </c>
-      <c r="G88" t="n">
-        <v>5682350.5393054</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="C89" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="D89" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E89" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1403043.5572</v>
-      </c>
-      <c r="G89" t="n">
-        <v>4279306.9821054</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="C90" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D90" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="E90" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F90" t="n">
-        <v>475534.184</v>
-      </c>
-      <c r="G90" t="n">
-        <v>4754841.166105401</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="C91" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="D91" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="E91" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F91" t="n">
-        <v>421097.5567</v>
-      </c>
-      <c r="G91" t="n">
-        <v>4333743.609405401</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="C92" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D92" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="E92" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F92" t="n">
-        <v>446618.0128</v>
-      </c>
-      <c r="G92" t="n">
-        <v>3887125.596605401</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="C93" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D93" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="E93" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1004420.4456</v>
-      </c>
-      <c r="G93" t="n">
-        <v>3887125.596605401</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="C94" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D94" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="E94" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="F94" t="n">
-        <v>270012.1905</v>
-      </c>
-      <c r="G94" t="n">
-        <v>4157137.787105401</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C95" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="D95" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="E95" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1998188.5837</v>
-      </c>
-      <c r="G95" t="n">
-        <v>6155326.370805401</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C96" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="D96" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="E96" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="F96" t="n">
-        <v>4395243.9674</v>
-      </c>
-      <c r="G96" t="n">
-        <v>10550570.3382054</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="C97" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="D97" t="n">
-        <v>8</v>
-      </c>
-      <c r="E97" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1659556.56538225</v>
-      </c>
-      <c r="G97" t="n">
-        <v>8891013.772823151</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="C98" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D98" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F98" t="n">
-        <v>558787.3432</v>
-      </c>
-      <c r="G98" t="n">
-        <v>8332226.429623151</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="C99" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D99" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="E99" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F99" t="n">
-        <v>815196.9269</v>
-      </c>
-      <c r="G99" t="n">
-        <v>7517029.502723151</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C100" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D100" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E100" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F100" t="n">
-        <v>686890.8332</v>
-      </c>
-      <c r="G100" t="n">
-        <v>8203920.335923151</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="C101" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D101" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="E101" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="F101" t="n">
-        <v>216197.9318</v>
-      </c>
-      <c r="G101" t="n">
-        <v>8420118.267723151</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="C102" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="D102" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="E102" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="F102" t="n">
-        <v>511006.8204580645</v>
-      </c>
-      <c r="G102" t="n">
-        <v>8931125.088181214</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="C103" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="D103" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E103" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>449218.6600612903</v>
-      </c>
-      <c r="G103" t="n">
-        <v>8931125.088181214</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C104" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D104" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E104" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="F104" t="n">
-        <v>212665.1026</v>
-      </c>
-      <c r="G104" t="n">
-        <v>9143790.190781215</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4074,7 +4164,7 @@
         <v>9825541.744781215</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4107,7 +4197,7 @@
         <v>10228350.15473348</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4140,7 +4230,7 @@
         <v>9705093.931433475</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4173,7 +4263,7 @@
         <v>9144143.568333475</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4206,7 +4296,7 @@
         <v>9475166.691737566</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4239,7 +4329,7 @@
         <v>9124093.664637566</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4272,7 +4362,7 @@
         <v>7954857.124637566</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4305,7 +4395,7 @@
         <v>7954857.124637566</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4536,7 +4626,7 @@
         <v>6039475.173806597</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4569,7 +4659,7 @@
         <v>4366655.510206597</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4602,7 +4692,7 @@
         <v>5455102.598606597</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4635,7 +4725,7 @@
         <v>8574476.368406598</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4734,7 +4824,7 @@
         <v>8090687.796606598</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4767,7 +4857,7 @@
         <v>9090787.671877755</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -10377,7 +10467,7 @@
         <v>8657267.568120284</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10410,7 +10500,7 @@
         <v>8632424.898420284</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10443,7 +10533,7 @@
         <v>7815637.668620284</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10476,7 +10566,7 @@
         <v>7248057.245320284</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10509,7 +10599,7 @@
         <v>6607307.887320284</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10542,7 +10632,7 @@
         <v>6854165.910020283</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10575,7 +10665,7 @@
         <v>6740740.615720283</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10608,7 +10698,7 @@
         <v>6688300.471520283</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10641,7 +10731,7 @@
         <v>6798657.588320283</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10674,7 +10764,7 @@
         <v>6802161.588320283</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10707,7 +10797,7 @@
         <v>6801289.588320283</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10740,7 +10830,7 @@
         <v>7480140.705920283</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10773,7 +10863,7 @@
         <v>7326463.780920283</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10806,7 +10896,7 @@
         <v>7331308.280520283</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10839,7 +10929,7 @@
         <v>7329977.908820283</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10872,7 +10962,7 @@
         <v>7629008.616820282</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10905,7 +10995,7 @@
         <v>7628152.169520282</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10938,7 +11028,7 @@
         <v>7334182.169420282</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10971,7 +11061,7 @@
         <v>7334182.169420282</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11004,7 +11094,7 @@
         <v>7337283.155420282</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11037,7 +11127,7 @@
         <v>7063722.429120282</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
